--- a/Useful/VariableConverted.xlsx
+++ b/Useful/VariableConverted.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owenholloway/Code/C#/NemTracker/Useful/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62395263-8813-F345-AF76-DEB96976AAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB8C0E8-D465-2740-A00F-5230594556AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41220" yWindow="4320" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{DA1AE469-F5E3-5145-9063-675D6E6FF3EB}"/>
+    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{DA1AE469-F5E3-5145-9063-675D6E6FF3EB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Working" sheetId="1" r:id="rId1"/>
+    <sheet name="CSV Consume" sheetId="2" r:id="rId2"/>
     <sheet name="TO SQL" sheetId="3" r:id="rId3"/>
+    <sheet name="dto -&gt; obj" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1011,48 +1012,12 @@
     <t>excess_generation</t>
   </si>
   <si>
-    <t>raise_6_sec_rrp</t>
-  </si>
-  <si>
-    <t>raise_6_sec_rop</t>
-  </si>
-  <si>
-    <t>raise_60_sec_rrp</t>
-  </si>
-  <si>
-    <t>raise_60_sec_rop</t>
-  </si>
-  <si>
-    <t>raise_5_min_rrp</t>
-  </si>
-  <si>
-    <t>raise_5_min_rop</t>
-  </si>
-  <si>
     <t>raise_reg_rrp</t>
   </si>
   <si>
     <t>raise_reg_rop</t>
   </si>
   <si>
-    <t>lower_6_sec_rrp</t>
-  </si>
-  <si>
-    <t>lower_6_sec_rop</t>
-  </si>
-  <si>
-    <t>lower_60_sec_rrp</t>
-  </si>
-  <si>
-    <t>lower_60_sec_rop</t>
-  </si>
-  <si>
-    <t>lower_5_min_rrp</t>
-  </si>
-  <si>
-    <t>lower_5_min_rop</t>
-  </si>
-  <si>
     <t>lower_reg_rrp</t>
   </si>
   <si>
@@ -1074,96 +1039,6 @@
     <t>dispatchable_load</t>
   </si>
   <si>
-    <t>lower_5_min_dispatch</t>
-  </si>
-  <si>
-    <t>lower_5_min_import</t>
-  </si>
-  <si>
-    <t>lower_5_min_local_dispatch</t>
-  </si>
-  <si>
-    <t>lower_5_min_local_req</t>
-  </si>
-  <si>
-    <t>lower_5_min_req</t>
-  </si>
-  <si>
-    <t>lower_60_sec_dispatch</t>
-  </si>
-  <si>
-    <t>lower_60_sec_import</t>
-  </si>
-  <si>
-    <t>lower_60_sec_local_dispatch</t>
-  </si>
-  <si>
-    <t>lower_60_sec_local_req</t>
-  </si>
-  <si>
-    <t>lower_60_sec_req</t>
-  </si>
-  <si>
-    <t>lower_6_sec_dispatch</t>
-  </si>
-  <si>
-    <t>lower_6_sec_import</t>
-  </si>
-  <si>
-    <t>lower_6_sec_local_dispatch</t>
-  </si>
-  <si>
-    <t>lower_6_sec_local_req</t>
-  </si>
-  <si>
-    <t>lower_6_sec_req</t>
-  </si>
-  <si>
-    <t>raise_5_min_dispatch</t>
-  </si>
-  <si>
-    <t>raise_5_min_import</t>
-  </si>
-  <si>
-    <t>raise_5_min_local_dispatch</t>
-  </si>
-  <si>
-    <t>raise_5_min_local_req</t>
-  </si>
-  <si>
-    <t>raise_5_min_req</t>
-  </si>
-  <si>
-    <t>raise_60_sec_dispatch</t>
-  </si>
-  <si>
-    <t>raise_60_sec_import</t>
-  </si>
-  <si>
-    <t>raise_60_sec_local_dispatch</t>
-  </si>
-  <si>
-    <t>raise_60_sec_local_req</t>
-  </si>
-  <si>
-    <t>raise_60_sec_req</t>
-  </si>
-  <si>
-    <t>raise_6_sec_dispatch</t>
-  </si>
-  <si>
-    <t>raise_6_sec_import</t>
-  </si>
-  <si>
-    <t>raise_6_sec_local_dispatch</t>
-  </si>
-  <si>
-    <t>raise_6_sec_local_req</t>
-  </si>
-  <si>
-    <t>raise_6_sec_req</t>
-  </si>
-  <si>
     <t>aggregate_dispatch_error</t>
   </si>
   <si>
@@ -1203,54 +1078,18 @@
     <t>raise_reg_req</t>
   </si>
   <si>
-    <t>raise_5_min_local_violation</t>
-  </si>
-  <si>
     <t>raise_reg_local_violation</t>
   </si>
   <si>
-    <t>raise_60_sec_local_violation</t>
-  </si>
-  <si>
-    <t>raise_6_sec_local_violation</t>
-  </si>
-  <si>
-    <t>lower_5_min_local_violation</t>
-  </si>
-  <si>
     <t>lower_reg_local_violation</t>
   </si>
   <si>
-    <t>lower_60_sec_local_violation</t>
-  </si>
-  <si>
-    <t>lower_6_sec_local_violation</t>
-  </si>
-  <si>
-    <t>raise_5_min_violation</t>
-  </si>
-  <si>
     <t>raise_reg_violation</t>
   </si>
   <si>
-    <t>raise_60_sec_violation</t>
-  </si>
-  <si>
-    <t>raise_6_sec_violation</t>
-  </si>
-  <si>
-    <t>lower_5_min_violation</t>
-  </si>
-  <si>
     <t>lower_reg_violation</t>
   </si>
   <si>
-    <t>lower_60_sec_violation</t>
-  </si>
-  <si>
-    <t>lower_6_sec_violation</t>
-  </si>
-  <si>
     <t>last_changed</t>
   </si>
   <si>
@@ -1372,6 +1211,168 @@
   </si>
   <si>
     <t>net_interchange</t>
+  </si>
+  <si>
+    <t>raise6_sec_rrp</t>
+  </si>
+  <si>
+    <t>raise6_sec_rop</t>
+  </si>
+  <si>
+    <t>raise60_sec_rrp</t>
+  </si>
+  <si>
+    <t>raise60_sec_rop</t>
+  </si>
+  <si>
+    <t>raise5_min_rrp</t>
+  </si>
+  <si>
+    <t>raise5_min_rop</t>
+  </si>
+  <si>
+    <t>lower6_sec_rrp</t>
+  </si>
+  <si>
+    <t>lower6_sec_rop</t>
+  </si>
+  <si>
+    <t>lower60_sec_rrp</t>
+  </si>
+  <si>
+    <t>lower60_sec_rop</t>
+  </si>
+  <si>
+    <t>lower5_min_rrp</t>
+  </si>
+  <si>
+    <t>lower5_min_rop</t>
+  </si>
+  <si>
+    <t>lower5_min_dispatch</t>
+  </si>
+  <si>
+    <t>lower5_min_import</t>
+  </si>
+  <si>
+    <t>lower5_min_local_dispatch</t>
+  </si>
+  <si>
+    <t>lower5_min_local_req</t>
+  </si>
+  <si>
+    <t>lower5_min_req</t>
+  </si>
+  <si>
+    <t>lower60_sec_dispatch</t>
+  </si>
+  <si>
+    <t>lower60_sec_import</t>
+  </si>
+  <si>
+    <t>lower60_sec_local_dispatch</t>
+  </si>
+  <si>
+    <t>lower60_sec_local_req</t>
+  </si>
+  <si>
+    <t>lower60_sec_req</t>
+  </si>
+  <si>
+    <t>lower6_sec_dispatch</t>
+  </si>
+  <si>
+    <t>lower6_sec_import</t>
+  </si>
+  <si>
+    <t>lower6_sec_local_dispatch</t>
+  </si>
+  <si>
+    <t>lower6_sec_local_req</t>
+  </si>
+  <si>
+    <t>lower6_sec_req</t>
+  </si>
+  <si>
+    <t>raise5_min_dispatch</t>
+  </si>
+  <si>
+    <t>raise5_min_import</t>
+  </si>
+  <si>
+    <t>raise5_min_local_dispatch</t>
+  </si>
+  <si>
+    <t>raise5_min_local_req</t>
+  </si>
+  <si>
+    <t>raise5_min_req</t>
+  </si>
+  <si>
+    <t>raise60_sec_dispatch</t>
+  </si>
+  <si>
+    <t>raise60_sec_import</t>
+  </si>
+  <si>
+    <t>raise60_sec_local_dispatch</t>
+  </si>
+  <si>
+    <t>raise60_sec_local_req</t>
+  </si>
+  <si>
+    <t>raise60_sec_req</t>
+  </si>
+  <si>
+    <t>raise6_sec_dispatch</t>
+  </si>
+  <si>
+    <t>raise6_sec_import</t>
+  </si>
+  <si>
+    <t>raise6_sec_local_dispatch</t>
+  </si>
+  <si>
+    <t>raise6_sec_local_req</t>
+  </si>
+  <si>
+    <t>raise6_sec_req</t>
+  </si>
+  <si>
+    <t>raise5_min_local_violation</t>
+  </si>
+  <si>
+    <t>raise60_sec_local_violation</t>
+  </si>
+  <si>
+    <t>raise6_sec_local_violation</t>
+  </si>
+  <si>
+    <t>lower5_min_local_violation</t>
+  </si>
+  <si>
+    <t>lower60_sec_local_violation</t>
+  </si>
+  <si>
+    <t>lower6_sec_local_violation</t>
+  </si>
+  <si>
+    <t>raise5_min_violation</t>
+  </si>
+  <si>
+    <t>raise60_sec_violation</t>
+  </si>
+  <si>
+    <t>raise6_sec_violation</t>
+  </si>
+  <si>
+    <t>lower5_min_violation</t>
+  </si>
+  <si>
+    <t>lower60_sec_violation</t>
+  </si>
+  <si>
+    <t>lower6_sec_violation</t>
   </si>
 </sst>
 </file>
@@ -6395,7 +6396,7 @@
   <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J104"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6435,10 +6436,10 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" t="s">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="T1" t="s">
-        <v>420</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -6473,10 +6474,10 @@
         <v>run_time date,</v>
       </c>
       <c r="S2" t="s">
-        <v>427</v>
+        <v>373</v>
       </c>
       <c r="T2" t="s">
-        <v>426</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -6511,10 +6512,10 @@
         <v>interval date,</v>
       </c>
       <c r="S3" t="s">
-        <v>429</v>
+        <v>375</v>
       </c>
       <c r="T3" t="s">
-        <v>428</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -6549,10 +6550,10 @@
         <v>region smallint,</v>
       </c>
       <c r="S4" t="s">
-        <v>431</v>
+        <v>377</v>
       </c>
       <c r="T4" t="s">
-        <v>430</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -6587,10 +6588,10 @@
         <v>rrp double precision,</v>
       </c>
       <c r="S5" t="s">
-        <v>423</v>
+        <v>369</v>
       </c>
       <c r="T5" t="s">
-        <v>432</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -6625,10 +6626,10 @@
         <v>rop double precision,</v>
       </c>
       <c r="S6" t="s">
-        <v>434</v>
+        <v>380</v>
       </c>
       <c r="T6" t="s">
-        <v>433</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -6663,10 +6664,10 @@
         <v>excess_generation double precision,</v>
       </c>
       <c r="S7" t="s">
-        <v>421</v>
+        <v>367</v>
       </c>
       <c r="T7" t="s">
-        <v>425</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -6690,7 +6691,7 @@
         <v>Raise6SecRrp</v>
       </c>
       <c r="G8" t="s">
-        <v>324</v>
+        <v>391</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -6698,13 +6699,13 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" si="5"/>
-        <v>raise_6_sec_rrp double precision,</v>
+        <v>raise6_sec_rrp double precision,</v>
       </c>
       <c r="S8" t="s">
-        <v>436</v>
+        <v>382</v>
       </c>
       <c r="T8" t="s">
-        <v>435</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -6728,7 +6729,7 @@
         <v>Raise6SecRop</v>
       </c>
       <c r="G9" t="s">
-        <v>325</v>
+        <v>392</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -6736,13 +6737,13 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="5"/>
-        <v>raise_6_sec_rop double precision,</v>
+        <v>raise6_sec_rop double precision,</v>
       </c>
       <c r="S9" t="s">
-        <v>438</v>
+        <v>384</v>
       </c>
       <c r="T9" t="s">
-        <v>437</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -6766,7 +6767,7 @@
         <v>Raise60SecRrp</v>
       </c>
       <c r="G10" t="s">
-        <v>326</v>
+        <v>393</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -6774,13 +6775,13 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="5"/>
-        <v>raise_60_sec_rrp double precision,</v>
+        <v>raise60_sec_rrp double precision,</v>
       </c>
       <c r="S10" t="s">
-        <v>422</v>
+        <v>368</v>
       </c>
       <c r="T10" t="s">
-        <v>424</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -6804,7 +6805,7 @@
         <v>Raise60SecRop</v>
       </c>
       <c r="G11" t="s">
-        <v>327</v>
+        <v>394</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -6812,13 +6813,13 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="5"/>
-        <v>raise_60_sec_rop double precision,</v>
+        <v>raise60_sec_rop double precision,</v>
       </c>
       <c r="S11" t="s">
-        <v>427</v>
+        <v>373</v>
       </c>
       <c r="T11" t="s">
-        <v>439</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -6842,7 +6843,7 @@
         <v>Raise5MinRrp</v>
       </c>
       <c r="G12" t="s">
-        <v>328</v>
+        <v>395</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -6850,13 +6851,13 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" si="5"/>
-        <v>raise_5_min_rrp double precision,</v>
+        <v>raise5_min_rrp double precision,</v>
       </c>
       <c r="S12" t="s">
-        <v>440</v>
+        <v>386</v>
       </c>
       <c r="T12" t="s">
-        <v>428</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -6880,7 +6881,7 @@
         <v>Raise5MinRop</v>
       </c>
       <c r="G13" t="s">
-        <v>329</v>
+        <v>396</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -6888,7 +6889,7 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" si="5"/>
-        <v>raise_5_min_rop double precision,</v>
+        <v>raise5_min_rop double precision,</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -6912,7 +6913,7 @@
         <v>RaiseRegRrp</v>
       </c>
       <c r="G14" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -6944,7 +6945,7 @@
         <v>RaiseRegRop</v>
       </c>
       <c r="G15" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -6976,7 +6977,7 @@
         <v>Lower6SecRrp</v>
       </c>
       <c r="G16" t="s">
-        <v>332</v>
+        <v>397</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -6984,7 +6985,7 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" si="5"/>
-        <v>lower_6_sec_rrp double precision,</v>
+        <v>lower6_sec_rrp double precision,</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -7008,7 +7009,7 @@
         <v>Lower6SecRop</v>
       </c>
       <c r="G17" t="s">
-        <v>333</v>
+        <v>398</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -7016,7 +7017,7 @@
       </c>
       <c r="J17" t="str">
         <f t="shared" si="5"/>
-        <v>lower_6_sec_rop double precision,</v>
+        <v>lower6_sec_rop double precision,</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -7040,7 +7041,7 @@
         <v>Lower60SecRrp</v>
       </c>
       <c r="G18" t="s">
-        <v>334</v>
+        <v>399</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -7048,7 +7049,7 @@
       </c>
       <c r="J18" t="str">
         <f t="shared" si="5"/>
-        <v>lower_60_sec_rrp double precision,</v>
+        <v>lower60_sec_rrp double precision,</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -7072,7 +7073,7 @@
         <v>Lower60SecRop</v>
       </c>
       <c r="G19" t="s">
-        <v>335</v>
+        <v>400</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -7080,7 +7081,7 @@
       </c>
       <c r="J19" t="str">
         <f t="shared" si="5"/>
-        <v>lower_60_sec_rop double precision,</v>
+        <v>lower60_sec_rop double precision,</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -7104,7 +7105,7 @@
         <v>Lower5MinRrp</v>
       </c>
       <c r="G20" t="s">
-        <v>336</v>
+        <v>401</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -7112,7 +7113,7 @@
       </c>
       <c r="J20" t="str">
         <f t="shared" si="5"/>
-        <v>lower_5_min_rrp double precision,</v>
+        <v>lower5_min_rrp double precision,</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -7136,7 +7137,7 @@
         <v>Lower5MinRop</v>
       </c>
       <c r="G21" t="s">
-        <v>337</v>
+        <v>402</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -7144,7 +7145,7 @@
       </c>
       <c r="J21" t="str">
         <f t="shared" si="5"/>
-        <v>lower_5_min_rop double precision,</v>
+        <v>lower5_min_rop double precision,</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -7168,7 +7169,7 @@
         <v>LowerRegRrp</v>
       </c>
       <c r="G22" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -7200,7 +7201,7 @@
         <v>LowerRegRop</v>
       </c>
       <c r="G23" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -7213,7 +7214,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>441</v>
+        <v>387</v>
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
@@ -7232,7 +7233,7 @@
         <v>TotalDemand</v>
       </c>
       <c r="G24" t="s">
-        <v>443</v>
+        <v>389</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
@@ -7264,7 +7265,7 @@
         <v>AvailableGeneration</v>
       </c>
       <c r="G25" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
@@ -7296,7 +7297,7 @@
         <v>AvailableLoad</v>
       </c>
       <c r="G26" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
@@ -7328,7 +7329,7 @@
         <v>DemandForecast</v>
       </c>
       <c r="G27" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
@@ -7360,7 +7361,7 @@
         <v>DispatchableGeneration</v>
       </c>
       <c r="G28" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
@@ -7392,7 +7393,7 @@
         <v>DispatchableLoad</v>
       </c>
       <c r="G29" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
@@ -7405,7 +7406,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>442</v>
+        <v>388</v>
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
@@ -7424,7 +7425,7 @@
         <v>NetInterchange</v>
       </c>
       <c r="G30" t="s">
-        <v>444</v>
+        <v>390</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
@@ -7456,7 +7457,7 @@
         <v>Lower5MinDispatch</v>
       </c>
       <c r="G31" t="s">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
@@ -7464,7 +7465,7 @@
       </c>
       <c r="J31" t="str">
         <f t="shared" si="5"/>
-        <v>lower_5_min_dispatch double precision,</v>
+        <v>lower5_min_dispatch double precision,</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -7488,7 +7489,7 @@
         <v>Lower5MinImport</v>
       </c>
       <c r="G32" t="s">
-        <v>346</v>
+        <v>404</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
@@ -7496,7 +7497,7 @@
       </c>
       <c r="J32" t="str">
         <f t="shared" si="5"/>
-        <v>lower_5_min_import double precision,</v>
+        <v>lower5_min_import double precision,</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -7520,7 +7521,7 @@
         <v>Lower5MinLocalDispatch</v>
       </c>
       <c r="G33" t="s">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
@@ -7528,7 +7529,7 @@
       </c>
       <c r="J33" t="str">
         <f t="shared" si="5"/>
-        <v>lower_5_min_local_dispatch double precision,</v>
+        <v>lower5_min_local_dispatch double precision,</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -7552,7 +7553,7 @@
         <v>Lower5MinLocalReq</v>
       </c>
       <c r="G34" t="s">
-        <v>348</v>
+        <v>406</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
@@ -7560,7 +7561,7 @@
       </c>
       <c r="J34" t="str">
         <f t="shared" si="5"/>
-        <v>lower_5_min_local_req double precision,</v>
+        <v>lower5_min_local_req double precision,</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -7584,7 +7585,7 @@
         <v>Lower5MinReq</v>
       </c>
       <c r="G35" t="s">
-        <v>349</v>
+        <v>407</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
@@ -7592,7 +7593,7 @@
       </c>
       <c r="J35" t="str">
         <f t="shared" si="5"/>
-        <v>lower_5_min_req double precision,</v>
+        <v>lower5_min_req double precision,</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -7616,7 +7617,7 @@
         <v>Lower60SecDispatch</v>
       </c>
       <c r="G36" t="s">
-        <v>350</v>
+        <v>408</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
@@ -7624,7 +7625,7 @@
       </c>
       <c r="J36" t="str">
         <f t="shared" si="5"/>
-        <v>lower_60_sec_dispatch double precision,</v>
+        <v>lower60_sec_dispatch double precision,</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -7648,7 +7649,7 @@
         <v>Lower60SecImport</v>
       </c>
       <c r="G37" t="s">
-        <v>351</v>
+        <v>409</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
@@ -7656,7 +7657,7 @@
       </c>
       <c r="J37" t="str">
         <f t="shared" si="5"/>
-        <v>lower_60_sec_import double precision,</v>
+        <v>lower60_sec_import double precision,</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -7680,7 +7681,7 @@
         <v>Lower60SecLocalDispatch</v>
       </c>
       <c r="G38" t="s">
-        <v>352</v>
+        <v>410</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
@@ -7688,7 +7689,7 @@
       </c>
       <c r="J38" t="str">
         <f t="shared" si="5"/>
-        <v>lower_60_sec_local_dispatch double precision,</v>
+        <v>lower60_sec_local_dispatch double precision,</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -7712,7 +7713,7 @@
         <v>Lower60SecLocalReq</v>
       </c>
       <c r="G39" t="s">
-        <v>353</v>
+        <v>411</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
@@ -7720,7 +7721,7 @@
       </c>
       <c r="J39" t="str">
         <f t="shared" si="5"/>
-        <v>lower_60_sec_local_req double precision,</v>
+        <v>lower60_sec_local_req double precision,</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -7744,7 +7745,7 @@
         <v>Lower60SecReq</v>
       </c>
       <c r="G40" t="s">
-        <v>354</v>
+        <v>412</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
@@ -7752,7 +7753,7 @@
       </c>
       <c r="J40" t="str">
         <f t="shared" si="5"/>
-        <v>lower_60_sec_req double precision,</v>
+        <v>lower60_sec_req double precision,</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -7776,7 +7777,7 @@
         <v>Lower6SecDispatch</v>
       </c>
       <c r="G41" t="s">
-        <v>355</v>
+        <v>413</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
@@ -7784,7 +7785,7 @@
       </c>
       <c r="J41" t="str">
         <f t="shared" si="5"/>
-        <v>lower_6_sec_dispatch double precision,</v>
+        <v>lower6_sec_dispatch double precision,</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -7808,7 +7809,7 @@
         <v>Lower6SecImport</v>
       </c>
       <c r="G42" t="s">
-        <v>356</v>
+        <v>414</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
@@ -7816,7 +7817,7 @@
       </c>
       <c r="J42" t="str">
         <f t="shared" si="5"/>
-        <v>lower_6_sec_import double precision,</v>
+        <v>lower6_sec_import double precision,</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -7840,7 +7841,7 @@
         <v>Lower6SecLocalDispatch</v>
       </c>
       <c r="G43" t="s">
-        <v>357</v>
+        <v>415</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
@@ -7848,7 +7849,7 @@
       </c>
       <c r="J43" t="str">
         <f t="shared" si="5"/>
-        <v>lower_6_sec_local_dispatch double precision,</v>
+        <v>lower6_sec_local_dispatch double precision,</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -7872,7 +7873,7 @@
         <v>Lower6SecLocalReq</v>
       </c>
       <c r="G44" t="s">
-        <v>358</v>
+        <v>416</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
@@ -7880,7 +7881,7 @@
       </c>
       <c r="J44" t="str">
         <f t="shared" si="5"/>
-        <v>lower_6_sec_local_req double precision,</v>
+        <v>lower6_sec_local_req double precision,</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -7904,7 +7905,7 @@
         <v>Lower6SecReq</v>
       </c>
       <c r="G45" t="s">
-        <v>359</v>
+        <v>417</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
@@ -7912,7 +7913,7 @@
       </c>
       <c r="J45" t="str">
         <f t="shared" si="5"/>
-        <v>lower_6_sec_req double precision,</v>
+        <v>lower6_sec_req double precision,</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -7936,7 +7937,7 @@
         <v>Raise5MinDispatch</v>
       </c>
       <c r="G46" t="s">
-        <v>360</v>
+        <v>418</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
@@ -7944,7 +7945,7 @@
       </c>
       <c r="J46" t="str">
         <f t="shared" si="5"/>
-        <v>raise_5_min_dispatch double precision,</v>
+        <v>raise5_min_dispatch double precision,</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -7968,7 +7969,7 @@
         <v>Raise5MinImport</v>
       </c>
       <c r="G47" t="s">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
@@ -7976,7 +7977,7 @@
       </c>
       <c r="J47" t="str">
         <f t="shared" si="5"/>
-        <v>raise_5_min_import double precision,</v>
+        <v>raise5_min_import double precision,</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -8000,7 +8001,7 @@
         <v>Raise5MinLocalDispatch</v>
       </c>
       <c r="G48" t="s">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
@@ -8008,7 +8009,7 @@
       </c>
       <c r="J48" t="str">
         <f t="shared" si="5"/>
-        <v>raise_5_min_local_dispatch double precision,</v>
+        <v>raise5_min_local_dispatch double precision,</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -8032,7 +8033,7 @@
         <v>Raise5MinLocalReq</v>
       </c>
       <c r="G49" t="s">
-        <v>363</v>
+        <v>421</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
@@ -8040,7 +8041,7 @@
       </c>
       <c r="J49" t="str">
         <f t="shared" si="5"/>
-        <v>raise_5_min_local_req double precision,</v>
+        <v>raise5_min_local_req double precision,</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -8064,7 +8065,7 @@
         <v>Raise5MinReq</v>
       </c>
       <c r="G50" t="s">
-        <v>364</v>
+        <v>422</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
@@ -8072,7 +8073,7 @@
       </c>
       <c r="J50" t="str">
         <f t="shared" si="5"/>
-        <v>raise_5_min_req double precision,</v>
+        <v>raise5_min_req double precision,</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -8096,7 +8097,7 @@
         <v>Raise60SecDispatch</v>
       </c>
       <c r="G51" t="s">
-        <v>365</v>
+        <v>423</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
@@ -8104,7 +8105,7 @@
       </c>
       <c r="J51" t="str">
         <f t="shared" si="5"/>
-        <v>raise_60_sec_dispatch double precision,</v>
+        <v>raise60_sec_dispatch double precision,</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -8128,7 +8129,7 @@
         <v>Raise60SecImport</v>
       </c>
       <c r="G52" t="s">
-        <v>366</v>
+        <v>424</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
@@ -8136,7 +8137,7 @@
       </c>
       <c r="J52" t="str">
         <f t="shared" si="5"/>
-        <v>raise_60_sec_import double precision,</v>
+        <v>raise60_sec_import double precision,</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -8160,7 +8161,7 @@
         <v>Raise60SecLocalDispatch</v>
       </c>
       <c r="G53" t="s">
-        <v>367</v>
+        <v>425</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
@@ -8168,7 +8169,7 @@
       </c>
       <c r="J53" t="str">
         <f t="shared" si="5"/>
-        <v>raise_60_sec_local_dispatch double precision,</v>
+        <v>raise60_sec_local_dispatch double precision,</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -8192,7 +8193,7 @@
         <v>Raise60SecLocalReq</v>
       </c>
       <c r="G54" t="s">
-        <v>368</v>
+        <v>426</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
@@ -8200,7 +8201,7 @@
       </c>
       <c r="J54" t="str">
         <f t="shared" si="5"/>
-        <v>raise_60_sec_local_req double precision,</v>
+        <v>raise60_sec_local_req double precision,</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -8224,7 +8225,7 @@
         <v>Raise60SecReq</v>
       </c>
       <c r="G55" t="s">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
@@ -8232,7 +8233,7 @@
       </c>
       <c r="J55" t="str">
         <f t="shared" si="5"/>
-        <v>raise_60_sec_req double precision,</v>
+        <v>raise60_sec_req double precision,</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -8256,7 +8257,7 @@
         <v>Raise6SecDispatch</v>
       </c>
       <c r="G56" t="s">
-        <v>370</v>
+        <v>428</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
@@ -8264,7 +8265,7 @@
       </c>
       <c r="J56" t="str">
         <f t="shared" si="5"/>
-        <v>raise_6_sec_dispatch double precision,</v>
+        <v>raise6_sec_dispatch double precision,</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -8288,7 +8289,7 @@
         <v>Raise6SecImport</v>
       </c>
       <c r="G57" t="s">
-        <v>371</v>
+        <v>429</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
@@ -8296,7 +8297,7 @@
       </c>
       <c r="J57" t="str">
         <f t="shared" si="5"/>
-        <v>raise_6_sec_import double precision,</v>
+        <v>raise6_sec_import double precision,</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -8320,7 +8321,7 @@
         <v>Raise6SecLocalDispatch</v>
       </c>
       <c r="G58" t="s">
-        <v>372</v>
+        <v>430</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
@@ -8328,7 +8329,7 @@
       </c>
       <c r="J58" t="str">
         <f t="shared" si="5"/>
-        <v>raise_6_sec_local_dispatch double precision,</v>
+        <v>raise6_sec_local_dispatch double precision,</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -8352,7 +8353,7 @@
         <v>Raise6SecLocalReq</v>
       </c>
       <c r="G59" t="s">
-        <v>373</v>
+        <v>431</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="0"/>
@@ -8360,7 +8361,7 @@
       </c>
       <c r="J59" t="str">
         <f t="shared" si="5"/>
-        <v>raise_6_sec_local_req double precision,</v>
+        <v>raise6_sec_local_req double precision,</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -8384,7 +8385,7 @@
         <v>Raise6SecReq</v>
       </c>
       <c r="G60" t="s">
-        <v>374</v>
+        <v>432</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="0"/>
@@ -8392,7 +8393,7 @@
       </c>
       <c r="J60" t="str">
         <f t="shared" si="5"/>
-        <v>raise_6_sec_req double precision,</v>
+        <v>raise6_sec_req double precision,</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -8416,7 +8417,7 @@
         <v>AggregateDispatchError</v>
       </c>
       <c r="G61" t="s">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="0"/>
@@ -8448,7 +8449,7 @@
         <v>InitialSupply</v>
       </c>
       <c r="G62" t="s">
-        <v>376</v>
+        <v>334</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="0"/>
@@ -8480,7 +8481,7 @@
         <v>ClearedSupply</v>
       </c>
       <c r="G63" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="0"/>
@@ -8512,7 +8513,7 @@
         <v>LowerRegImport</v>
       </c>
       <c r="G64" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
@@ -8544,7 +8545,7 @@
         <v>LowerRegDispatch</v>
       </c>
       <c r="G65" t="s">
-        <v>379</v>
+        <v>337</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="0"/>
@@ -8576,7 +8577,7 @@
         <v>LowerRegLocalDispatch</v>
       </c>
       <c r="G66" t="s">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" ref="H66:H104" si="6">VLOOKUP(D66,$S$2:$T$20,2,FALSE)</f>
@@ -8608,7 +8609,7 @@
         <v>LowerRegLocalReq</v>
       </c>
       <c r="G67" t="s">
-        <v>381</v>
+        <v>339</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="6"/>
@@ -8640,7 +8641,7 @@
         <v>LowerRegReq</v>
       </c>
       <c r="G68" t="s">
-        <v>382</v>
+        <v>340</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="6"/>
@@ -8672,7 +8673,7 @@
         <v>RaiseRegImport</v>
       </c>
       <c r="G69" t="s">
-        <v>383</v>
+        <v>341</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="6"/>
@@ -8704,7 +8705,7 @@
         <v>RaiseRegDispatch</v>
       </c>
       <c r="G70" t="s">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="6"/>
@@ -8736,7 +8737,7 @@
         <v>RaiseRegLocalDispatch</v>
       </c>
       <c r="G71" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="6"/>
@@ -8768,7 +8769,7 @@
         <v>RaiseRegLocalReq</v>
       </c>
       <c r="G72" t="s">
-        <v>386</v>
+        <v>344</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="6"/>
@@ -8800,7 +8801,7 @@
         <v>RaiseRegReq</v>
       </c>
       <c r="G73" t="s">
-        <v>387</v>
+        <v>345</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="6"/>
@@ -8832,7 +8833,7 @@
         <v>Raise5MinLocalViolation</v>
       </c>
       <c r="G74" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="6"/>
@@ -8840,7 +8841,7 @@
       </c>
       <c r="J74" t="str">
         <f t="shared" si="11"/>
-        <v>raise_5_min_local_violation double precision,</v>
+        <v>raise5_min_local_violation double precision,</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -8864,7 +8865,7 @@
         <v>RaiseRegLocalViolation</v>
       </c>
       <c r="G75" t="s">
-        <v>389</v>
+        <v>346</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="6"/>
@@ -8896,7 +8897,7 @@
         <v>Raise60SecLocalViolation</v>
       </c>
       <c r="G76" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="6"/>
@@ -8904,7 +8905,7 @@
       </c>
       <c r="J76" t="str">
         <f t="shared" si="11"/>
-        <v>raise_60_sec_local_violation double precision,</v>
+        <v>raise60_sec_local_violation double precision,</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -8928,7 +8929,7 @@
         <v>Raise6SecLocalViolation</v>
       </c>
       <c r="G77" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="6"/>
@@ -8936,7 +8937,7 @@
       </c>
       <c r="J77" t="str">
         <f t="shared" si="11"/>
-        <v>raise_6_sec_local_violation double precision,</v>
+        <v>raise6_sec_local_violation double precision,</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -8960,7 +8961,7 @@
         <v>Lower5MinLocalViolation</v>
       </c>
       <c r="G78" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="6"/>
@@ -8968,7 +8969,7 @@
       </c>
       <c r="J78" t="str">
         <f t="shared" si="11"/>
-        <v>lower_5_min_local_violation double precision,</v>
+        <v>lower5_min_local_violation double precision,</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -8992,7 +8993,7 @@
         <v>LowerRegLocalViolation</v>
       </c>
       <c r="G79" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="6"/>
@@ -9024,7 +9025,7 @@
         <v>Lower60SecLocalViolation</v>
       </c>
       <c r="G80" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="6"/>
@@ -9032,7 +9033,7 @@
       </c>
       <c r="J80" t="str">
         <f t="shared" si="11"/>
-        <v>lower_60_sec_local_violation double precision,</v>
+        <v>lower60_sec_local_violation double precision,</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -9056,7 +9057,7 @@
         <v>Lower6SecLocalViolation</v>
       </c>
       <c r="G81" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="6"/>
@@ -9064,7 +9065,7 @@
       </c>
       <c r="J81" t="str">
         <f t="shared" si="11"/>
-        <v>lower_6_sec_local_violation double precision,</v>
+        <v>lower6_sec_local_violation double precision,</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -9088,7 +9089,7 @@
         <v>Raise5MinViolation</v>
       </c>
       <c r="G82" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="6"/>
@@ -9096,7 +9097,7 @@
       </c>
       <c r="J82" t="str">
         <f t="shared" si="11"/>
-        <v>raise_5_min_violation double precision,</v>
+        <v>raise5_min_violation double precision,</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -9120,7 +9121,7 @@
         <v>RaiseRegViolation</v>
       </c>
       <c r="G83" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="6"/>
@@ -9152,7 +9153,7 @@
         <v>Raise60SecViolation</v>
       </c>
       <c r="G84" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="6"/>
@@ -9160,7 +9161,7 @@
       </c>
       <c r="J84" t="str">
         <f t="shared" si="11"/>
-        <v>raise_60_sec_violation double precision,</v>
+        <v>raise60_sec_violation double precision,</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -9184,7 +9185,7 @@
         <v>Raise6SecViolation</v>
       </c>
       <c r="G85" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="6"/>
@@ -9192,7 +9193,7 @@
       </c>
       <c r="J85" t="str">
         <f t="shared" si="11"/>
-        <v>raise_6_sec_violation double precision,</v>
+        <v>raise6_sec_violation double precision,</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -9216,7 +9217,7 @@
         <v>Lower5MinViolation</v>
       </c>
       <c r="G86" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="6"/>
@@ -9224,7 +9225,7 @@
       </c>
       <c r="J86" t="str">
         <f t="shared" si="11"/>
-        <v>lower_5_min_violation double precision,</v>
+        <v>lower5_min_violation double precision,</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -9248,7 +9249,7 @@
         <v>LowerRegViolation</v>
       </c>
       <c r="G87" t="s">
-        <v>401</v>
+        <v>349</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="6"/>
@@ -9280,7 +9281,7 @@
         <v>Lower60SecViolation</v>
       </c>
       <c r="G88" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="6"/>
@@ -9288,7 +9289,7 @@
       </c>
       <c r="J88" t="str">
         <f t="shared" si="11"/>
-        <v>lower_60_sec_violation double precision,</v>
+        <v>lower60_sec_violation double precision,</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -9312,7 +9313,7 @@
         <v>Lower6SecViolation</v>
       </c>
       <c r="G89" t="s">
-        <v>403</v>
+        <v>444</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="6"/>
@@ -9320,7 +9321,7 @@
       </c>
       <c r="J89" t="str">
         <f t="shared" si="11"/>
-        <v>lower_6_sec_violation double precision,</v>
+        <v>lower6_sec_violation double precision,</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
@@ -9344,7 +9345,7 @@
         <v>LastChanged</v>
       </c>
       <c r="G90" t="s">
-        <v>404</v>
+        <v>350</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="6"/>
@@ -9376,7 +9377,7 @@
         <v>TotalIntermittentGeneration</v>
       </c>
       <c r="G91" t="s">
-        <v>405</v>
+        <v>351</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="6"/>
@@ -9408,7 +9409,7 @@
         <v>DemandAndNonSchedgen</v>
       </c>
       <c r="G92" t="s">
-        <v>406</v>
+        <v>352</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="6"/>
@@ -9440,7 +9441,7 @@
         <v>Uigf</v>
       </c>
       <c r="G93" t="s">
-        <v>407</v>
+        <v>353</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="6"/>
@@ -9472,7 +9473,7 @@
         <v>SemiScheduleClearedMw</v>
       </c>
       <c r="G94" t="s">
-        <v>408</v>
+        <v>354</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="6"/>
@@ -9504,7 +9505,7 @@
         <v>SemiScheduleComplianceMw</v>
       </c>
       <c r="G95" t="s">
-        <v>409</v>
+        <v>355</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="6"/>
@@ -9536,7 +9537,7 @@
         <v>SsSolarUigf</v>
       </c>
       <c r="G96" t="s">
-        <v>410</v>
+        <v>356</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="6"/>
@@ -9568,7 +9569,7 @@
         <v>SsWindUigf</v>
       </c>
       <c r="G97" t="s">
-        <v>411</v>
+        <v>357</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="6"/>
@@ -9600,7 +9601,7 @@
         <v>SsSolarClearedMw</v>
       </c>
       <c r="G98" t="s">
-        <v>412</v>
+        <v>358</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="6"/>
@@ -9632,7 +9633,7 @@
         <v>SsWindClearedMw</v>
       </c>
       <c r="G99" t="s">
-        <v>413</v>
+        <v>359</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="6"/>
@@ -9664,7 +9665,7 @@
         <v>SsSolarComplianceMw</v>
       </c>
       <c r="G100" t="s">
-        <v>414</v>
+        <v>360</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="6"/>
@@ -9696,7 +9697,7 @@
         <v>SsWindComplianceMw</v>
       </c>
       <c r="G101" t="s">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="6"/>
@@ -9728,7 +9729,7 @@
         <v>WdrInitialMw</v>
       </c>
       <c r="G102" t="s">
-        <v>416</v>
+        <v>362</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="6"/>
@@ -9760,7 +9761,7 @@
         <v>WdrAvailable</v>
       </c>
       <c r="G103" t="s">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="6"/>
@@ -9792,7 +9793,7 @@
         <v>WdrDispatched</v>
       </c>
       <c r="G104" t="s">
-        <v>418</v>
+        <v>364</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="6"/>
@@ -9801,6 +9802,1056 @@
       <c r="J104" t="str">
         <f t="shared" si="11"/>
         <v>wdr_dispatched double precision,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C23C844-F8C1-7647-9D7E-CC7573F8BDAE}">
+  <dimension ref="A2:B104"/>
+  <sheetViews>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>'TO SQL'!E2</f>
+        <v>RunTime</v>
+      </c>
+      <c r="B2" t="str">
+        <f>_xlfn.CONCAT(A2," = ","dto.",A2,";")</f>
+        <v>RunTime = dto.RunTime;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>'TO SQL'!E3</f>
+        <v>Interval</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B66" si="0">_xlfn.CONCAT(A3," = ","dto.",A3,";")</f>
+        <v>Interval = dto.Interval;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>'TO SQL'!E4</f>
+        <v>Region</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>Region = dto.Region;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>'TO SQL'!E5</f>
+        <v>Rrp</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Rrp = dto.Rrp;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>'TO SQL'!E6</f>
+        <v>Rop</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Rop = dto.Rop;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>'TO SQL'!E7</f>
+        <v>ExcessGeneration</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>ExcessGeneration = dto.ExcessGeneration;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>'TO SQL'!E8</f>
+        <v>Raise6SecRrp</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Raise6SecRrp = dto.Raise6SecRrp;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>'TO SQL'!E9</f>
+        <v>Raise6SecRop</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>Raise6SecRop = dto.Raise6SecRop;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>'TO SQL'!E10</f>
+        <v>Raise60SecRrp</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Raise60SecRrp = dto.Raise60SecRrp;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>'TO SQL'!E11</f>
+        <v>Raise60SecRop</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Raise60SecRop = dto.Raise60SecRop;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>'TO SQL'!E12</f>
+        <v>Raise5MinRrp</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Raise5MinRrp = dto.Raise5MinRrp;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f>'TO SQL'!E13</f>
+        <v>Raise5MinRop</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>Raise5MinRop = dto.Raise5MinRop;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f>'TO SQL'!E14</f>
+        <v>RaiseRegRrp</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>RaiseRegRrp = dto.RaiseRegRrp;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f>'TO SQL'!E15</f>
+        <v>RaiseRegRop</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>RaiseRegRop = dto.RaiseRegRop;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f>'TO SQL'!E16</f>
+        <v>Lower6SecRrp</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower6SecRrp = dto.Lower6SecRrp;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f>'TO SQL'!E17</f>
+        <v>Lower6SecRop</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower6SecRop = dto.Lower6SecRop;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f>'TO SQL'!E18</f>
+        <v>Lower60SecRrp</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower60SecRrp = dto.Lower60SecRrp;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f>'TO SQL'!E19</f>
+        <v>Lower60SecRop</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower60SecRop = dto.Lower60SecRop;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f>'TO SQL'!E20</f>
+        <v>Lower5MinRrp</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower5MinRrp = dto.Lower5MinRrp;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f>'TO SQL'!E21</f>
+        <v>Lower5MinRop</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower5MinRop = dto.Lower5MinRop;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f>'TO SQL'!E22</f>
+        <v>LowerRegRrp</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>LowerRegRrp = dto.LowerRegRrp;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f>'TO SQL'!E23</f>
+        <v>LowerRegRop</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>LowerRegRop = dto.LowerRegRop;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f>'TO SQL'!E24</f>
+        <v>TotalDemand</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>TotalDemand = dto.TotalDemand;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f>'TO SQL'!E25</f>
+        <v>AvailableGeneration</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>AvailableGeneration = dto.AvailableGeneration;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f>'TO SQL'!E26</f>
+        <v>AvailableLoad</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>AvailableLoad = dto.AvailableLoad;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f>'TO SQL'!E27</f>
+        <v>DemandForecast</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>DemandForecast = dto.DemandForecast;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f>'TO SQL'!E28</f>
+        <v>DispatchableGeneration</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>DispatchableGeneration = dto.DispatchableGeneration;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f>'TO SQL'!E29</f>
+        <v>DispatchableLoad</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>DispatchableLoad = dto.DispatchableLoad;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f>'TO SQL'!E30</f>
+        <v>NetInterchange</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>NetInterchange = dto.NetInterchange;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f>'TO SQL'!E31</f>
+        <v>Lower5MinDispatch</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower5MinDispatch = dto.Lower5MinDispatch;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f>'TO SQL'!E32</f>
+        <v>Lower5MinImport</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower5MinImport = dto.Lower5MinImport;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="str">
+        <f>'TO SQL'!E33</f>
+        <v>Lower5MinLocalDispatch</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower5MinLocalDispatch = dto.Lower5MinLocalDispatch;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="str">
+        <f>'TO SQL'!E34</f>
+        <v>Lower5MinLocalReq</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower5MinLocalReq = dto.Lower5MinLocalReq;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="str">
+        <f>'TO SQL'!E35</f>
+        <v>Lower5MinReq</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower5MinReq = dto.Lower5MinReq;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="str">
+        <f>'TO SQL'!E36</f>
+        <v>Lower60SecDispatch</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower60SecDispatch = dto.Lower60SecDispatch;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="str">
+        <f>'TO SQL'!E37</f>
+        <v>Lower60SecImport</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower60SecImport = dto.Lower60SecImport;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="str">
+        <f>'TO SQL'!E38</f>
+        <v>Lower60SecLocalDispatch</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower60SecLocalDispatch = dto.Lower60SecLocalDispatch;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="str">
+        <f>'TO SQL'!E39</f>
+        <v>Lower60SecLocalReq</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower60SecLocalReq = dto.Lower60SecLocalReq;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="str">
+        <f>'TO SQL'!E40</f>
+        <v>Lower60SecReq</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower60SecReq = dto.Lower60SecReq;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="str">
+        <f>'TO SQL'!E41</f>
+        <v>Lower6SecDispatch</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower6SecDispatch = dto.Lower6SecDispatch;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="str">
+        <f>'TO SQL'!E42</f>
+        <v>Lower6SecImport</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower6SecImport = dto.Lower6SecImport;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="str">
+        <f>'TO SQL'!E43</f>
+        <v>Lower6SecLocalDispatch</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower6SecLocalDispatch = dto.Lower6SecLocalDispatch;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="str">
+        <f>'TO SQL'!E44</f>
+        <v>Lower6SecLocalReq</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower6SecLocalReq = dto.Lower6SecLocalReq;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="str">
+        <f>'TO SQL'!E45</f>
+        <v>Lower6SecReq</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>Lower6SecReq = dto.Lower6SecReq;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="str">
+        <f>'TO SQL'!E46</f>
+        <v>Raise5MinDispatch</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>Raise5MinDispatch = dto.Raise5MinDispatch;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="str">
+        <f>'TO SQL'!E47</f>
+        <v>Raise5MinImport</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>Raise5MinImport = dto.Raise5MinImport;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="str">
+        <f>'TO SQL'!E48</f>
+        <v>Raise5MinLocalDispatch</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>Raise5MinLocalDispatch = dto.Raise5MinLocalDispatch;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="str">
+        <f>'TO SQL'!E49</f>
+        <v>Raise5MinLocalReq</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>Raise5MinLocalReq = dto.Raise5MinLocalReq;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="str">
+        <f>'TO SQL'!E50</f>
+        <v>Raise5MinReq</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>Raise5MinReq = dto.Raise5MinReq;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="str">
+        <f>'TO SQL'!E51</f>
+        <v>Raise60SecDispatch</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>Raise60SecDispatch = dto.Raise60SecDispatch;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="str">
+        <f>'TO SQL'!E52</f>
+        <v>Raise60SecImport</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>Raise60SecImport = dto.Raise60SecImport;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="str">
+        <f>'TO SQL'!E53</f>
+        <v>Raise60SecLocalDispatch</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>Raise60SecLocalDispatch = dto.Raise60SecLocalDispatch;</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="str">
+        <f>'TO SQL'!E54</f>
+        <v>Raise60SecLocalReq</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>Raise60SecLocalReq = dto.Raise60SecLocalReq;</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="str">
+        <f>'TO SQL'!E55</f>
+        <v>Raise60SecReq</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>Raise60SecReq = dto.Raise60SecReq;</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="str">
+        <f>'TO SQL'!E56</f>
+        <v>Raise6SecDispatch</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>Raise6SecDispatch = dto.Raise6SecDispatch;</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="str">
+        <f>'TO SQL'!E57</f>
+        <v>Raise6SecImport</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>Raise6SecImport = dto.Raise6SecImport;</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="str">
+        <f>'TO SQL'!E58</f>
+        <v>Raise6SecLocalDispatch</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>Raise6SecLocalDispatch = dto.Raise6SecLocalDispatch;</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="str">
+        <f>'TO SQL'!E59</f>
+        <v>Raise6SecLocalReq</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>Raise6SecLocalReq = dto.Raise6SecLocalReq;</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="str">
+        <f>'TO SQL'!E60</f>
+        <v>Raise6SecReq</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>Raise6SecReq = dto.Raise6SecReq;</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="str">
+        <f>'TO SQL'!E61</f>
+        <v>AggregateDispatchError</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>AggregateDispatchError = dto.AggregateDispatchError;</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="str">
+        <f>'TO SQL'!E62</f>
+        <v>InitialSupply</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>InitialSupply = dto.InitialSupply;</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="str">
+        <f>'TO SQL'!E63</f>
+        <v>ClearedSupply</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>ClearedSupply = dto.ClearedSupply;</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="str">
+        <f>'TO SQL'!E64</f>
+        <v>LowerRegImport</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>LowerRegImport = dto.LowerRegImport;</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="str">
+        <f>'TO SQL'!E65</f>
+        <v>LowerRegDispatch</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>LowerRegDispatch = dto.LowerRegDispatch;</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="str">
+        <f>'TO SQL'!E66</f>
+        <v>LowerRegLocalDispatch</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>LowerRegLocalDispatch = dto.LowerRegLocalDispatch;</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="str">
+        <f>'TO SQL'!E67</f>
+        <v>LowerRegLocalReq</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" ref="B67:B104" si="1">_xlfn.CONCAT(A67," = ","dto.",A67,";")</f>
+        <v>LowerRegLocalReq = dto.LowerRegLocalReq;</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="str">
+        <f>'TO SQL'!E68</f>
+        <v>LowerRegReq</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>LowerRegReq = dto.LowerRegReq;</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="str">
+        <f>'TO SQL'!E69</f>
+        <v>RaiseRegImport</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>RaiseRegImport = dto.RaiseRegImport;</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="str">
+        <f>'TO SQL'!E70</f>
+        <v>RaiseRegDispatch</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>RaiseRegDispatch = dto.RaiseRegDispatch;</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="str">
+        <f>'TO SQL'!E71</f>
+        <v>RaiseRegLocalDispatch</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>RaiseRegLocalDispatch = dto.RaiseRegLocalDispatch;</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="str">
+        <f>'TO SQL'!E72</f>
+        <v>RaiseRegLocalReq</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>RaiseRegLocalReq = dto.RaiseRegLocalReq;</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="str">
+        <f>'TO SQL'!E73</f>
+        <v>RaiseRegReq</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>RaiseRegReq = dto.RaiseRegReq;</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="str">
+        <f>'TO SQL'!E74</f>
+        <v>Raise5MinLocalViolation</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>Raise5MinLocalViolation = dto.Raise5MinLocalViolation;</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="str">
+        <f>'TO SQL'!E75</f>
+        <v>RaiseRegLocalViolation</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v>RaiseRegLocalViolation = dto.RaiseRegLocalViolation;</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="str">
+        <f>'TO SQL'!E76</f>
+        <v>Raise60SecLocalViolation</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>Raise60SecLocalViolation = dto.Raise60SecLocalViolation;</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="str">
+        <f>'TO SQL'!E77</f>
+        <v>Raise6SecLocalViolation</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>Raise6SecLocalViolation = dto.Raise6SecLocalViolation;</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="str">
+        <f>'TO SQL'!E78</f>
+        <v>Lower5MinLocalViolation</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>Lower5MinLocalViolation = dto.Lower5MinLocalViolation;</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="str">
+        <f>'TO SQL'!E79</f>
+        <v>LowerRegLocalViolation</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>LowerRegLocalViolation = dto.LowerRegLocalViolation;</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="str">
+        <f>'TO SQL'!E80</f>
+        <v>Lower60SecLocalViolation</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>Lower60SecLocalViolation = dto.Lower60SecLocalViolation;</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="str">
+        <f>'TO SQL'!E81</f>
+        <v>Lower6SecLocalViolation</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>Lower6SecLocalViolation = dto.Lower6SecLocalViolation;</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="str">
+        <f>'TO SQL'!E82</f>
+        <v>Raise5MinViolation</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>Raise5MinViolation = dto.Raise5MinViolation;</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="str">
+        <f>'TO SQL'!E83</f>
+        <v>RaiseRegViolation</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>RaiseRegViolation = dto.RaiseRegViolation;</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="str">
+        <f>'TO SQL'!E84</f>
+        <v>Raise60SecViolation</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="1"/>
+        <v>Raise60SecViolation = dto.Raise60SecViolation;</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="str">
+        <f>'TO SQL'!E85</f>
+        <v>Raise6SecViolation</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v>Raise6SecViolation = dto.Raise6SecViolation;</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="str">
+        <f>'TO SQL'!E86</f>
+        <v>Lower5MinViolation</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
+        <v>Lower5MinViolation = dto.Lower5MinViolation;</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="str">
+        <f>'TO SQL'!E87</f>
+        <v>LowerRegViolation</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
+        <v>LowerRegViolation = dto.LowerRegViolation;</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="str">
+        <f>'TO SQL'!E88</f>
+        <v>Lower60SecViolation</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>Lower60SecViolation = dto.Lower60SecViolation;</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="str">
+        <f>'TO SQL'!E89</f>
+        <v>Lower6SecViolation</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v>Lower6SecViolation = dto.Lower6SecViolation;</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="str">
+        <f>'TO SQL'!E90</f>
+        <v>LastChanged</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
+        <v>LastChanged = dto.LastChanged;</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="str">
+        <f>'TO SQL'!E91</f>
+        <v>TotalIntermittentGeneration</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v>TotalIntermittentGeneration = dto.TotalIntermittentGeneration;</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="str">
+        <f>'TO SQL'!E92</f>
+        <v>DemandAndNonSchedgen</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
+        <v>DemandAndNonSchedgen = dto.DemandAndNonSchedgen;</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="str">
+        <f>'TO SQL'!E93</f>
+        <v>Uigf</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v>Uigf = dto.Uigf;</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="str">
+        <f>'TO SQL'!E94</f>
+        <v>SemiScheduleClearedMw</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v>SemiScheduleClearedMw = dto.SemiScheduleClearedMw;</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="str">
+        <f>'TO SQL'!E95</f>
+        <v>SemiScheduleComplianceMw</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>SemiScheduleComplianceMw = dto.SemiScheduleComplianceMw;</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="str">
+        <f>'TO SQL'!E96</f>
+        <v>SsSolarUigf</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v>SsSolarUigf = dto.SsSolarUigf;</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="str">
+        <f>'TO SQL'!E97</f>
+        <v>SsWindUigf</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v>SsWindUigf = dto.SsWindUigf;</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="str">
+        <f>'TO SQL'!E98</f>
+        <v>SsSolarClearedMw</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="1"/>
+        <v>SsSolarClearedMw = dto.SsSolarClearedMw;</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="str">
+        <f>'TO SQL'!E99</f>
+        <v>SsWindClearedMw</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="1"/>
+        <v>SsWindClearedMw = dto.SsWindClearedMw;</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="str">
+        <f>'TO SQL'!E100</f>
+        <v>SsSolarComplianceMw</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="1"/>
+        <v>SsSolarComplianceMw = dto.SsSolarComplianceMw;</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="str">
+        <f>'TO SQL'!E101</f>
+        <v>SsWindComplianceMw</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="1"/>
+        <v>SsWindComplianceMw = dto.SsWindComplianceMw;</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="str">
+        <f>'TO SQL'!E102</f>
+        <v>WdrInitialMw</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="1"/>
+        <v>WdrInitialMw = dto.WdrInitialMw;</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="str">
+        <f>'TO SQL'!E103</f>
+        <v>WdrAvailable</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="1"/>
+        <v>WdrAvailable = dto.WdrAvailable;</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="str">
+        <f>'TO SQL'!E104</f>
+        <v>WdrDispatched</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="1"/>
+        <v>WdrDispatched = dto.WdrDispatched;</v>
       </c>
     </row>
   </sheetData>

--- a/Useful/VariableConverted.xlsx
+++ b/Useful/VariableConverted.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owenholloway/Code/C#/NemTracker/Useful/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA59A59-5053-4844-AB33-4889123A720A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62395263-8813-F345-AF76-DEB96976AAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33280" yWindow="8840" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{DA1AE469-F5E3-5145-9063-675D6E6FF3EB}"/>
+    <workbookView xWindow="-41220" yWindow="4320" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{DA1AE469-F5E3-5145-9063-675D6E6FF3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="TO SQL" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="445">
   <si>
     <t>I</t>
   </si>
@@ -669,14 +670,724 @@
   </si>
   <si>
     <t>CSVDoubleValue(line[</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>GetRegion(line[</t>
+  </si>
+  <si>
+    <t>GetDateTime(line[</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>RunTime</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>DateTime RunTime</t>
+  </si>
+  <si>
+    <t>DateTime Interval</t>
+  </si>
+  <si>
+    <t>RegionEnum Region</t>
+  </si>
+  <si>
+    <t>double Rrp</t>
+  </si>
+  <si>
+    <t>double Rop</t>
+  </si>
+  <si>
+    <t>double ExcessGeneration</t>
+  </si>
+  <si>
+    <t>double Raise6SecRrp</t>
+  </si>
+  <si>
+    <t>double Raise6SecRop</t>
+  </si>
+  <si>
+    <t>double Raise60SecRrp</t>
+  </si>
+  <si>
+    <t>double Raise60SecRop</t>
+  </si>
+  <si>
+    <t>double Raise5MinRrp</t>
+  </si>
+  <si>
+    <t>double Raise5MinRop</t>
+  </si>
+  <si>
+    <t>double RaiseRegRrp</t>
+  </si>
+  <si>
+    <t>double RaiseRegRop</t>
+  </si>
+  <si>
+    <t>double Lower6SecRrp</t>
+  </si>
+  <si>
+    <t>double Lower6SecRop</t>
+  </si>
+  <si>
+    <t>double Lower60SecRrp</t>
+  </si>
+  <si>
+    <t>double Lower60SecRop</t>
+  </si>
+  <si>
+    <t>double Lower5MinRrp</t>
+  </si>
+  <si>
+    <t>double Lower5MinRop</t>
+  </si>
+  <si>
+    <t>double LowerRegRrp</t>
+  </si>
+  <si>
+    <t>double LowerRegRop</t>
+  </si>
+  <si>
+    <t>double AvailableGeneration</t>
+  </si>
+  <si>
+    <t>double AvailableLoad</t>
+  </si>
+  <si>
+    <t>double DemandForecast</t>
+  </si>
+  <si>
+    <t>double DispatchableGeneration</t>
+  </si>
+  <si>
+    <t>double DispatchableLoad</t>
+  </si>
+  <si>
+    <t>double Lower5MinDispatch</t>
+  </si>
+  <si>
+    <t>double Lower5MinImport</t>
+  </si>
+  <si>
+    <t>double Lower5MinLocalDispatch</t>
+  </si>
+  <si>
+    <t>double Lower5MinLocalReq</t>
+  </si>
+  <si>
+    <t>double Lower5MinReq</t>
+  </si>
+  <si>
+    <t>double Lower60SecDispatch</t>
+  </si>
+  <si>
+    <t>double Lower60SecImport</t>
+  </si>
+  <si>
+    <t>double Lower60SecLocalDispatch</t>
+  </si>
+  <si>
+    <t>double Lower60SecLocalReq</t>
+  </si>
+  <si>
+    <t>double Lower60SecReq</t>
+  </si>
+  <si>
+    <t>double Lower6SecDispatch</t>
+  </si>
+  <si>
+    <t>double Lower6SecImport</t>
+  </si>
+  <si>
+    <t>double Lower6SecLocalDispatch</t>
+  </si>
+  <si>
+    <t>double Lower6SecLocalReq</t>
+  </si>
+  <si>
+    <t>double Lower6SecReq</t>
+  </si>
+  <si>
+    <t>double Raise5MinDispatch</t>
+  </si>
+  <si>
+    <t>double Raise5MinImport</t>
+  </si>
+  <si>
+    <t>double Raise5MinLocalDispatch</t>
+  </si>
+  <si>
+    <t>double Raise5MinLocalReq</t>
+  </si>
+  <si>
+    <t>double Raise5MinReq</t>
+  </si>
+  <si>
+    <t>double Raise60SecDispatch</t>
+  </si>
+  <si>
+    <t>double Raise60SecImport</t>
+  </si>
+  <si>
+    <t>double Raise60SecLocalDispatch</t>
+  </si>
+  <si>
+    <t>double Raise60SecLocalReq</t>
+  </si>
+  <si>
+    <t>double Raise60SecReq</t>
+  </si>
+  <si>
+    <t>double Raise6SecDispatch</t>
+  </si>
+  <si>
+    <t>double Raise6SecImport</t>
+  </si>
+  <si>
+    <t>double Raise6SecLocalDispatch</t>
+  </si>
+  <si>
+    <t>double Raise6SecLocalReq</t>
+  </si>
+  <si>
+    <t>double Raise6SecReq</t>
+  </si>
+  <si>
+    <t>double AggregateDispatchError</t>
+  </si>
+  <si>
+    <t>double InitialSupply</t>
+  </si>
+  <si>
+    <t>double ClearedSupply</t>
+  </si>
+  <si>
+    <t>double LowerRegImport</t>
+  </si>
+  <si>
+    <t>double LowerRegDispatch</t>
+  </si>
+  <si>
+    <t>double LowerRegLocalDispatch</t>
+  </si>
+  <si>
+    <t>double LowerRegLocalReq</t>
+  </si>
+  <si>
+    <t>double LowerRegReq</t>
+  </si>
+  <si>
+    <t>double RaiseRegImport</t>
+  </si>
+  <si>
+    <t>double RaiseRegDispatch</t>
+  </si>
+  <si>
+    <t>double RaiseRegLocalDispatch</t>
+  </si>
+  <si>
+    <t>double RaiseRegLocalReq</t>
+  </si>
+  <si>
+    <t>double RaiseRegReq</t>
+  </si>
+  <si>
+    <t>double Raise5MinLocalViolation</t>
+  </si>
+  <si>
+    <t>double RaiseRegLocalViolation</t>
+  </si>
+  <si>
+    <t>double Raise60SecLocalViolation</t>
+  </si>
+  <si>
+    <t>double Raise6SecLocalViolation</t>
+  </si>
+  <si>
+    <t>double Lower5MinLocalViolation</t>
+  </si>
+  <si>
+    <t>double LowerRegLocalViolation</t>
+  </si>
+  <si>
+    <t>double Lower60SecLocalViolation</t>
+  </si>
+  <si>
+    <t>double Lower6SecLocalViolation</t>
+  </si>
+  <si>
+    <t>double Raise5MinViolation</t>
+  </si>
+  <si>
+    <t>double RaiseRegViolation</t>
+  </si>
+  <si>
+    <t>double Raise60SecViolation</t>
+  </si>
+  <si>
+    <t>double Raise6SecViolation</t>
+  </si>
+  <si>
+    <t>double Lower5MinViolation</t>
+  </si>
+  <si>
+    <t>double LowerRegViolation</t>
+  </si>
+  <si>
+    <t>double Lower60SecViolation</t>
+  </si>
+  <si>
+    <t>double Lower6SecViolation</t>
+  </si>
+  <si>
+    <t>DateTime LastChanged</t>
+  </si>
+  <si>
+    <t>double TotalIntermittentGeneration</t>
+  </si>
+  <si>
+    <t>double DemandAndNonSchedgen</t>
+  </si>
+  <si>
+    <t>double Uigf</t>
+  </si>
+  <si>
+    <t>double SemiScheduleClearedMw</t>
+  </si>
+  <si>
+    <t>double SemiScheduleComplianceMw</t>
+  </si>
+  <si>
+    <t>double SsSolarUigf</t>
+  </si>
+  <si>
+    <t>double SsWindUigf</t>
+  </si>
+  <si>
+    <t>double SsSolarClearedMw</t>
+  </si>
+  <si>
+    <t>double SsWindClearedMw</t>
+  </si>
+  <si>
+    <t>double SsSolarComplianceMw</t>
+  </si>
+  <si>
+    <t>double SsWindComplianceMw</t>
+  </si>
+  <si>
+    <t>double WdrInitialMw</t>
+  </si>
+  <si>
+    <t>double WdrAvailable</t>
+  </si>
+  <si>
+    <t>double WdrDispatched</t>
+  </si>
+  <si>
+    <t>run_time</t>
+  </si>
+  <si>
+    <t>interval</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>rrp</t>
+  </si>
+  <si>
+    <t>rop</t>
+  </si>
+  <si>
+    <t>excess_generation</t>
+  </si>
+  <si>
+    <t>raise_6_sec_rrp</t>
+  </si>
+  <si>
+    <t>raise_6_sec_rop</t>
+  </si>
+  <si>
+    <t>raise_60_sec_rrp</t>
+  </si>
+  <si>
+    <t>raise_60_sec_rop</t>
+  </si>
+  <si>
+    <t>raise_5_min_rrp</t>
+  </si>
+  <si>
+    <t>raise_5_min_rop</t>
+  </si>
+  <si>
+    <t>raise_reg_rrp</t>
+  </si>
+  <si>
+    <t>raise_reg_rop</t>
+  </si>
+  <si>
+    <t>lower_6_sec_rrp</t>
+  </si>
+  <si>
+    <t>lower_6_sec_rop</t>
+  </si>
+  <si>
+    <t>lower_60_sec_rrp</t>
+  </si>
+  <si>
+    <t>lower_60_sec_rop</t>
+  </si>
+  <si>
+    <t>lower_5_min_rrp</t>
+  </si>
+  <si>
+    <t>lower_5_min_rop</t>
+  </si>
+  <si>
+    <t>lower_reg_rrp</t>
+  </si>
+  <si>
+    <t>lower_reg_rop</t>
+  </si>
+  <si>
+    <t>available_generation</t>
+  </si>
+  <si>
+    <t>available_load</t>
+  </si>
+  <si>
+    <t>demand_forecast</t>
+  </si>
+  <si>
+    <t>dispatchable_generation</t>
+  </si>
+  <si>
+    <t>dispatchable_load</t>
+  </si>
+  <si>
+    <t>lower_5_min_dispatch</t>
+  </si>
+  <si>
+    <t>lower_5_min_import</t>
+  </si>
+  <si>
+    <t>lower_5_min_local_dispatch</t>
+  </si>
+  <si>
+    <t>lower_5_min_local_req</t>
+  </si>
+  <si>
+    <t>lower_5_min_req</t>
+  </si>
+  <si>
+    <t>lower_60_sec_dispatch</t>
+  </si>
+  <si>
+    <t>lower_60_sec_import</t>
+  </si>
+  <si>
+    <t>lower_60_sec_local_dispatch</t>
+  </si>
+  <si>
+    <t>lower_60_sec_local_req</t>
+  </si>
+  <si>
+    <t>lower_60_sec_req</t>
+  </si>
+  <si>
+    <t>lower_6_sec_dispatch</t>
+  </si>
+  <si>
+    <t>lower_6_sec_import</t>
+  </si>
+  <si>
+    <t>lower_6_sec_local_dispatch</t>
+  </si>
+  <si>
+    <t>lower_6_sec_local_req</t>
+  </si>
+  <si>
+    <t>lower_6_sec_req</t>
+  </si>
+  <si>
+    <t>raise_5_min_dispatch</t>
+  </si>
+  <si>
+    <t>raise_5_min_import</t>
+  </si>
+  <si>
+    <t>raise_5_min_local_dispatch</t>
+  </si>
+  <si>
+    <t>raise_5_min_local_req</t>
+  </si>
+  <si>
+    <t>raise_5_min_req</t>
+  </si>
+  <si>
+    <t>raise_60_sec_dispatch</t>
+  </si>
+  <si>
+    <t>raise_60_sec_import</t>
+  </si>
+  <si>
+    <t>raise_60_sec_local_dispatch</t>
+  </si>
+  <si>
+    <t>raise_60_sec_local_req</t>
+  </si>
+  <si>
+    <t>raise_60_sec_req</t>
+  </si>
+  <si>
+    <t>raise_6_sec_dispatch</t>
+  </si>
+  <si>
+    <t>raise_6_sec_import</t>
+  </si>
+  <si>
+    <t>raise_6_sec_local_dispatch</t>
+  </si>
+  <si>
+    <t>raise_6_sec_local_req</t>
+  </si>
+  <si>
+    <t>raise_6_sec_req</t>
+  </si>
+  <si>
+    <t>aggregate_dispatch_error</t>
+  </si>
+  <si>
+    <t>initial_supply</t>
+  </si>
+  <si>
+    <t>cleared_supply</t>
+  </si>
+  <si>
+    <t>lower_reg_import</t>
+  </si>
+  <si>
+    <t>lower_reg_dispatch</t>
+  </si>
+  <si>
+    <t>lower_reg_local_dispatch</t>
+  </si>
+  <si>
+    <t>lower_reg_local_req</t>
+  </si>
+  <si>
+    <t>lower_reg_req</t>
+  </si>
+  <si>
+    <t>raise_reg_import</t>
+  </si>
+  <si>
+    <t>raise_reg_dispatch</t>
+  </si>
+  <si>
+    <t>raise_reg_local_dispatch</t>
+  </si>
+  <si>
+    <t>raise_reg_local_req</t>
+  </si>
+  <si>
+    <t>raise_reg_req</t>
+  </si>
+  <si>
+    <t>raise_5_min_local_violation</t>
+  </si>
+  <si>
+    <t>raise_reg_local_violation</t>
+  </si>
+  <si>
+    <t>raise_60_sec_local_violation</t>
+  </si>
+  <si>
+    <t>raise_6_sec_local_violation</t>
+  </si>
+  <si>
+    <t>lower_5_min_local_violation</t>
+  </si>
+  <si>
+    <t>lower_reg_local_violation</t>
+  </si>
+  <si>
+    <t>lower_60_sec_local_violation</t>
+  </si>
+  <si>
+    <t>lower_6_sec_local_violation</t>
+  </si>
+  <si>
+    <t>raise_5_min_violation</t>
+  </si>
+  <si>
+    <t>raise_reg_violation</t>
+  </si>
+  <si>
+    <t>raise_60_sec_violation</t>
+  </si>
+  <si>
+    <t>raise_6_sec_violation</t>
+  </si>
+  <si>
+    <t>lower_5_min_violation</t>
+  </si>
+  <si>
+    <t>lower_reg_violation</t>
+  </si>
+  <si>
+    <t>lower_60_sec_violation</t>
+  </si>
+  <si>
+    <t>lower_6_sec_violation</t>
+  </si>
+  <si>
+    <t>last_changed</t>
+  </si>
+  <si>
+    <t>total_intermittent_generation</t>
+  </si>
+  <si>
+    <t>demand_and_non_schedgen</t>
+  </si>
+  <si>
+    <t>uigf</t>
+  </si>
+  <si>
+    <t>semi_schedule_cleared_mw</t>
+  </si>
+  <si>
+    <t>semi_schedule_compliance_mw</t>
+  </si>
+  <si>
+    <t>ss_solar_uigf</t>
+  </si>
+  <si>
+    <t>ss_wind_uigf</t>
+  </si>
+  <si>
+    <t>ss_solar_cleared_mw</t>
+  </si>
+  <si>
+    <t>ss_wind_cleared_mw</t>
+  </si>
+  <si>
+    <t>ss_solar_compliance_mw</t>
+  </si>
+  <si>
+    <t>ss_wind_compliance_mw</t>
+  </si>
+  <si>
+    <t>wdr_initial_mw</t>
+  </si>
+  <si>
+    <t>wdr_available</t>
+  </si>
+  <si>
+    <t>wdr_dispatched</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>PGSQL</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>double precision</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>smallint</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>bigint</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>Guid</t>
+  </si>
+  <si>
+    <t>bit(1)</t>
+  </si>
+  <si>
+    <t>RegionEnum</t>
+  </si>
+  <si>
+    <t>double TotalDemand</t>
+  </si>
+  <si>
+    <t>double NetInterchange</t>
+  </si>
+  <si>
+    <t>total_demand</t>
+  </si>
+  <si>
+    <t>net_interchange</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -710,9 +1421,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,7 +1743,7 @@
   <dimension ref="A1:DD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1803,8 +2516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB0BA33-06CC-E248-BE80-0045F320AA22}">
   <dimension ref="B2:N109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="N113" sqref="N113"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1830,14 +2543,50 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="G2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H9" si="0">E2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K9" si="1">C2</f>
+        <v>0</v>
+      </c>
+      <c r="N2" t="str">
+        <f t="shared" ref="N2:N9" si="2">_xlfn.CONCAT(G2,H2,I2,J2,K2,L2)</f>
+        <v>dto.0 = 0</v>
+      </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3">
-        <f>C2+1</f>
+        <f t="shared" ref="C3:C34" si="3">C2+1</f>
         <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" si="2"/>
+        <v>dto.0 = 1</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
@@ -1845,8 +2594,26 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <f>C3+1</f>
+        <f t="shared" si="3"/>
         <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>209</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="2"/>
+        <v>dto.0 = 2</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -1854,8 +2621,26 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <f>C4+1</f>
+        <f t="shared" si="3"/>
         <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>209</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="2"/>
+        <v>dto.0 = 3</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
@@ -1863,8 +2648,35 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <f>C5+1</f>
+        <f t="shared" si="3"/>
         <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>RunTime</v>
+      </c>
+      <c r="I6" t="s">
+        <v>209</v>
+      </c>
+      <c r="J6" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>207</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="2"/>
+        <v>dto.RunTime = GetDateTime(line[4]);</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
@@ -1872,8 +2684,32 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <f>C6+1</f>
+        <f t="shared" si="3"/>
         <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L7" t="s">
+        <v>207</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="2"/>
+        <v>dto.0 = GetDateTime(line[5]);</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
@@ -1881,8 +2717,35 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <f>C7+1</f>
+        <f t="shared" si="3"/>
         <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>Interval</v>
+      </c>
+      <c r="I8" t="s">
+        <v>209</v>
+      </c>
+      <c r="J8" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>207</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="2"/>
+        <v>dto.Interval = GetDateTime(line[6]);</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
@@ -1890,8 +2753,35 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <f>C8+1</f>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" t="s">
+        <v>208</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>Region</v>
+      </c>
+      <c r="I9" t="s">
+        <v>209</v>
+      </c>
+      <c r="J9" t="s">
+        <v>212</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>207</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="2"/>
+        <v>dto.Region = GetRegion(line[7]);</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -1899,7 +2789,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <f>C9+1</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E10" t="s">
@@ -1935,7 +2825,7 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <f>C10+1</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="E11" t="s">
@@ -1945,7 +2835,7 @@
         <v>208</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" ref="H11:H74" si="0">E11</f>
+        <f t="shared" ref="H11:H74" si="4">E11</f>
         <v>Rop</v>
       </c>
       <c r="I11" t="s">
@@ -1955,14 +2845,14 @@
         <v>210</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K11:K74" si="1">C11</f>
+        <f t="shared" ref="K11:K74" si="5">C11</f>
         <v>9</v>
       </c>
       <c r="L11" t="s">
         <v>207</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" ref="N11:N74" si="2">_xlfn.CONCAT(G11,H11,I11,J11,K11,L11)</f>
+        <f t="shared" ref="N11:N74" si="6">_xlfn.CONCAT(G11,H11,I11,J11,K11,L11)</f>
         <v>dto.Rop = CSVDoubleValue(line[9]);</v>
       </c>
     </row>
@@ -1971,7 +2861,7 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <f>C11+1</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E12" t="s">
@@ -1981,7 +2871,7 @@
         <v>208</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>ExcessGeneration</v>
       </c>
       <c r="I12" t="s">
@@ -1991,14 +2881,14 @@
         <v>210</v>
       </c>
       <c r="K12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="L12" t="s">
         <v>207</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.ExcessGeneration = CSVDoubleValue(line[10]);</v>
       </c>
     </row>
@@ -2007,7 +2897,7 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <f>C12+1</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="E13" t="s">
@@ -2017,7 +2907,7 @@
         <v>208</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Raise6SecRrp</v>
       </c>
       <c r="I13" t="s">
@@ -2027,14 +2917,14 @@
         <v>210</v>
       </c>
       <c r="K13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="L13" t="s">
         <v>207</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Raise6SecRrp = CSVDoubleValue(line[11]);</v>
       </c>
     </row>
@@ -2043,7 +2933,7 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <f>C13+1</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="E14" t="s">
@@ -2053,7 +2943,7 @@
         <v>208</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Raise6SecRop</v>
       </c>
       <c r="I14" t="s">
@@ -2063,14 +2953,14 @@
         <v>210</v>
       </c>
       <c r="K14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="L14" t="s">
         <v>207</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Raise6SecRop = CSVDoubleValue(line[12]);</v>
       </c>
     </row>
@@ -2079,7 +2969,7 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <f>C14+1</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="E15" t="s">
@@ -2089,7 +2979,7 @@
         <v>208</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Raise60SecRrp</v>
       </c>
       <c r="I15" t="s">
@@ -2099,14 +2989,14 @@
         <v>210</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="L15" t="s">
         <v>207</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Raise60SecRrp = CSVDoubleValue(line[13]);</v>
       </c>
     </row>
@@ -2115,7 +3005,7 @@
         <v>13</v>
       </c>
       <c r="C16">
-        <f>C15+1</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="E16" t="s">
@@ -2125,7 +3015,7 @@
         <v>208</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Raise60SecRop</v>
       </c>
       <c r="I16" t="s">
@@ -2135,14 +3025,14 @@
         <v>210</v>
       </c>
       <c r="K16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="L16" t="s">
         <v>207</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Raise60SecRop = CSVDoubleValue(line[14]);</v>
       </c>
     </row>
@@ -2151,7 +3041,7 @@
         <v>14</v>
       </c>
       <c r="C17">
-        <f>C16+1</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="E17" t="s">
@@ -2161,7 +3051,7 @@
         <v>208</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Raise5MinRrp</v>
       </c>
       <c r="I17" t="s">
@@ -2171,14 +3061,14 @@
         <v>210</v>
       </c>
       <c r="K17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="L17" t="s">
         <v>207</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Raise5MinRrp = CSVDoubleValue(line[15]);</v>
       </c>
     </row>
@@ -2187,7 +3077,7 @@
         <v>15</v>
       </c>
       <c r="C18">
-        <f>C17+1</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="E18" t="s">
@@ -2197,7 +3087,7 @@
         <v>208</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Raise5MinRop</v>
       </c>
       <c r="I18" t="s">
@@ -2207,14 +3097,14 @@
         <v>210</v>
       </c>
       <c r="K18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="L18" t="s">
         <v>207</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Raise5MinRop = CSVDoubleValue(line[16]);</v>
       </c>
     </row>
@@ -2223,7 +3113,7 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <f>C18+1</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="E19" t="s">
@@ -2233,7 +3123,7 @@
         <v>208</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>RaiseRegRrp</v>
       </c>
       <c r="I19" t="s">
@@ -2243,14 +3133,14 @@
         <v>210</v>
       </c>
       <c r="K19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="L19" t="s">
         <v>207</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.RaiseRegRrp = CSVDoubleValue(line[17]);</v>
       </c>
     </row>
@@ -2259,7 +3149,7 @@
         <v>17</v>
       </c>
       <c r="C20">
-        <f>C19+1</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="E20" t="s">
@@ -2269,7 +3159,7 @@
         <v>208</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>RaiseRegRop</v>
       </c>
       <c r="I20" t="s">
@@ -2279,14 +3169,14 @@
         <v>210</v>
       </c>
       <c r="K20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="L20" t="s">
         <v>207</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.RaiseRegRop = CSVDoubleValue(line[18]);</v>
       </c>
     </row>
@@ -2295,7 +3185,7 @@
         <v>18</v>
       </c>
       <c r="C21">
-        <f>C20+1</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="E21" t="s">
@@ -2305,7 +3195,7 @@
         <v>208</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Lower6SecRrp</v>
       </c>
       <c r="I21" t="s">
@@ -2315,14 +3205,14 @@
         <v>210</v>
       </c>
       <c r="K21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="L21" t="s">
         <v>207</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Lower6SecRrp = CSVDoubleValue(line[19]);</v>
       </c>
     </row>
@@ -2331,7 +3221,7 @@
         <v>19</v>
       </c>
       <c r="C22">
-        <f>C21+1</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="E22" t="s">
@@ -2341,7 +3231,7 @@
         <v>208</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Lower6SecRop</v>
       </c>
       <c r="I22" t="s">
@@ -2351,14 +3241,14 @@
         <v>210</v>
       </c>
       <c r="K22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="L22" t="s">
         <v>207</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Lower6SecRop = CSVDoubleValue(line[20]);</v>
       </c>
     </row>
@@ -2367,7 +3257,7 @@
         <v>20</v>
       </c>
       <c r="C23">
-        <f>C22+1</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="E23" t="s">
@@ -2377,7 +3267,7 @@
         <v>208</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Lower60SecRrp</v>
       </c>
       <c r="I23" t="s">
@@ -2387,14 +3277,14 @@
         <v>210</v>
       </c>
       <c r="K23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="L23" t="s">
         <v>207</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Lower60SecRrp = CSVDoubleValue(line[21]);</v>
       </c>
     </row>
@@ -2403,7 +3293,7 @@
         <v>21</v>
       </c>
       <c r="C24">
-        <f>C23+1</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="E24" t="s">
@@ -2413,7 +3303,7 @@
         <v>208</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Lower60SecRop</v>
       </c>
       <c r="I24" t="s">
@@ -2423,14 +3313,14 @@
         <v>210</v>
       </c>
       <c r="K24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="L24" t="s">
         <v>207</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Lower60SecRop = CSVDoubleValue(line[22]);</v>
       </c>
     </row>
@@ -2439,7 +3329,7 @@
         <v>22</v>
       </c>
       <c r="C25">
-        <f>C24+1</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="E25" t="s">
@@ -2449,7 +3339,7 @@
         <v>208</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Lower5MinRrp</v>
       </c>
       <c r="I25" t="s">
@@ -2459,14 +3349,14 @@
         <v>210</v>
       </c>
       <c r="K25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="L25" t="s">
         <v>207</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Lower5MinRrp = CSVDoubleValue(line[23]);</v>
       </c>
     </row>
@@ -2475,7 +3365,7 @@
         <v>23</v>
       </c>
       <c r="C26">
-        <f>C25+1</f>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="E26" t="s">
@@ -2485,7 +3375,7 @@
         <v>208</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Lower5MinRop</v>
       </c>
       <c r="I26" t="s">
@@ -2495,14 +3385,14 @@
         <v>210</v>
       </c>
       <c r="K26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="L26" t="s">
         <v>207</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Lower5MinRop = CSVDoubleValue(line[24]);</v>
       </c>
     </row>
@@ -2511,7 +3401,7 @@
         <v>24</v>
       </c>
       <c r="C27">
-        <f>C26+1</f>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="E27" t="s">
@@ -2521,7 +3411,7 @@
         <v>208</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>LowerRegRrp</v>
       </c>
       <c r="I27" t="s">
@@ -2531,14 +3421,14 @@
         <v>210</v>
       </c>
       <c r="K27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="L27" t="s">
         <v>207</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.LowerRegRrp = CSVDoubleValue(line[25]);</v>
       </c>
     </row>
@@ -2547,7 +3437,7 @@
         <v>25</v>
       </c>
       <c r="C28">
-        <f>C27+1</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="E28" t="s">
@@ -2557,7 +3447,7 @@
         <v>208</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>LowerRegRop</v>
       </c>
       <c r="I28" t="s">
@@ -2567,14 +3457,14 @@
         <v>210</v>
       </c>
       <c r="K28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="L28" t="s">
         <v>207</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.LowerRegRop = CSVDoubleValue(line[26]);</v>
       </c>
     </row>
@@ -2583,7 +3473,7 @@
         <v>26</v>
       </c>
       <c r="C29">
-        <f>C28+1</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="E29" t="s">
@@ -2593,7 +3483,7 @@
         <v>208</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Totaldemand</v>
       </c>
       <c r="I29" t="s">
@@ -2603,14 +3493,14 @@
         <v>210</v>
       </c>
       <c r="K29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="L29" t="s">
         <v>207</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Totaldemand = CSVDoubleValue(line[27]);</v>
       </c>
     </row>
@@ -2619,7 +3509,7 @@
         <v>27</v>
       </c>
       <c r="C30">
-        <f>C29+1</f>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="E30" t="s">
@@ -2629,7 +3519,7 @@
         <v>208</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>AvailableGeneration</v>
       </c>
       <c r="I30" t="s">
@@ -2639,14 +3529,14 @@
         <v>210</v>
       </c>
       <c r="K30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="L30" t="s">
         <v>207</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.AvailableGeneration = CSVDoubleValue(line[28]);</v>
       </c>
     </row>
@@ -2655,7 +3545,7 @@
         <v>28</v>
       </c>
       <c r="C31">
-        <f>C30+1</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="E31" t="s">
@@ -2665,7 +3555,7 @@
         <v>208</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>AvailableLoad</v>
       </c>
       <c r="I31" t="s">
@@ -2675,14 +3565,14 @@
         <v>210</v>
       </c>
       <c r="K31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="L31" t="s">
         <v>207</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.AvailableLoad = CSVDoubleValue(line[29]);</v>
       </c>
     </row>
@@ -2691,7 +3581,7 @@
         <v>29</v>
       </c>
       <c r="C32">
-        <f>C31+1</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="E32" t="s">
@@ -2701,7 +3591,7 @@
         <v>208</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>DemandForecast</v>
       </c>
       <c r="I32" t="s">
@@ -2711,14 +3601,14 @@
         <v>210</v>
       </c>
       <c r="K32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="L32" t="s">
         <v>207</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.DemandForecast = CSVDoubleValue(line[30]);</v>
       </c>
     </row>
@@ -2727,7 +3617,7 @@
         <v>30</v>
       </c>
       <c r="C33">
-        <f>C32+1</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="E33" t="s">
@@ -2737,7 +3627,7 @@
         <v>208</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>DispatchableGeneration</v>
       </c>
       <c r="I33" t="s">
@@ -2747,14 +3637,14 @@
         <v>210</v>
       </c>
       <c r="K33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="L33" t="s">
         <v>207</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.DispatchableGeneration = CSVDoubleValue(line[31]);</v>
       </c>
     </row>
@@ -2763,7 +3653,7 @@
         <v>31</v>
       </c>
       <c r="C34">
-        <f>C33+1</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="E34" t="s">
@@ -2773,7 +3663,7 @@
         <v>208</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>DispatchableLoad</v>
       </c>
       <c r="I34" t="s">
@@ -2783,14 +3673,14 @@
         <v>210</v>
       </c>
       <c r="K34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="L34" t="s">
         <v>207</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.DispatchableLoad = CSVDoubleValue(line[32]);</v>
       </c>
     </row>
@@ -2799,7 +3689,7 @@
         <v>32</v>
       </c>
       <c r="C35">
-        <f>C34+1</f>
+        <f t="shared" ref="C35:C66" si="7">C34+1</f>
         <v>33</v>
       </c>
       <c r="E35" t="s">
@@ -2809,7 +3699,7 @@
         <v>208</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>NetinterChange</v>
       </c>
       <c r="I35" t="s">
@@ -2819,14 +3709,14 @@
         <v>210</v>
       </c>
       <c r="K35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="L35" t="s">
         <v>207</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.NetinterChange = CSVDoubleValue(line[33]);</v>
       </c>
     </row>
@@ -2835,7 +3725,7 @@
         <v>33</v>
       </c>
       <c r="C36">
-        <f>C35+1</f>
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="E36" t="s">
@@ -2845,7 +3735,7 @@
         <v>208</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Lower5MinDispatch</v>
       </c>
       <c r="I36" t="s">
@@ -2855,14 +3745,14 @@
         <v>210</v>
       </c>
       <c r="K36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="L36" t="s">
         <v>207</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Lower5MinDispatch = CSVDoubleValue(line[34]);</v>
       </c>
     </row>
@@ -2871,7 +3761,7 @@
         <v>34</v>
       </c>
       <c r="C37">
-        <f>C36+1</f>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="E37" t="s">
@@ -2881,7 +3771,7 @@
         <v>208</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Lower5MinImport</v>
       </c>
       <c r="I37" t="s">
@@ -2891,14 +3781,14 @@
         <v>210</v>
       </c>
       <c r="K37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="L37" t="s">
         <v>207</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Lower5MinImport = CSVDoubleValue(line[35]);</v>
       </c>
     </row>
@@ -2907,7 +3797,7 @@
         <v>35</v>
       </c>
       <c r="C38">
-        <f>C37+1</f>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="E38" t="s">
@@ -2917,7 +3807,7 @@
         <v>208</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Lower5MinLocalDispatch</v>
       </c>
       <c r="I38" t="s">
@@ -2927,14 +3817,14 @@
         <v>210</v>
       </c>
       <c r="K38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="L38" t="s">
         <v>207</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Lower5MinLocalDispatch = CSVDoubleValue(line[36]);</v>
       </c>
     </row>
@@ -2943,7 +3833,7 @@
         <v>36</v>
       </c>
       <c r="C39">
-        <f>C38+1</f>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="E39" t="s">
@@ -2953,7 +3843,7 @@
         <v>208</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Lower5MinLocalReq</v>
       </c>
       <c r="I39" t="s">
@@ -2963,14 +3853,14 @@
         <v>210</v>
       </c>
       <c r="K39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="L39" t="s">
         <v>207</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Lower5MinLocalReq = CSVDoubleValue(line[37]);</v>
       </c>
     </row>
@@ -2979,7 +3869,7 @@
         <v>37</v>
       </c>
       <c r="C40">
-        <f>C39+1</f>
+        <f t="shared" si="7"/>
         <v>38</v>
       </c>
       <c r="E40" t="s">
@@ -2989,7 +3879,7 @@
         <v>208</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Lower5MinReq</v>
       </c>
       <c r="I40" t="s">
@@ -2999,14 +3889,14 @@
         <v>210</v>
       </c>
       <c r="K40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="L40" t="s">
         <v>207</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Lower5MinReq = CSVDoubleValue(line[38]);</v>
       </c>
     </row>
@@ -3015,7 +3905,7 @@
         <v>38</v>
       </c>
       <c r="C41">
-        <f>C40+1</f>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="E41" t="s">
@@ -3025,7 +3915,7 @@
         <v>208</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Lower60SecDispatch</v>
       </c>
       <c r="I41" t="s">
@@ -3035,14 +3925,14 @@
         <v>210</v>
       </c>
       <c r="K41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>39</v>
       </c>
       <c r="L41" t="s">
         <v>207</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Lower60SecDispatch = CSVDoubleValue(line[39]);</v>
       </c>
     </row>
@@ -3051,7 +3941,7 @@
         <v>39</v>
       </c>
       <c r="C42">
-        <f>C41+1</f>
+        <f t="shared" si="7"/>
         <v>40</v>
       </c>
       <c r="E42" t="s">
@@ -3061,7 +3951,7 @@
         <v>208</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Lower60SecImport</v>
       </c>
       <c r="I42" t="s">
@@ -3071,14 +3961,14 @@
         <v>210</v>
       </c>
       <c r="K42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="L42" t="s">
         <v>207</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Lower60SecImport = CSVDoubleValue(line[40]);</v>
       </c>
     </row>
@@ -3087,7 +3977,7 @@
         <v>40</v>
       </c>
       <c r="C43">
-        <f>C42+1</f>
+        <f t="shared" si="7"/>
         <v>41</v>
       </c>
       <c r="E43" t="s">
@@ -3097,7 +3987,7 @@
         <v>208</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Lower60SecLocalDispatch</v>
       </c>
       <c r="I43" t="s">
@@ -3107,14 +3997,14 @@
         <v>210</v>
       </c>
       <c r="K43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="L43" t="s">
         <v>207</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Lower60SecLocalDispatch = CSVDoubleValue(line[41]);</v>
       </c>
     </row>
@@ -3123,7 +4013,7 @@
         <v>41</v>
       </c>
       <c r="C44">
-        <f>C43+1</f>
+        <f t="shared" si="7"/>
         <v>42</v>
       </c>
       <c r="E44" t="s">
@@ -3133,7 +4023,7 @@
         <v>208</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Lower60SecLocalReq</v>
       </c>
       <c r="I44" t="s">
@@ -3143,14 +4033,14 @@
         <v>210</v>
       </c>
       <c r="K44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="L44" t="s">
         <v>207</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Lower60SecLocalReq = CSVDoubleValue(line[42]);</v>
       </c>
     </row>
@@ -3159,7 +4049,7 @@
         <v>42</v>
       </c>
       <c r="C45">
-        <f>C44+1</f>
+        <f t="shared" si="7"/>
         <v>43</v>
       </c>
       <c r="E45" t="s">
@@ -3169,7 +4059,7 @@
         <v>208</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Lower60SecReq</v>
       </c>
       <c r="I45" t="s">
@@ -3179,14 +4069,14 @@
         <v>210</v>
       </c>
       <c r="K45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="L45" t="s">
         <v>207</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Lower60SecReq = CSVDoubleValue(line[43]);</v>
       </c>
     </row>
@@ -3195,7 +4085,7 @@
         <v>43</v>
       </c>
       <c r="C46">
-        <f>C45+1</f>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="E46" t="s">
@@ -3205,7 +4095,7 @@
         <v>208</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Lower6SecDispatch</v>
       </c>
       <c r="I46" t="s">
@@ -3215,14 +4105,14 @@
         <v>210</v>
       </c>
       <c r="K46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="L46" t="s">
         <v>207</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Lower6SecDispatch = CSVDoubleValue(line[44]);</v>
       </c>
     </row>
@@ -3231,7 +4121,7 @@
         <v>44</v>
       </c>
       <c r="C47">
-        <f>C46+1</f>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="E47" t="s">
@@ -3241,7 +4131,7 @@
         <v>208</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Lower6SecImport</v>
       </c>
       <c r="I47" t="s">
@@ -3251,14 +4141,14 @@
         <v>210</v>
       </c>
       <c r="K47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="L47" t="s">
         <v>207</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Lower6SecImport = CSVDoubleValue(line[45]);</v>
       </c>
     </row>
@@ -3267,7 +4157,7 @@
         <v>45</v>
       </c>
       <c r="C48">
-        <f>C47+1</f>
+        <f t="shared" si="7"/>
         <v>46</v>
       </c>
       <c r="E48" t="s">
@@ -3277,7 +4167,7 @@
         <v>208</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Lower6SecLocalDispatch</v>
       </c>
       <c r="I48" t="s">
@@ -3287,14 +4177,14 @@
         <v>210</v>
       </c>
       <c r="K48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>46</v>
       </c>
       <c r="L48" t="s">
         <v>207</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Lower6SecLocalDispatch = CSVDoubleValue(line[46]);</v>
       </c>
     </row>
@@ -3303,7 +4193,7 @@
         <v>46</v>
       </c>
       <c r="C49">
-        <f>C48+1</f>
+        <f t="shared" si="7"/>
         <v>47</v>
       </c>
       <c r="E49" t="s">
@@ -3313,7 +4203,7 @@
         <v>208</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Lower6SecLocalReq</v>
       </c>
       <c r="I49" t="s">
@@ -3323,14 +4213,14 @@
         <v>210</v>
       </c>
       <c r="K49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="L49" t="s">
         <v>207</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Lower6SecLocalReq = CSVDoubleValue(line[47]);</v>
       </c>
     </row>
@@ -3339,7 +4229,7 @@
         <v>47</v>
       </c>
       <c r="C50">
-        <f>C49+1</f>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="E50" t="s">
@@ -3349,7 +4239,7 @@
         <v>208</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Lower6SecReq</v>
       </c>
       <c r="I50" t="s">
@@ -3359,14 +4249,14 @@
         <v>210</v>
       </c>
       <c r="K50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="L50" t="s">
         <v>207</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Lower6SecReq = CSVDoubleValue(line[48]);</v>
       </c>
     </row>
@@ -3375,7 +4265,7 @@
         <v>48</v>
       </c>
       <c r="C51">
-        <f>C50+1</f>
+        <f t="shared" si="7"/>
         <v>49</v>
       </c>
       <c r="E51" t="s">
@@ -3385,7 +4275,7 @@
         <v>208</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Raise5MinDispatch</v>
       </c>
       <c r="I51" t="s">
@@ -3395,14 +4285,14 @@
         <v>210</v>
       </c>
       <c r="K51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="L51" t="s">
         <v>207</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Raise5MinDispatch = CSVDoubleValue(line[49]);</v>
       </c>
     </row>
@@ -3411,7 +4301,7 @@
         <v>49</v>
       </c>
       <c r="C52">
-        <f>C51+1</f>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="E52" t="s">
@@ -3421,7 +4311,7 @@
         <v>208</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Raise5MinImport</v>
       </c>
       <c r="I52" t="s">
@@ -3431,14 +4321,14 @@
         <v>210</v>
       </c>
       <c r="K52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="L52" t="s">
         <v>207</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Raise5MinImport = CSVDoubleValue(line[50]);</v>
       </c>
     </row>
@@ -3447,7 +4337,7 @@
         <v>50</v>
       </c>
       <c r="C53">
-        <f>C52+1</f>
+        <f t="shared" si="7"/>
         <v>51</v>
       </c>
       <c r="E53" t="s">
@@ -3457,7 +4347,7 @@
         <v>208</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Raise5MinLocalDispatch</v>
       </c>
       <c r="I53" t="s">
@@ -3467,14 +4357,14 @@
         <v>210</v>
       </c>
       <c r="K53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="L53" t="s">
         <v>207</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Raise5MinLocalDispatch = CSVDoubleValue(line[51]);</v>
       </c>
     </row>
@@ -3483,7 +4373,7 @@
         <v>51</v>
       </c>
       <c r="C54">
-        <f>C53+1</f>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="E54" t="s">
@@ -3493,7 +4383,7 @@
         <v>208</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Raise5MinLocalReq</v>
       </c>
       <c r="I54" t="s">
@@ -3503,14 +4393,14 @@
         <v>210</v>
       </c>
       <c r="K54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="L54" t="s">
         <v>207</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Raise5MinLocalReq = CSVDoubleValue(line[52]);</v>
       </c>
     </row>
@@ -3519,7 +4409,7 @@
         <v>52</v>
       </c>
       <c r="C55">
-        <f>C54+1</f>
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
       <c r="E55" t="s">
@@ -3529,7 +4419,7 @@
         <v>208</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Raise5MinReq</v>
       </c>
       <c r="I55" t="s">
@@ -3539,14 +4429,14 @@
         <v>210</v>
       </c>
       <c r="K55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="L55" t="s">
         <v>207</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Raise5MinReq = CSVDoubleValue(line[53]);</v>
       </c>
     </row>
@@ -3555,7 +4445,7 @@
         <v>53</v>
       </c>
       <c r="C56">
-        <f>C55+1</f>
+        <f t="shared" si="7"/>
         <v>54</v>
       </c>
       <c r="E56" t="s">
@@ -3565,7 +4455,7 @@
         <v>208</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Raise60SecDispatch</v>
       </c>
       <c r="I56" t="s">
@@ -3575,14 +4465,14 @@
         <v>210</v>
       </c>
       <c r="K56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="L56" t="s">
         <v>207</v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Raise60SecDispatch = CSVDoubleValue(line[54]);</v>
       </c>
     </row>
@@ -3591,7 +4481,7 @@
         <v>54</v>
       </c>
       <c r="C57">
-        <f>C56+1</f>
+        <f t="shared" si="7"/>
         <v>55</v>
       </c>
       <c r="E57" t="s">
@@ -3601,7 +4491,7 @@
         <v>208</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Raise60SecImport</v>
       </c>
       <c r="I57" t="s">
@@ -3611,14 +4501,14 @@
         <v>210</v>
       </c>
       <c r="K57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="L57" t="s">
         <v>207</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Raise60SecImport = CSVDoubleValue(line[55]);</v>
       </c>
     </row>
@@ -3627,7 +4517,7 @@
         <v>55</v>
       </c>
       <c r="C58">
-        <f>C57+1</f>
+        <f t="shared" si="7"/>
         <v>56</v>
       </c>
       <c r="E58" t="s">
@@ -3637,7 +4527,7 @@
         <v>208</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Raise60SecLocalDispatch</v>
       </c>
       <c r="I58" t="s">
@@ -3647,14 +4537,14 @@
         <v>210</v>
       </c>
       <c r="K58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="L58" t="s">
         <v>207</v>
       </c>
       <c r="N58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Raise60SecLocalDispatch = CSVDoubleValue(line[56]);</v>
       </c>
     </row>
@@ -3663,7 +4553,7 @@
         <v>56</v>
       </c>
       <c r="C59">
-        <f>C58+1</f>
+        <f t="shared" si="7"/>
         <v>57</v>
       </c>
       <c r="E59" t="s">
@@ -3673,7 +4563,7 @@
         <v>208</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Raise60SecLocalReq</v>
       </c>
       <c r="I59" t="s">
@@ -3683,14 +4573,14 @@
         <v>210</v>
       </c>
       <c r="K59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="L59" t="s">
         <v>207</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Raise60SecLocalReq = CSVDoubleValue(line[57]);</v>
       </c>
     </row>
@@ -3699,7 +4589,7 @@
         <v>57</v>
       </c>
       <c r="C60">
-        <f>C59+1</f>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="E60" t="s">
@@ -3709,7 +4599,7 @@
         <v>208</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Raise60SecReq</v>
       </c>
       <c r="I60" t="s">
@@ -3719,14 +4609,14 @@
         <v>210</v>
       </c>
       <c r="K60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="L60" t="s">
         <v>207</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Raise60SecReq = CSVDoubleValue(line[58]);</v>
       </c>
     </row>
@@ -3735,7 +4625,7 @@
         <v>58</v>
       </c>
       <c r="C61">
-        <f>C60+1</f>
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
       <c r="E61" t="s">
@@ -3745,7 +4635,7 @@
         <v>208</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Raise6SecDispatch</v>
       </c>
       <c r="I61" t="s">
@@ -3755,14 +4645,14 @@
         <v>210</v>
       </c>
       <c r="K61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="L61" t="s">
         <v>207</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Raise6SecDispatch = CSVDoubleValue(line[59]);</v>
       </c>
     </row>
@@ -3771,7 +4661,7 @@
         <v>59</v>
       </c>
       <c r="C62">
-        <f>C61+1</f>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="E62" t="s">
@@ -3781,7 +4671,7 @@
         <v>208</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Raise6SecImport</v>
       </c>
       <c r="I62" t="s">
@@ -3791,14 +4681,14 @@
         <v>210</v>
       </c>
       <c r="K62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="L62" t="s">
         <v>207</v>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Raise6SecImport = CSVDoubleValue(line[60]);</v>
       </c>
     </row>
@@ -3807,7 +4697,7 @@
         <v>60</v>
       </c>
       <c r="C63">
-        <f>C62+1</f>
+        <f t="shared" si="7"/>
         <v>61</v>
       </c>
       <c r="E63" t="s">
@@ -3817,7 +4707,7 @@
         <v>208</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Raise6SecLocalDispatch</v>
       </c>
       <c r="I63" t="s">
@@ -3827,14 +4717,14 @@
         <v>210</v>
       </c>
       <c r="K63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="L63" t="s">
         <v>207</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Raise6SecLocalDispatch = CSVDoubleValue(line[61]);</v>
       </c>
     </row>
@@ -3843,7 +4733,7 @@
         <v>61</v>
       </c>
       <c r="C64">
-        <f>C63+1</f>
+        <f t="shared" si="7"/>
         <v>62</v>
       </c>
       <c r="E64" t="s">
@@ -3853,7 +4743,7 @@
         <v>208</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Raise6SecLocalReq</v>
       </c>
       <c r="I64" t="s">
@@ -3863,14 +4753,14 @@
         <v>210</v>
       </c>
       <c r="K64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="L64" t="s">
         <v>207</v>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Raise6SecLocalReq = CSVDoubleValue(line[62]);</v>
       </c>
     </row>
@@ -3879,7 +4769,7 @@
         <v>62</v>
       </c>
       <c r="C65">
-        <f>C64+1</f>
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
       <c r="E65" t="s">
@@ -3889,7 +4779,7 @@
         <v>208</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>Raise6SecReq</v>
       </c>
       <c r="I65" t="s">
@@ -3899,14 +4789,14 @@
         <v>210</v>
       </c>
       <c r="K65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="L65" t="s">
         <v>207</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.Raise6SecReq = CSVDoubleValue(line[63]);</v>
       </c>
     </row>
@@ -3915,7 +4805,7 @@
         <v>63</v>
       </c>
       <c r="C66">
-        <f>C65+1</f>
+        <f t="shared" si="7"/>
         <v>64</v>
       </c>
       <c r="E66" t="s">
@@ -3925,7 +4815,7 @@
         <v>208</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>AggregateDispatchError</v>
       </c>
       <c r="I66" t="s">
@@ -3935,14 +4825,14 @@
         <v>210</v>
       </c>
       <c r="K66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="L66" t="s">
         <v>207</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.AggregateDispatchError = CSVDoubleValue(line[64]);</v>
       </c>
     </row>
@@ -3951,7 +4841,7 @@
         <v>64</v>
       </c>
       <c r="C67">
-        <f>C66+1</f>
+        <f t="shared" ref="C67:C98" si="8">C66+1</f>
         <v>65</v>
       </c>
       <c r="E67" t="s">
@@ -3961,7 +4851,7 @@
         <v>208</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>InitialSupply</v>
       </c>
       <c r="I67" t="s">
@@ -3971,14 +4861,14 @@
         <v>210</v>
       </c>
       <c r="K67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="L67" t="s">
         <v>207</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.InitialSupply = CSVDoubleValue(line[65]);</v>
       </c>
     </row>
@@ -3987,7 +4877,7 @@
         <v>65</v>
       </c>
       <c r="C68">
-        <f>C67+1</f>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="E68" t="s">
@@ -3997,7 +4887,7 @@
         <v>208</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>ClearedSupply</v>
       </c>
       <c r="I68" t="s">
@@ -4007,14 +4897,14 @@
         <v>210</v>
       </c>
       <c r="K68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="L68" t="s">
         <v>207</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.ClearedSupply = CSVDoubleValue(line[66]);</v>
       </c>
     </row>
@@ -4023,7 +4913,7 @@
         <v>66</v>
       </c>
       <c r="C69">
-        <f>C68+1</f>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="E69" t="s">
@@ -4033,7 +4923,7 @@
         <v>208</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>LowerRegImport</v>
       </c>
       <c r="I69" t="s">
@@ -4043,14 +4933,14 @@
         <v>210</v>
       </c>
       <c r="K69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="L69" t="s">
         <v>207</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.LowerRegImport = CSVDoubleValue(line[67]);</v>
       </c>
     </row>
@@ -4059,7 +4949,7 @@
         <v>67</v>
       </c>
       <c r="C70">
-        <f>C69+1</f>
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="E70" t="s">
@@ -4069,7 +4959,7 @@
         <v>208</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>LowerRegDispatch</v>
       </c>
       <c r="I70" t="s">
@@ -4079,14 +4969,14 @@
         <v>210</v>
       </c>
       <c r="K70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="L70" t="s">
         <v>207</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.LowerRegDispatch = CSVDoubleValue(line[68]);</v>
       </c>
     </row>
@@ -4095,7 +4985,7 @@
         <v>68</v>
       </c>
       <c r="C71">
-        <f>C70+1</f>
+        <f t="shared" si="8"/>
         <v>69</v>
       </c>
       <c r="E71" t="s">
@@ -4105,7 +4995,7 @@
         <v>208</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>LowerRegLocalDispatch</v>
       </c>
       <c r="I71" t="s">
@@ -4115,14 +5005,14 @@
         <v>210</v>
       </c>
       <c r="K71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="L71" t="s">
         <v>207</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.LowerRegLocalDispatch = CSVDoubleValue(line[69]);</v>
       </c>
     </row>
@@ -4131,7 +5021,7 @@
         <v>69</v>
       </c>
       <c r="C72">
-        <f>C71+1</f>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="E72" t="s">
@@ -4141,7 +5031,7 @@
         <v>208</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>LowerRegLocalReq</v>
       </c>
       <c r="I72" t="s">
@@ -4151,14 +5041,14 @@
         <v>210</v>
       </c>
       <c r="K72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>70</v>
       </c>
       <c r="L72" t="s">
         <v>207</v>
       </c>
       <c r="N72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.LowerRegLocalReq = CSVDoubleValue(line[70]);</v>
       </c>
     </row>
@@ -4167,7 +5057,7 @@
         <v>70</v>
       </c>
       <c r="C73">
-        <f>C72+1</f>
+        <f t="shared" si="8"/>
         <v>71</v>
       </c>
       <c r="E73" t="s">
@@ -4177,7 +5067,7 @@
         <v>208</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>LowerRegReq</v>
       </c>
       <c r="I73" t="s">
@@ -4187,14 +5077,14 @@
         <v>210</v>
       </c>
       <c r="K73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>71</v>
       </c>
       <c r="L73" t="s">
         <v>207</v>
       </c>
       <c r="N73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.LowerRegReq = CSVDoubleValue(line[71]);</v>
       </c>
     </row>
@@ -4203,7 +5093,7 @@
         <v>71</v>
       </c>
       <c r="C74">
-        <f>C73+1</f>
+        <f t="shared" si="8"/>
         <v>72</v>
       </c>
       <c r="E74" t="s">
@@ -4213,7 +5103,7 @@
         <v>208</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>RaiseRegImport</v>
       </c>
       <c r="I74" t="s">
@@ -4223,14 +5113,14 @@
         <v>210</v>
       </c>
       <c r="K74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="L74" t="s">
         <v>207</v>
       </c>
       <c r="N74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>dto.RaiseRegImport = CSVDoubleValue(line[72]);</v>
       </c>
     </row>
@@ -4239,7 +5129,7 @@
         <v>72</v>
       </c>
       <c r="C75">
-        <f>C74+1</f>
+        <f t="shared" si="8"/>
         <v>73</v>
       </c>
       <c r="E75" t="s">
@@ -4249,7 +5139,7 @@
         <v>208</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" ref="H75:H109" si="3">E75</f>
+        <f t="shared" ref="H75:H109" si="9">E75</f>
         <v>RaiseRegDispatch</v>
       </c>
       <c r="I75" t="s">
@@ -4259,14 +5149,14 @@
         <v>210</v>
       </c>
       <c r="K75">
-        <f t="shared" ref="K75:K109" si="4">C75</f>
+        <f t="shared" ref="K75:K109" si="10">C75</f>
         <v>73</v>
       </c>
       <c r="L75" t="s">
         <v>207</v>
       </c>
       <c r="N75" t="str">
-        <f t="shared" ref="N75:N109" si="5">_xlfn.CONCAT(G75,H75,I75,J75,K75,L75)</f>
+        <f t="shared" ref="N75:N109" si="11">_xlfn.CONCAT(G75,H75,I75,J75,K75,L75)</f>
         <v>dto.RaiseRegDispatch = CSVDoubleValue(line[73]);</v>
       </c>
     </row>
@@ -4275,7 +5165,7 @@
         <v>73</v>
       </c>
       <c r="C76">
-        <f>C75+1</f>
+        <f t="shared" si="8"/>
         <v>74</v>
       </c>
       <c r="E76" t="s">
@@ -4285,7 +5175,7 @@
         <v>208</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>RaiseRegLocalDispatch</v>
       </c>
       <c r="I76" t="s">
@@ -4295,14 +5185,14 @@
         <v>210</v>
       </c>
       <c r="K76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>74</v>
       </c>
       <c r="L76" t="s">
         <v>207</v>
       </c>
       <c r="N76" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.RaiseRegLocalDispatch = CSVDoubleValue(line[74]);</v>
       </c>
     </row>
@@ -4311,7 +5201,7 @@
         <v>74</v>
       </c>
       <c r="C77">
-        <f>C76+1</f>
+        <f t="shared" si="8"/>
         <v>75</v>
       </c>
       <c r="E77" t="s">
@@ -4321,7 +5211,7 @@
         <v>208</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>RaiseRegLocalReq</v>
       </c>
       <c r="I77" t="s">
@@ -4331,14 +5221,14 @@
         <v>210</v>
       </c>
       <c r="K77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="L77" t="s">
         <v>207</v>
       </c>
       <c r="N77" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.RaiseRegLocalReq = CSVDoubleValue(line[75]);</v>
       </c>
     </row>
@@ -4347,7 +5237,7 @@
         <v>75</v>
       </c>
       <c r="C78">
-        <f>C77+1</f>
+        <f t="shared" si="8"/>
         <v>76</v>
       </c>
       <c r="E78" t="s">
@@ -4357,7 +5247,7 @@
         <v>208</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>RaiseRegReq</v>
       </c>
       <c r="I78" t="s">
@@ -4367,14 +5257,14 @@
         <v>210</v>
       </c>
       <c r="K78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>76</v>
       </c>
       <c r="L78" t="s">
         <v>207</v>
       </c>
       <c r="N78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.RaiseRegReq = CSVDoubleValue(line[76]);</v>
       </c>
     </row>
@@ -4383,7 +5273,7 @@
         <v>76</v>
       </c>
       <c r="C79">
-        <f>C78+1</f>
+        <f t="shared" si="8"/>
         <v>77</v>
       </c>
       <c r="E79" t="s">
@@ -4393,7 +5283,7 @@
         <v>208</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Raise5MinLocalViolation</v>
       </c>
       <c r="I79" t="s">
@@ -4403,14 +5293,14 @@
         <v>210</v>
       </c>
       <c r="K79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>77</v>
       </c>
       <c r="L79" t="s">
         <v>207</v>
       </c>
       <c r="N79" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.Raise5MinLocalViolation = CSVDoubleValue(line[77]);</v>
       </c>
     </row>
@@ -4419,7 +5309,7 @@
         <v>77</v>
       </c>
       <c r="C80">
-        <f>C79+1</f>
+        <f t="shared" si="8"/>
         <v>78</v>
       </c>
       <c r="E80" t="s">
@@ -4429,7 +5319,7 @@
         <v>208</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>RaiseRegLocalViolation</v>
       </c>
       <c r="I80" t="s">
@@ -4439,14 +5329,14 @@
         <v>210</v>
       </c>
       <c r="K80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="L80" t="s">
         <v>207</v>
       </c>
       <c r="N80" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.RaiseRegLocalViolation = CSVDoubleValue(line[78]);</v>
       </c>
     </row>
@@ -4455,7 +5345,7 @@
         <v>78</v>
       </c>
       <c r="C81">
-        <f>C80+1</f>
+        <f t="shared" si="8"/>
         <v>79</v>
       </c>
       <c r="E81" t="s">
@@ -4465,7 +5355,7 @@
         <v>208</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Raise60SecLocalViolation</v>
       </c>
       <c r="I81" t="s">
@@ -4475,14 +5365,14 @@
         <v>210</v>
       </c>
       <c r="K81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>79</v>
       </c>
       <c r="L81" t="s">
         <v>207</v>
       </c>
       <c r="N81" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.Raise60SecLocalViolation = CSVDoubleValue(line[79]);</v>
       </c>
     </row>
@@ -4491,7 +5381,7 @@
         <v>79</v>
       </c>
       <c r="C82">
-        <f>C81+1</f>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="E82" t="s">
@@ -4501,7 +5391,7 @@
         <v>208</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Raise6SecLocalViolation</v>
       </c>
       <c r="I82" t="s">
@@ -4511,14 +5401,14 @@
         <v>210</v>
       </c>
       <c r="K82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="L82" t="s">
         <v>207</v>
       </c>
       <c r="N82" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.Raise6SecLocalViolation = CSVDoubleValue(line[80]);</v>
       </c>
     </row>
@@ -4527,7 +5417,7 @@
         <v>80</v>
       </c>
       <c r="C83">
-        <f>C82+1</f>
+        <f t="shared" si="8"/>
         <v>81</v>
       </c>
       <c r="E83" t="s">
@@ -4537,7 +5427,7 @@
         <v>208</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Lower5MinLocalViolation</v>
       </c>
       <c r="I83" t="s">
@@ -4547,14 +5437,14 @@
         <v>210</v>
       </c>
       <c r="K83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>81</v>
       </c>
       <c r="L83" t="s">
         <v>207</v>
       </c>
       <c r="N83" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.Lower5MinLocalViolation = CSVDoubleValue(line[81]);</v>
       </c>
     </row>
@@ -4563,7 +5453,7 @@
         <v>81</v>
       </c>
       <c r="C84">
-        <f>C83+1</f>
+        <f t="shared" si="8"/>
         <v>82</v>
       </c>
       <c r="E84" t="s">
@@ -4573,7 +5463,7 @@
         <v>208</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>LowerRegLocalViolation</v>
       </c>
       <c r="I84" t="s">
@@ -4583,14 +5473,14 @@
         <v>210</v>
       </c>
       <c r="K84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>82</v>
       </c>
       <c r="L84" t="s">
         <v>207</v>
       </c>
       <c r="N84" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.LowerRegLocalViolation = CSVDoubleValue(line[82]);</v>
       </c>
     </row>
@@ -4599,7 +5489,7 @@
         <v>82</v>
       </c>
       <c r="C85">
-        <f>C84+1</f>
+        <f t="shared" si="8"/>
         <v>83</v>
       </c>
       <c r="E85" t="s">
@@ -4609,7 +5499,7 @@
         <v>208</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Lower60SecLocalViolation</v>
       </c>
       <c r="I85" t="s">
@@ -4619,14 +5509,14 @@
         <v>210</v>
       </c>
       <c r="K85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>83</v>
       </c>
       <c r="L85" t="s">
         <v>207</v>
       </c>
       <c r="N85" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.Lower60SecLocalViolation = CSVDoubleValue(line[83]);</v>
       </c>
     </row>
@@ -4635,7 +5525,7 @@
         <v>83</v>
       </c>
       <c r="C86">
-        <f>C85+1</f>
+        <f t="shared" si="8"/>
         <v>84</v>
       </c>
       <c r="E86" t="s">
@@ -4645,7 +5535,7 @@
         <v>208</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Lower6SecLocalViolation</v>
       </c>
       <c r="I86" t="s">
@@ -4655,14 +5545,14 @@
         <v>210</v>
       </c>
       <c r="K86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>84</v>
       </c>
       <c r="L86" t="s">
         <v>207</v>
       </c>
       <c r="N86" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.Lower6SecLocalViolation = CSVDoubleValue(line[84]);</v>
       </c>
     </row>
@@ -4671,7 +5561,7 @@
         <v>84</v>
       </c>
       <c r="C87">
-        <f>C86+1</f>
+        <f t="shared" si="8"/>
         <v>85</v>
       </c>
       <c r="E87" t="s">
@@ -4681,7 +5571,7 @@
         <v>208</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Raise5MinViolation</v>
       </c>
       <c r="I87" t="s">
@@ -4691,14 +5581,14 @@
         <v>210</v>
       </c>
       <c r="K87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>85</v>
       </c>
       <c r="L87" t="s">
         <v>207</v>
       </c>
       <c r="N87" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.Raise5MinViolation = CSVDoubleValue(line[85]);</v>
       </c>
     </row>
@@ -4707,7 +5597,7 @@
         <v>85</v>
       </c>
       <c r="C88">
-        <f>C87+1</f>
+        <f t="shared" si="8"/>
         <v>86</v>
       </c>
       <c r="E88" t="s">
@@ -4717,7 +5607,7 @@
         <v>208</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>RaiseRegViolation</v>
       </c>
       <c r="I88" t="s">
@@ -4727,14 +5617,14 @@
         <v>210</v>
       </c>
       <c r="K88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>86</v>
       </c>
       <c r="L88" t="s">
         <v>207</v>
       </c>
       <c r="N88" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.RaiseRegViolation = CSVDoubleValue(line[86]);</v>
       </c>
     </row>
@@ -4743,7 +5633,7 @@
         <v>86</v>
       </c>
       <c r="C89">
-        <f>C88+1</f>
+        <f t="shared" si="8"/>
         <v>87</v>
       </c>
       <c r="E89" t="s">
@@ -4753,7 +5643,7 @@
         <v>208</v>
       </c>
       <c r="H89" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Raise60SecViolation</v>
       </c>
       <c r="I89" t="s">
@@ -4763,14 +5653,14 @@
         <v>210</v>
       </c>
       <c r="K89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>87</v>
       </c>
       <c r="L89" t="s">
         <v>207</v>
       </c>
       <c r="N89" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.Raise60SecViolation = CSVDoubleValue(line[87]);</v>
       </c>
     </row>
@@ -4779,7 +5669,7 @@
         <v>87</v>
       </c>
       <c r="C90">
-        <f>C89+1</f>
+        <f t="shared" si="8"/>
         <v>88</v>
       </c>
       <c r="E90" t="s">
@@ -4789,7 +5679,7 @@
         <v>208</v>
       </c>
       <c r="H90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Raise6SecViolation</v>
       </c>
       <c r="I90" t="s">
@@ -4799,14 +5689,14 @@
         <v>210</v>
       </c>
       <c r="K90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>88</v>
       </c>
       <c r="L90" t="s">
         <v>207</v>
       </c>
       <c r="N90" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.Raise6SecViolation = CSVDoubleValue(line[88]);</v>
       </c>
     </row>
@@ -4815,7 +5705,7 @@
         <v>88</v>
       </c>
       <c r="C91">
-        <f>C90+1</f>
+        <f t="shared" si="8"/>
         <v>89</v>
       </c>
       <c r="E91" t="s">
@@ -4825,7 +5715,7 @@
         <v>208</v>
       </c>
       <c r="H91" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Lower5MinViolation</v>
       </c>
       <c r="I91" t="s">
@@ -4835,14 +5725,14 @@
         <v>210</v>
       </c>
       <c r="K91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>89</v>
       </c>
       <c r="L91" t="s">
         <v>207</v>
       </c>
       <c r="N91" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.Lower5MinViolation = CSVDoubleValue(line[89]);</v>
       </c>
     </row>
@@ -4851,7 +5741,7 @@
         <v>89</v>
       </c>
       <c r="C92">
-        <f>C91+1</f>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="E92" t="s">
@@ -4861,7 +5751,7 @@
         <v>208</v>
       </c>
       <c r="H92" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>LowerRegViolation</v>
       </c>
       <c r="I92" t="s">
@@ -4871,14 +5761,14 @@
         <v>210</v>
       </c>
       <c r="K92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="L92" t="s">
         <v>207</v>
       </c>
       <c r="N92" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.LowerRegViolation = CSVDoubleValue(line[90]);</v>
       </c>
     </row>
@@ -4887,7 +5777,7 @@
         <v>90</v>
       </c>
       <c r="C93">
-        <f>C92+1</f>
+        <f t="shared" si="8"/>
         <v>91</v>
       </c>
       <c r="E93" t="s">
@@ -4897,7 +5787,7 @@
         <v>208</v>
       </c>
       <c r="H93" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Lower60SecViolation</v>
       </c>
       <c r="I93" t="s">
@@ -4907,14 +5797,14 @@
         <v>210</v>
       </c>
       <c r="K93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>91</v>
       </c>
       <c r="L93" t="s">
         <v>207</v>
       </c>
       <c r="N93" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.Lower60SecViolation = CSVDoubleValue(line[91]);</v>
       </c>
     </row>
@@ -4923,7 +5813,7 @@
         <v>91</v>
       </c>
       <c r="C94">
-        <f>C93+1</f>
+        <f t="shared" si="8"/>
         <v>92</v>
       </c>
       <c r="E94" t="s">
@@ -4933,7 +5823,7 @@
         <v>208</v>
       </c>
       <c r="H94" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Lower6SecViolation</v>
       </c>
       <c r="I94" t="s">
@@ -4943,14 +5833,14 @@
         <v>210</v>
       </c>
       <c r="K94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>92</v>
       </c>
       <c r="L94" t="s">
         <v>207</v>
       </c>
       <c r="N94" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.Lower6SecViolation = CSVDoubleValue(line[92]);</v>
       </c>
     </row>
@@ -4959,7 +5849,7 @@
         <v>92</v>
       </c>
       <c r="C95">
-        <f>C94+1</f>
+        <f t="shared" si="8"/>
         <v>93</v>
       </c>
       <c r="E95" t="s">
@@ -4969,25 +5859,25 @@
         <v>208</v>
       </c>
       <c r="H95" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>LastChanged</v>
       </c>
       <c r="I95" t="s">
         <v>209</v>
       </c>
       <c r="J95" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>93</v>
       </c>
       <c r="L95" t="s">
         <v>207</v>
       </c>
       <c r="N95" t="str">
-        <f t="shared" si="5"/>
-        <v>dto.LastChanged = CSVDoubleValue(line[93]);</v>
+        <f t="shared" si="11"/>
+        <v>dto.LastChanged = GetDateTime(line[93]);</v>
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.2">
@@ -4995,7 +5885,7 @@
         <v>93</v>
       </c>
       <c r="C96">
-        <f>C95+1</f>
+        <f t="shared" si="8"/>
         <v>94</v>
       </c>
       <c r="E96" t="s">
@@ -5005,7 +5895,7 @@
         <v>208</v>
       </c>
       <c r="H96" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>TotalIntermittentGeneration</v>
       </c>
       <c r="I96" t="s">
@@ -5015,14 +5905,14 @@
         <v>210</v>
       </c>
       <c r="K96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>94</v>
       </c>
       <c r="L96" t="s">
         <v>207</v>
       </c>
       <c r="N96" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.TotalIntermittentGeneration = CSVDoubleValue(line[94]);</v>
       </c>
     </row>
@@ -5031,7 +5921,7 @@
         <v>94</v>
       </c>
       <c r="C97">
-        <f>C96+1</f>
+        <f t="shared" si="8"/>
         <v>95</v>
       </c>
       <c r="E97" t="s">
@@ -5041,7 +5931,7 @@
         <v>208</v>
       </c>
       <c r="H97" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>DemandAndNonSchedgen</v>
       </c>
       <c r="I97" t="s">
@@ -5051,14 +5941,14 @@
         <v>210</v>
       </c>
       <c r="K97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>95</v>
       </c>
       <c r="L97" t="s">
         <v>207</v>
       </c>
       <c r="N97" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.DemandAndNonSchedgen = CSVDoubleValue(line[95]);</v>
       </c>
     </row>
@@ -5067,7 +5957,7 @@
         <v>95</v>
       </c>
       <c r="C98">
-        <f>C97+1</f>
+        <f t="shared" si="8"/>
         <v>96</v>
       </c>
       <c r="E98" t="s">
@@ -5077,7 +5967,7 @@
         <v>208</v>
       </c>
       <c r="H98" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>Uigf</v>
       </c>
       <c r="I98" t="s">
@@ -5087,14 +5977,14 @@
         <v>210</v>
       </c>
       <c r="K98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
       <c r="L98" t="s">
         <v>207</v>
       </c>
       <c r="N98" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.Uigf = CSVDoubleValue(line[96]);</v>
       </c>
     </row>
@@ -5103,7 +5993,7 @@
         <v>96</v>
       </c>
       <c r="C99">
-        <f>C98+1</f>
+        <f t="shared" ref="C99:C109" si="12">C98+1</f>
         <v>97</v>
       </c>
       <c r="E99" t="s">
@@ -5113,7 +6003,7 @@
         <v>208</v>
       </c>
       <c r="H99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>SemiScheduleClearedMw</v>
       </c>
       <c r="I99" t="s">
@@ -5123,14 +6013,14 @@
         <v>210</v>
       </c>
       <c r="K99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>97</v>
       </c>
       <c r="L99" t="s">
         <v>207</v>
       </c>
       <c r="N99" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.SemiScheduleClearedMw = CSVDoubleValue(line[97]);</v>
       </c>
     </row>
@@ -5139,7 +6029,7 @@
         <v>97</v>
       </c>
       <c r="C100">
-        <f>C99+1</f>
+        <f t="shared" si="12"/>
         <v>98</v>
       </c>
       <c r="E100" t="s">
@@ -5149,7 +6039,7 @@
         <v>208</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>SemiScheduleComplianceMw</v>
       </c>
       <c r="I100" t="s">
@@ -5159,14 +6049,14 @@
         <v>210</v>
       </c>
       <c r="K100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>98</v>
       </c>
       <c r="L100" t="s">
         <v>207</v>
       </c>
       <c r="N100" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.SemiScheduleComplianceMw = CSVDoubleValue(line[98]);</v>
       </c>
     </row>
@@ -5175,7 +6065,7 @@
         <v>98</v>
       </c>
       <c r="C101">
-        <f>C100+1</f>
+        <f t="shared" si="12"/>
         <v>99</v>
       </c>
       <c r="E101" t="s">
@@ -5185,7 +6075,7 @@
         <v>208</v>
       </c>
       <c r="H101" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>SsSolarUigf</v>
       </c>
       <c r="I101" t="s">
@@ -5195,14 +6085,14 @@
         <v>210</v>
       </c>
       <c r="K101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>99</v>
       </c>
       <c r="L101" t="s">
         <v>207</v>
       </c>
       <c r="N101" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.SsSolarUigf = CSVDoubleValue(line[99]);</v>
       </c>
     </row>
@@ -5211,7 +6101,7 @@
         <v>99</v>
       </c>
       <c r="C102">
-        <f>C101+1</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="E102" t="s">
@@ -5221,7 +6111,7 @@
         <v>208</v>
       </c>
       <c r="H102" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>SsWindUigf</v>
       </c>
       <c r="I102" t="s">
@@ -5231,14 +6121,14 @@
         <v>210</v>
       </c>
       <c r="K102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="L102" t="s">
         <v>207</v>
       </c>
       <c r="N102" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.SsWindUigf = CSVDoubleValue(line[100]);</v>
       </c>
     </row>
@@ -5247,7 +6137,7 @@
         <v>100</v>
       </c>
       <c r="C103">
-        <f>C102+1</f>
+        <f t="shared" si="12"/>
         <v>101</v>
       </c>
       <c r="E103" t="s">
@@ -5257,7 +6147,7 @@
         <v>208</v>
       </c>
       <c r="H103" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>SsSolarClearedMw</v>
       </c>
       <c r="I103" t="s">
@@ -5267,14 +6157,14 @@
         <v>210</v>
       </c>
       <c r="K103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>101</v>
       </c>
       <c r="L103" t="s">
         <v>207</v>
       </c>
       <c r="N103" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.SsSolarClearedMw = CSVDoubleValue(line[101]);</v>
       </c>
     </row>
@@ -5283,7 +6173,7 @@
         <v>101</v>
       </c>
       <c r="C104">
-        <f>C103+1</f>
+        <f t="shared" si="12"/>
         <v>102</v>
       </c>
       <c r="E104" t="s">
@@ -5293,7 +6183,7 @@
         <v>208</v>
       </c>
       <c r="H104" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>SsWindClearedMw</v>
       </c>
       <c r="I104" t="s">
@@ -5303,14 +6193,14 @@
         <v>210</v>
       </c>
       <c r="K104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>102</v>
       </c>
       <c r="L104" t="s">
         <v>207</v>
       </c>
       <c r="N104" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.SsWindClearedMw = CSVDoubleValue(line[102]);</v>
       </c>
     </row>
@@ -5319,7 +6209,7 @@
         <v>102</v>
       </c>
       <c r="C105">
-        <f>C104+1</f>
+        <f t="shared" si="12"/>
         <v>103</v>
       </c>
       <c r="E105" t="s">
@@ -5329,7 +6219,7 @@
         <v>208</v>
       </c>
       <c r="H105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>SsSolarComplianceMw</v>
       </c>
       <c r="I105" t="s">
@@ -5339,14 +6229,14 @@
         <v>210</v>
       </c>
       <c r="K105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>103</v>
       </c>
       <c r="L105" t="s">
         <v>207</v>
       </c>
       <c r="N105" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.SsSolarComplianceMw = CSVDoubleValue(line[103]);</v>
       </c>
     </row>
@@ -5355,7 +6245,7 @@
         <v>103</v>
       </c>
       <c r="C106">
-        <f>C105+1</f>
+        <f t="shared" si="12"/>
         <v>104</v>
       </c>
       <c r="E106" t="s">
@@ -5365,7 +6255,7 @@
         <v>208</v>
       </c>
       <c r="H106" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>SsWindComplianceMw</v>
       </c>
       <c r="I106" t="s">
@@ -5375,14 +6265,14 @@
         <v>210</v>
       </c>
       <c r="K106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>104</v>
       </c>
       <c r="L106" t="s">
         <v>207</v>
       </c>
       <c r="N106" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.SsWindComplianceMw = CSVDoubleValue(line[104]);</v>
       </c>
     </row>
@@ -5391,7 +6281,7 @@
         <v>104</v>
       </c>
       <c r="C107">
-        <f>C106+1</f>
+        <f t="shared" si="12"/>
         <v>105</v>
       </c>
       <c r="E107" t="s">
@@ -5401,7 +6291,7 @@
         <v>208</v>
       </c>
       <c r="H107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>WdrInitialMw</v>
       </c>
       <c r="I107" t="s">
@@ -5411,14 +6301,14 @@
         <v>210</v>
       </c>
       <c r="K107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>105</v>
       </c>
       <c r="L107" t="s">
         <v>207</v>
       </c>
       <c r="N107" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.WdrInitialMw = CSVDoubleValue(line[105]);</v>
       </c>
     </row>
@@ -5427,7 +6317,7 @@
         <v>105</v>
       </c>
       <c r="C108">
-        <f>C107+1</f>
+        <f t="shared" si="12"/>
         <v>106</v>
       </c>
       <c r="E108" t="s">
@@ -5437,7 +6327,7 @@
         <v>208</v>
       </c>
       <c r="H108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>WdrAvailable</v>
       </c>
       <c r="I108" t="s">
@@ -5447,14 +6337,14 @@
         <v>210</v>
       </c>
       <c r="K108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>106</v>
       </c>
       <c r="L108" t="s">
         <v>207</v>
       </c>
       <c r="N108" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.WdrAvailable = CSVDoubleValue(line[106]);</v>
       </c>
     </row>
@@ -5463,7 +6353,7 @@
         <v>106</v>
       </c>
       <c r="C109">
-        <f>C108+1</f>
+        <f t="shared" si="12"/>
         <v>107</v>
       </c>
       <c r="E109" t="s">
@@ -5473,7 +6363,7 @@
         <v>208</v>
       </c>
       <c r="H109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>WdrDispatched</v>
       </c>
       <c r="I109" t="s">
@@ -5483,18 +6373,3438 @@
         <v>210</v>
       </c>
       <c r="K109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>107</v>
       </c>
       <c r="L109" t="s">
         <v>207</v>
       </c>
       <c r="N109" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>dto.WdrDispatched = CSVDoubleValue(line[107]);</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35499564-CCC4-5843-8C43-6AFE99B6DD8F}">
+  <dimension ref="A1:T104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="1.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" t="s">
+        <v>419</v>
+      </c>
+      <c r="T1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2">
+        <f>LEN(A2)</f>
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <f>SEARCH(" ",A2)</f>
+        <v>9</v>
+      </c>
+      <c r="D2" t="str">
+        <f>LEFT(A2,C2-1)</f>
+        <v>DateTime</v>
+      </c>
+      <c r="E2" t="str">
+        <f>RIGHT(A2,B2-C2)</f>
+        <v>RunTime</v>
+      </c>
+      <c r="G2" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H65" si="0">VLOOKUP(D2,$S$2:$T$20,2,FALSE)</f>
+        <v>date</v>
+      </c>
+      <c r="J2" t="str">
+        <f>_xlfn.CONCAT(G2," ",H2,",")</f>
+        <v>run_time date,</v>
+      </c>
+      <c r="S2" t="s">
+        <v>427</v>
+      </c>
+      <c r="T2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" si="1">LEN(A3)</f>
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="2">SEARCH(" ",A3)</f>
+        <v>9</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D66" si="3">LEFT(A3,C3-1)</f>
+        <v>DateTime</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="4">RIGHT(A3,B3-C3)</f>
+        <v>Interval</v>
+      </c>
+      <c r="G3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="0"/>
+        <v>date</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J66" si="5">_xlfn.CONCAT(G3," ",H3,",")</f>
+        <v>interval date,</v>
+      </c>
+      <c r="S3" t="s">
+        <v>429</v>
+      </c>
+      <c r="T3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="3"/>
+        <v>RegionEnum</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="4"/>
+        <v>Region</v>
+      </c>
+      <c r="G4" t="s">
+        <v>320</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>smallint</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="5"/>
+        <v>region smallint,</v>
+      </c>
+      <c r="S4" t="s">
+        <v>431</v>
+      </c>
+      <c r="T4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="4"/>
+        <v>Rrp</v>
+      </c>
+      <c r="G5" t="s">
+        <v>321</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="5"/>
+        <v>rrp double precision,</v>
+      </c>
+      <c r="S5" t="s">
+        <v>423</v>
+      </c>
+      <c r="T5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="4"/>
+        <v>Rop</v>
+      </c>
+      <c r="G6" t="s">
+        <v>322</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="5"/>
+        <v>rop double precision,</v>
+      </c>
+      <c r="S6" t="s">
+        <v>434</v>
+      </c>
+      <c r="T6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="4"/>
+        <v>ExcessGeneration</v>
+      </c>
+      <c r="G7" t="s">
+        <v>323</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="5"/>
+        <v>excess_generation double precision,</v>
+      </c>
+      <c r="S7" t="s">
+        <v>421</v>
+      </c>
+      <c r="T7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="4"/>
+        <v>Raise6SecRrp</v>
+      </c>
+      <c r="G8" t="s">
+        <v>324</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="5"/>
+        <v>raise_6_sec_rrp double precision,</v>
+      </c>
+      <c r="S8" t="s">
+        <v>436</v>
+      </c>
+      <c r="T8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="4"/>
+        <v>Raise6SecRop</v>
+      </c>
+      <c r="G9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="5"/>
+        <v>raise_6_sec_rop double precision,</v>
+      </c>
+      <c r="S9" t="s">
+        <v>438</v>
+      </c>
+      <c r="T9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="4"/>
+        <v>Raise60SecRrp</v>
+      </c>
+      <c r="G10" t="s">
+        <v>326</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="5"/>
+        <v>raise_60_sec_rrp double precision,</v>
+      </c>
+      <c r="S10" t="s">
+        <v>422</v>
+      </c>
+      <c r="T10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="4"/>
+        <v>Raise60SecRop</v>
+      </c>
+      <c r="G11" t="s">
+        <v>327</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="5"/>
+        <v>raise_60_sec_rop double precision,</v>
+      </c>
+      <c r="S11" t="s">
+        <v>427</v>
+      </c>
+      <c r="T11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="4"/>
+        <v>Raise5MinRrp</v>
+      </c>
+      <c r="G12" t="s">
+        <v>328</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="5"/>
+        <v>raise_5_min_rrp double precision,</v>
+      </c>
+      <c r="S12" t="s">
+        <v>440</v>
+      </c>
+      <c r="T12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="4"/>
+        <v>Raise5MinRop</v>
+      </c>
+      <c r="G13" t="s">
+        <v>329</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="5"/>
+        <v>raise_5_min_rop double precision,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="4"/>
+        <v>RaiseRegRrp</v>
+      </c>
+      <c r="G14" t="s">
+        <v>330</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="5"/>
+        <v>raise_reg_rrp double precision,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="4"/>
+        <v>RaiseRegRop</v>
+      </c>
+      <c r="G15" t="s">
+        <v>331</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="5"/>
+        <v>raise_reg_rop double precision,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="4"/>
+        <v>Lower6SecRrp</v>
+      </c>
+      <c r="G16" t="s">
+        <v>332</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_6_sec_rrp double precision,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="4"/>
+        <v>Lower6SecRop</v>
+      </c>
+      <c r="G17" t="s">
+        <v>333</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_6_sec_rop double precision,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>233</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="4"/>
+        <v>Lower60SecRrp</v>
+      </c>
+      <c r="G18" t="s">
+        <v>334</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_60_sec_rrp double precision,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="4"/>
+        <v>Lower60SecRop</v>
+      </c>
+      <c r="G19" t="s">
+        <v>335</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_60_sec_rop double precision,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="4"/>
+        <v>Lower5MinRrp</v>
+      </c>
+      <c r="G20" t="s">
+        <v>336</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_5_min_rrp double precision,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="4"/>
+        <v>Lower5MinRop</v>
+      </c>
+      <c r="G21" t="s">
+        <v>337</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_5_min_rop double precision,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="4"/>
+        <v>LowerRegRrp</v>
+      </c>
+      <c r="G22" t="s">
+        <v>338</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_reg_rrp double precision,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="4"/>
+        <v>LowerRegRop</v>
+      </c>
+      <c r="G23" t="s">
+        <v>339</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_reg_rop double precision,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>441</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="4"/>
+        <v>TotalDemand</v>
+      </c>
+      <c r="G24" t="s">
+        <v>443</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="5"/>
+        <v>total_demand double precision,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>239</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="4"/>
+        <v>AvailableGeneration</v>
+      </c>
+      <c r="G25" t="s">
+        <v>340</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="5"/>
+        <v>available_generation double precision,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="4"/>
+        <v>AvailableLoad</v>
+      </c>
+      <c r="G26" t="s">
+        <v>341</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="5"/>
+        <v>available_load double precision,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="4"/>
+        <v>DemandForecast</v>
+      </c>
+      <c r="G27" t="s">
+        <v>342</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="5"/>
+        <v>demand_forecast double precision,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>242</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="4"/>
+        <v>DispatchableGeneration</v>
+      </c>
+      <c r="G28" t="s">
+        <v>343</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="5"/>
+        <v>dispatchable_generation double precision,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>243</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="4"/>
+        <v>DispatchableLoad</v>
+      </c>
+      <c r="G29" t="s">
+        <v>344</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="5"/>
+        <v>dispatchable_load double precision,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>442</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="4"/>
+        <v>NetInterchange</v>
+      </c>
+      <c r="G30" t="s">
+        <v>444</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="5"/>
+        <v>net_interchange double precision,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="4"/>
+        <v>Lower5MinDispatch</v>
+      </c>
+      <c r="G31" t="s">
+        <v>345</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_5_min_dispatch double precision,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>245</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="4"/>
+        <v>Lower5MinImport</v>
+      </c>
+      <c r="G32" t="s">
+        <v>346</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_5_min_import double precision,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>246</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="4"/>
+        <v>Lower5MinLocalDispatch</v>
+      </c>
+      <c r="G33" t="s">
+        <v>347</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_5_min_local_dispatch double precision,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>247</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="4"/>
+        <v>Lower5MinLocalReq</v>
+      </c>
+      <c r="G34" t="s">
+        <v>348</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_5_min_local_req double precision,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>248</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="4"/>
+        <v>Lower5MinReq</v>
+      </c>
+      <c r="G35" t="s">
+        <v>349</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_5_min_req double precision,</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>249</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="4"/>
+        <v>Lower60SecDispatch</v>
+      </c>
+      <c r="G36" t="s">
+        <v>350</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_60_sec_dispatch double precision,</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>250</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="4"/>
+        <v>Lower60SecImport</v>
+      </c>
+      <c r="G37" t="s">
+        <v>351</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_60_sec_import double precision,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>251</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="4"/>
+        <v>Lower60SecLocalDispatch</v>
+      </c>
+      <c r="G38" t="s">
+        <v>352</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_60_sec_local_dispatch double precision,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>252</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="4"/>
+        <v>Lower60SecLocalReq</v>
+      </c>
+      <c r="G39" t="s">
+        <v>353</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_60_sec_local_req double precision,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>253</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="4"/>
+        <v>Lower60SecReq</v>
+      </c>
+      <c r="G40" t="s">
+        <v>354</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_60_sec_req double precision,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>254</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="4"/>
+        <v>Lower6SecDispatch</v>
+      </c>
+      <c r="G41" t="s">
+        <v>355</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_6_sec_dispatch double precision,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>255</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="4"/>
+        <v>Lower6SecImport</v>
+      </c>
+      <c r="G42" t="s">
+        <v>356</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_6_sec_import double precision,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>256</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="4"/>
+        <v>Lower6SecLocalDispatch</v>
+      </c>
+      <c r="G43" t="s">
+        <v>357</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_6_sec_local_dispatch double precision,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>257</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="4"/>
+        <v>Lower6SecLocalReq</v>
+      </c>
+      <c r="G44" t="s">
+        <v>358</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_6_sec_local_req double precision,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>258</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="4"/>
+        <v>Lower6SecReq</v>
+      </c>
+      <c r="G45" t="s">
+        <v>359</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_6_sec_req double precision,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>259</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="4"/>
+        <v>Raise5MinDispatch</v>
+      </c>
+      <c r="G46" t="s">
+        <v>360</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="5"/>
+        <v>raise_5_min_dispatch double precision,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>260</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="4"/>
+        <v>Raise5MinImport</v>
+      </c>
+      <c r="G47" t="s">
+        <v>361</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="5"/>
+        <v>raise_5_min_import double precision,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>261</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="4"/>
+        <v>Raise5MinLocalDispatch</v>
+      </c>
+      <c r="G48" t="s">
+        <v>362</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="5"/>
+        <v>raise_5_min_local_dispatch double precision,</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>262</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="4"/>
+        <v>Raise5MinLocalReq</v>
+      </c>
+      <c r="G49" t="s">
+        <v>363</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="5"/>
+        <v>raise_5_min_local_req double precision,</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>263</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="4"/>
+        <v>Raise5MinReq</v>
+      </c>
+      <c r="G50" t="s">
+        <v>364</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="5"/>
+        <v>raise_5_min_req double precision,</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>264</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="4"/>
+        <v>Raise60SecDispatch</v>
+      </c>
+      <c r="G51" t="s">
+        <v>365</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="5"/>
+        <v>raise_60_sec_dispatch double precision,</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>265</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="4"/>
+        <v>Raise60SecImport</v>
+      </c>
+      <c r="G52" t="s">
+        <v>366</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="5"/>
+        <v>raise_60_sec_import double precision,</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>266</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="4"/>
+        <v>Raise60SecLocalDispatch</v>
+      </c>
+      <c r="G53" t="s">
+        <v>367</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="5"/>
+        <v>raise_60_sec_local_dispatch double precision,</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>267</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="4"/>
+        <v>Raise60SecLocalReq</v>
+      </c>
+      <c r="G54" t="s">
+        <v>368</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="5"/>
+        <v>raise_60_sec_local_req double precision,</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>268</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="4"/>
+        <v>Raise60SecReq</v>
+      </c>
+      <c r="G55" t="s">
+        <v>369</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="5"/>
+        <v>raise_60_sec_req double precision,</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>269</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="4"/>
+        <v>Raise6SecDispatch</v>
+      </c>
+      <c r="G56" t="s">
+        <v>370</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="5"/>
+        <v>raise_6_sec_dispatch double precision,</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>270</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="4"/>
+        <v>Raise6SecImport</v>
+      </c>
+      <c r="G57" t="s">
+        <v>371</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="5"/>
+        <v>raise_6_sec_import double precision,</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>271</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="4"/>
+        <v>Raise6SecLocalDispatch</v>
+      </c>
+      <c r="G58" t="s">
+        <v>372</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="5"/>
+        <v>raise_6_sec_local_dispatch double precision,</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>272</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="4"/>
+        <v>Raise6SecLocalReq</v>
+      </c>
+      <c r="G59" t="s">
+        <v>373</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="5"/>
+        <v>raise_6_sec_local_req double precision,</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>273</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="4"/>
+        <v>Raise6SecReq</v>
+      </c>
+      <c r="G60" t="s">
+        <v>374</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="5"/>
+        <v>raise_6_sec_req double precision,</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>274</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="4"/>
+        <v>AggregateDispatchError</v>
+      </c>
+      <c r="G61" t="s">
+        <v>375</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="5"/>
+        <v>aggregate_dispatch_error double precision,</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>275</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="4"/>
+        <v>InitialSupply</v>
+      </c>
+      <c r="G62" t="s">
+        <v>376</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="5"/>
+        <v>initial_supply double precision,</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>276</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="4"/>
+        <v>ClearedSupply</v>
+      </c>
+      <c r="G63" t="s">
+        <v>377</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="5"/>
+        <v>cleared_supply double precision,</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>277</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="4"/>
+        <v>LowerRegImport</v>
+      </c>
+      <c r="G64" t="s">
+        <v>378</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_reg_import double precision,</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>278</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="4"/>
+        <v>LowerRegDispatch</v>
+      </c>
+      <c r="G65" t="s">
+        <v>379</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="0"/>
+        <v>double precision</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_reg_dispatch double precision,</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>279</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="3"/>
+        <v>double</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="4"/>
+        <v>LowerRegLocalDispatch</v>
+      </c>
+      <c r="G66" t="s">
+        <v>380</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" ref="H66:H104" si="6">VLOOKUP(D66,$S$2:$T$20,2,FALSE)</f>
+        <v>double precision</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="5"/>
+        <v>lower_reg_local_dispatch double precision,</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>280</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B104" si="7">LEN(A67)</f>
+        <v>23</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C104" si="8">SEARCH(" ",A67)</f>
+        <v>7</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D104" si="9">LEFT(A67,C67-1)</f>
+        <v>double</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E104" si="10">RIGHT(A67,B67-C67)</f>
+        <v>LowerRegLocalReq</v>
+      </c>
+      <c r="G67" t="s">
+        <v>381</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" ref="J67:J104" si="11">_xlfn.CONCAT(G67," ",H67,",")</f>
+        <v>lower_reg_local_req double precision,</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>281</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="10"/>
+        <v>LowerRegReq</v>
+      </c>
+      <c r="G68" t="s">
+        <v>382</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="11"/>
+        <v>lower_reg_req double precision,</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>282</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="10"/>
+        <v>RaiseRegImport</v>
+      </c>
+      <c r="G69" t="s">
+        <v>383</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="11"/>
+        <v>raise_reg_import double precision,</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>283</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="10"/>
+        <v>RaiseRegDispatch</v>
+      </c>
+      <c r="G70" t="s">
+        <v>384</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="11"/>
+        <v>raise_reg_dispatch double precision,</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>284</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="10"/>
+        <v>RaiseRegLocalDispatch</v>
+      </c>
+      <c r="G71" t="s">
+        <v>385</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="11"/>
+        <v>raise_reg_local_dispatch double precision,</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>285</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="10"/>
+        <v>RaiseRegLocalReq</v>
+      </c>
+      <c r="G72" t="s">
+        <v>386</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="11"/>
+        <v>raise_reg_local_req double precision,</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>286</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="10"/>
+        <v>RaiseRegReq</v>
+      </c>
+      <c r="G73" t="s">
+        <v>387</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="11"/>
+        <v>raise_reg_req double precision,</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>287</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="10"/>
+        <v>Raise5MinLocalViolation</v>
+      </c>
+      <c r="G74" t="s">
+        <v>388</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="11"/>
+        <v>raise_5_min_local_violation double precision,</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>288</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="10"/>
+        <v>RaiseRegLocalViolation</v>
+      </c>
+      <c r="G75" t="s">
+        <v>389</v>
+      </c>
+      <c r="H75" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="11"/>
+        <v>raise_reg_local_violation double precision,</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>289</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="10"/>
+        <v>Raise60SecLocalViolation</v>
+      </c>
+      <c r="G76" t="s">
+        <v>390</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="11"/>
+        <v>raise_60_sec_local_violation double precision,</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>290</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="10"/>
+        <v>Raise6SecLocalViolation</v>
+      </c>
+      <c r="G77" t="s">
+        <v>391</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="11"/>
+        <v>raise_6_sec_local_violation double precision,</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>291</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="10"/>
+        <v>Lower5MinLocalViolation</v>
+      </c>
+      <c r="G78" t="s">
+        <v>392</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="11"/>
+        <v>lower_5_min_local_violation double precision,</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>292</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="10"/>
+        <v>LowerRegLocalViolation</v>
+      </c>
+      <c r="G79" t="s">
+        <v>393</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="11"/>
+        <v>lower_reg_local_violation double precision,</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>293</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="10"/>
+        <v>Lower60SecLocalViolation</v>
+      </c>
+      <c r="G80" t="s">
+        <v>394</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" si="11"/>
+        <v>lower_60_sec_local_violation double precision,</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>294</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="7"/>
+        <v>30</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="10"/>
+        <v>Lower6SecLocalViolation</v>
+      </c>
+      <c r="G81" t="s">
+        <v>395</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" si="11"/>
+        <v>lower_6_sec_local_violation double precision,</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>295</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="10"/>
+        <v>Raise5MinViolation</v>
+      </c>
+      <c r="G82" t="s">
+        <v>396</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="11"/>
+        <v>raise_5_min_violation double precision,</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>296</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="10"/>
+        <v>RaiseRegViolation</v>
+      </c>
+      <c r="G83" t="s">
+        <v>397</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="11"/>
+        <v>raise_reg_violation double precision,</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>297</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="10"/>
+        <v>Raise60SecViolation</v>
+      </c>
+      <c r="G84" t="s">
+        <v>398</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="11"/>
+        <v>raise_60_sec_violation double precision,</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>298</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="10"/>
+        <v>Raise6SecViolation</v>
+      </c>
+      <c r="G85" t="s">
+        <v>399</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="11"/>
+        <v>raise_6_sec_violation double precision,</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>299</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="10"/>
+        <v>Lower5MinViolation</v>
+      </c>
+      <c r="G86" t="s">
+        <v>400</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="11"/>
+        <v>lower_5_min_violation double precision,</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>300</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" si="10"/>
+        <v>LowerRegViolation</v>
+      </c>
+      <c r="G87" t="s">
+        <v>401</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="11"/>
+        <v>lower_reg_violation double precision,</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>301</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" si="10"/>
+        <v>Lower60SecViolation</v>
+      </c>
+      <c r="G88" t="s">
+        <v>402</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="11"/>
+        <v>lower_60_sec_violation double precision,</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>302</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" si="10"/>
+        <v>Lower6SecViolation</v>
+      </c>
+      <c r="G89" t="s">
+        <v>403</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="11"/>
+        <v>lower_6_sec_violation double precision,</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>303</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="9"/>
+        <v>DateTime</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" si="10"/>
+        <v>LastChanged</v>
+      </c>
+      <c r="G90" t="s">
+        <v>404</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="6"/>
+        <v>date</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="11"/>
+        <v>last_changed date,</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>304</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="10"/>
+        <v>TotalIntermittentGeneration</v>
+      </c>
+      <c r="G91" t="s">
+        <v>405</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="11"/>
+        <v>total_intermittent_generation double precision,</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>305</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" si="10"/>
+        <v>DemandAndNonSchedgen</v>
+      </c>
+      <c r="G92" t="s">
+        <v>406</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" si="11"/>
+        <v>demand_and_non_schedgen double precision,</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>306</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" si="10"/>
+        <v>Uigf</v>
+      </c>
+      <c r="G93" t="s">
+        <v>407</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" si="11"/>
+        <v>uigf double precision,</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>307</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="10"/>
+        <v>SemiScheduleClearedMw</v>
+      </c>
+      <c r="G94" t="s">
+        <v>408</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J94" t="str">
+        <f t="shared" si="11"/>
+        <v>semi_schedule_cleared_mw double precision,</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>308</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="7"/>
+        <v>31</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="10"/>
+        <v>SemiScheduleComplianceMw</v>
+      </c>
+      <c r="G95" t="s">
+        <v>409</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" si="11"/>
+        <v>semi_schedule_compliance_mw double precision,</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>309</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="10"/>
+        <v>SsSolarUigf</v>
+      </c>
+      <c r="G96" t="s">
+        <v>410</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" si="11"/>
+        <v>ss_solar_uigf double precision,</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>310</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="10"/>
+        <v>SsWindUigf</v>
+      </c>
+      <c r="G97" t="s">
+        <v>411</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J97" t="str">
+        <f t="shared" si="11"/>
+        <v>ss_wind_uigf double precision,</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>311</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="10"/>
+        <v>SsSolarClearedMw</v>
+      </c>
+      <c r="G98" t="s">
+        <v>412</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J98" t="str">
+        <f t="shared" si="11"/>
+        <v>ss_solar_cleared_mw double precision,</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>312</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="10"/>
+        <v>SsWindClearedMw</v>
+      </c>
+      <c r="G99" t="s">
+        <v>413</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" si="11"/>
+        <v>ss_wind_cleared_mw double precision,</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>313</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="10"/>
+        <v>SsSolarComplianceMw</v>
+      </c>
+      <c r="G100" t="s">
+        <v>414</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J100" t="str">
+        <f t="shared" si="11"/>
+        <v>ss_solar_compliance_mw double precision,</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>314</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="10"/>
+        <v>SsWindComplianceMw</v>
+      </c>
+      <c r="G101" t="s">
+        <v>415</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J101" t="str">
+        <f t="shared" si="11"/>
+        <v>ss_wind_compliance_mw double precision,</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>315</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="10"/>
+        <v>WdrInitialMw</v>
+      </c>
+      <c r="G102" t="s">
+        <v>416</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J102" t="str">
+        <f t="shared" si="11"/>
+        <v>wdr_initial_mw double precision,</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>316</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="10"/>
+        <v>WdrAvailable</v>
+      </c>
+      <c r="G103" t="s">
+        <v>417</v>
+      </c>
+      <c r="H103" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J103" t="str">
+        <f t="shared" si="11"/>
+        <v>wdr_available double precision,</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>317</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="9"/>
+        <v>double</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="10"/>
+        <v>WdrDispatched</v>
+      </c>
+      <c r="G104" t="s">
+        <v>418</v>
+      </c>
+      <c r="H104" t="str">
+        <f t="shared" si="6"/>
+        <v>double precision</v>
+      </c>
+      <c r="J104" t="str">
+        <f t="shared" si="11"/>
+        <v>wdr_dispatched double precision,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Useful/VariableConverted.xlsx
+++ b/Useful/VariableConverted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owenholloway/Code/C#/NemTracker/Useful/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB8C0E8-D465-2740-A00F-5230594556AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46753653-07AC-A04F-8FEE-15353D9BA1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{DA1AE469-F5E3-5145-9063-675D6E6FF3EB}"/>
   </bookViews>
@@ -1213,166 +1213,166 @@
     <t>net_interchange</t>
   </si>
   <si>
-    <t>raise6_sec_rrp</t>
-  </si>
-  <si>
-    <t>raise6_sec_rop</t>
-  </si>
-  <si>
-    <t>raise60_sec_rrp</t>
-  </si>
-  <si>
-    <t>raise60_sec_rop</t>
-  </si>
-  <si>
-    <t>raise5_min_rrp</t>
-  </si>
-  <si>
-    <t>raise5_min_rop</t>
-  </si>
-  <si>
-    <t>lower6_sec_rrp</t>
-  </si>
-  <si>
-    <t>lower6_sec_rop</t>
-  </si>
-  <si>
-    <t>lower60_sec_rrp</t>
-  </si>
-  <si>
-    <t>lower60_sec_rop</t>
-  </si>
-  <si>
-    <t>lower5_min_rrp</t>
-  </si>
-  <si>
-    <t>lower5_min_rop</t>
-  </si>
-  <si>
-    <t>lower5_min_dispatch</t>
-  </si>
-  <si>
-    <t>lower5_min_import</t>
-  </si>
-  <si>
-    <t>lower5_min_local_dispatch</t>
-  </si>
-  <si>
-    <t>lower5_min_local_req</t>
-  </si>
-  <si>
-    <t>lower5_min_req</t>
-  </si>
-  <si>
-    <t>lower60_sec_dispatch</t>
-  </si>
-  <si>
-    <t>lower60_sec_import</t>
-  </si>
-  <si>
-    <t>lower60_sec_local_dispatch</t>
-  </si>
-  <si>
-    <t>lower60_sec_local_req</t>
-  </si>
-  <si>
-    <t>lower60_sec_req</t>
-  </si>
-  <si>
-    <t>lower6_sec_dispatch</t>
-  </si>
-  <si>
-    <t>lower6_sec_import</t>
-  </si>
-  <si>
-    <t>lower6_sec_local_dispatch</t>
-  </si>
-  <si>
-    <t>lower6_sec_local_req</t>
-  </si>
-  <si>
-    <t>lower6_sec_req</t>
-  </si>
-  <si>
-    <t>raise5_min_dispatch</t>
-  </si>
-  <si>
-    <t>raise5_min_import</t>
-  </si>
-  <si>
-    <t>raise5_min_local_dispatch</t>
-  </si>
-  <si>
-    <t>raise5_min_local_req</t>
-  </si>
-  <si>
-    <t>raise5_min_req</t>
-  </si>
-  <si>
-    <t>raise60_sec_dispatch</t>
-  </si>
-  <si>
-    <t>raise60_sec_import</t>
-  </si>
-  <si>
-    <t>raise60_sec_local_dispatch</t>
-  </si>
-  <si>
-    <t>raise60_sec_local_req</t>
-  </si>
-  <si>
-    <t>raise60_sec_req</t>
-  </si>
-  <si>
-    <t>raise6_sec_dispatch</t>
-  </si>
-  <si>
-    <t>raise6_sec_import</t>
-  </si>
-  <si>
-    <t>raise6_sec_local_dispatch</t>
-  </si>
-  <si>
-    <t>raise6_sec_local_req</t>
-  </si>
-  <si>
-    <t>raise6_sec_req</t>
-  </si>
-  <si>
-    <t>raise5_min_local_violation</t>
-  </si>
-  <si>
-    <t>raise60_sec_local_violation</t>
-  </si>
-  <si>
-    <t>raise6_sec_local_violation</t>
-  </si>
-  <si>
-    <t>lower5_min_local_violation</t>
-  </si>
-  <si>
-    <t>lower60_sec_local_violation</t>
-  </si>
-  <si>
-    <t>lower6_sec_local_violation</t>
-  </si>
-  <si>
-    <t>raise5_min_violation</t>
-  </si>
-  <si>
-    <t>raise60_sec_violation</t>
-  </si>
-  <si>
-    <t>raise6_sec_violation</t>
-  </si>
-  <si>
-    <t>lower5_min_violation</t>
-  </si>
-  <si>
-    <t>lower60_sec_violation</t>
-  </si>
-  <si>
-    <t>lower6_sec_violation</t>
+    <t>raise6sec_rrp</t>
+  </si>
+  <si>
+    <t>raise6sec_rop</t>
+  </si>
+  <si>
+    <t>raise60sec_rrp</t>
+  </si>
+  <si>
+    <t>raise60sec_rop</t>
+  </si>
+  <si>
+    <t>raise5min_rrp</t>
+  </si>
+  <si>
+    <t>raise5min_rop</t>
+  </si>
+  <si>
+    <t>lower6sec_rrp</t>
+  </si>
+  <si>
+    <t>lower6sec_rop</t>
+  </si>
+  <si>
+    <t>lower60sec_rrp</t>
+  </si>
+  <si>
+    <t>lower60sec_rop</t>
+  </si>
+  <si>
+    <t>lower5min_rrp</t>
+  </si>
+  <si>
+    <t>lower5min_rop</t>
+  </si>
+  <si>
+    <t>lower5min_dispatch</t>
+  </si>
+  <si>
+    <t>lower5min_import</t>
+  </si>
+  <si>
+    <t>lower5min_local_dispatch</t>
+  </si>
+  <si>
+    <t>lower5min_local_req</t>
+  </si>
+  <si>
+    <t>lower5min_req</t>
+  </si>
+  <si>
+    <t>lower60sec_dispatch</t>
+  </si>
+  <si>
+    <t>lower60sec_import</t>
+  </si>
+  <si>
+    <t>lower60sec_local_dispatch</t>
+  </si>
+  <si>
+    <t>lower60sec_local_req</t>
+  </si>
+  <si>
+    <t>lower60sec_req</t>
+  </si>
+  <si>
+    <t>lower6sec_dispatch</t>
+  </si>
+  <si>
+    <t>lower6sec_import</t>
+  </si>
+  <si>
+    <t>lower6sec_local_dispatch</t>
+  </si>
+  <si>
+    <t>lower6sec_local_req</t>
+  </si>
+  <si>
+    <t>lower6sec_req</t>
+  </si>
+  <si>
+    <t>raise5min_dispatch</t>
+  </si>
+  <si>
+    <t>raise5min_import</t>
+  </si>
+  <si>
+    <t>raise5min_local_dispatch</t>
+  </si>
+  <si>
+    <t>raise5min_local_req</t>
+  </si>
+  <si>
+    <t>raise5min_req</t>
+  </si>
+  <si>
+    <t>raise60sec_dispatch</t>
+  </si>
+  <si>
+    <t>raise60sec_import</t>
+  </si>
+  <si>
+    <t>raise60sec_local_dispatch</t>
+  </si>
+  <si>
+    <t>raise60sec_local_req</t>
+  </si>
+  <si>
+    <t>raise60sec_req</t>
+  </si>
+  <si>
+    <t>raise6sec_dispatch</t>
+  </si>
+  <si>
+    <t>raise6sec_import</t>
+  </si>
+  <si>
+    <t>raise6sec_local_dispatch</t>
+  </si>
+  <si>
+    <t>raise6sec_local_req</t>
+  </si>
+  <si>
+    <t>raise6sec_req</t>
+  </si>
+  <si>
+    <t>raise5min_local_violation</t>
+  </si>
+  <si>
+    <t>raise60sec_local_violation</t>
+  </si>
+  <si>
+    <t>raise6sec_local_violation</t>
+  </si>
+  <si>
+    <t>lower5min_local_violation</t>
+  </si>
+  <si>
+    <t>lower60sec_local_violation</t>
+  </si>
+  <si>
+    <t>lower6sec_local_violation</t>
+  </si>
+  <si>
+    <t>raise5min_violation</t>
+  </si>
+  <si>
+    <t>raise60sec_violation</t>
+  </si>
+  <si>
+    <t>raise6sec_violation</t>
+  </si>
+  <si>
+    <t>lower5min_violation</t>
+  </si>
+  <si>
+    <t>lower60sec_violation</t>
+  </si>
+  <si>
+    <t>lower6sec_violation</t>
   </si>
 </sst>
 </file>
@@ -6396,7 +6396,7 @@
   <dimension ref="A1:T104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6699,7 +6699,7 @@
       </c>
       <c r="J8" t="str">
         <f t="shared" si="5"/>
-        <v>raise6_sec_rrp double precision,</v>
+        <v>raise6sec_rrp double precision,</v>
       </c>
       <c r="S8" t="s">
         <v>382</v>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="5"/>
-        <v>raise6_sec_rop double precision,</v>
+        <v>raise6sec_rop double precision,</v>
       </c>
       <c r="S9" t="s">
         <v>384</v>
@@ -6775,7 +6775,7 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="5"/>
-        <v>raise60_sec_rrp double precision,</v>
+        <v>raise60sec_rrp double precision,</v>
       </c>
       <c r="S10" t="s">
         <v>368</v>
@@ -6813,7 +6813,7 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="5"/>
-        <v>raise60_sec_rop double precision,</v>
+        <v>raise60sec_rop double precision,</v>
       </c>
       <c r="S11" t="s">
         <v>373</v>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" si="5"/>
-        <v>raise5_min_rrp double precision,</v>
+        <v>raise5min_rrp double precision,</v>
       </c>
       <c r="S12" t="s">
         <v>386</v>
@@ -6889,7 +6889,7 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" si="5"/>
-        <v>raise5_min_rop double precision,</v>
+        <v>raise5min_rop double precision,</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" si="5"/>
-        <v>lower6_sec_rrp double precision,</v>
+        <v>lower6sec_rrp double precision,</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="J17" t="str">
         <f t="shared" si="5"/>
-        <v>lower6_sec_rop double precision,</v>
+        <v>lower6sec_rop double precision,</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="J18" t="str">
         <f t="shared" si="5"/>
-        <v>lower60_sec_rrp double precision,</v>
+        <v>lower60sec_rrp double precision,</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="J19" t="str">
         <f t="shared" si="5"/>
-        <v>lower60_sec_rop double precision,</v>
+        <v>lower60sec_rop double precision,</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -7113,7 +7113,7 @@
       </c>
       <c r="J20" t="str">
         <f t="shared" si="5"/>
-        <v>lower5_min_rrp double precision,</v>
+        <v>lower5min_rrp double precision,</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -7145,7 +7145,7 @@
       </c>
       <c r="J21" t="str">
         <f t="shared" si="5"/>
-        <v>lower5_min_rop double precision,</v>
+        <v>lower5min_rop double precision,</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="J31" t="str">
         <f t="shared" si="5"/>
-        <v>lower5_min_dispatch double precision,</v>
+        <v>lower5min_dispatch double precision,</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="J32" t="str">
         <f t="shared" si="5"/>
-        <v>lower5_min_import double precision,</v>
+        <v>lower5min_import double precision,</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="J33" t="str">
         <f t="shared" si="5"/>
-        <v>lower5_min_local_dispatch double precision,</v>
+        <v>lower5min_local_dispatch double precision,</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="J34" t="str">
         <f t="shared" si="5"/>
-        <v>lower5_min_local_req double precision,</v>
+        <v>lower5min_local_req double precision,</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -7593,7 +7593,7 @@
       </c>
       <c r="J35" t="str">
         <f t="shared" si="5"/>
-        <v>lower5_min_req double precision,</v>
+        <v>lower5min_req double precision,</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -7625,7 +7625,7 @@
       </c>
       <c r="J36" t="str">
         <f t="shared" si="5"/>
-        <v>lower60_sec_dispatch double precision,</v>
+        <v>lower60sec_dispatch double precision,</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="J37" t="str">
         <f t="shared" si="5"/>
-        <v>lower60_sec_import double precision,</v>
+        <v>lower60sec_import double precision,</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -7689,7 +7689,7 @@
       </c>
       <c r="J38" t="str">
         <f t="shared" si="5"/>
-        <v>lower60_sec_local_dispatch double precision,</v>
+        <v>lower60sec_local_dispatch double precision,</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -7721,7 +7721,7 @@
       </c>
       <c r="J39" t="str">
         <f t="shared" si="5"/>
-        <v>lower60_sec_local_req double precision,</v>
+        <v>lower60sec_local_req double precision,</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="J40" t="str">
         <f t="shared" si="5"/>
-        <v>lower60_sec_req double precision,</v>
+        <v>lower60sec_req double precision,</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="J41" t="str">
         <f t="shared" si="5"/>
-        <v>lower6_sec_dispatch double precision,</v>
+        <v>lower6sec_dispatch double precision,</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -7817,7 +7817,7 @@
       </c>
       <c r="J42" t="str">
         <f t="shared" si="5"/>
-        <v>lower6_sec_import double precision,</v>
+        <v>lower6sec_import double precision,</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="J43" t="str">
         <f t="shared" si="5"/>
-        <v>lower6_sec_local_dispatch double precision,</v>
+        <v>lower6sec_local_dispatch double precision,</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="J44" t="str">
         <f t="shared" si="5"/>
-        <v>lower6_sec_local_req double precision,</v>
+        <v>lower6sec_local_req double precision,</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -7913,7 +7913,7 @@
       </c>
       <c r="J45" t="str">
         <f t="shared" si="5"/>
-        <v>lower6_sec_req double precision,</v>
+        <v>lower6sec_req double precision,</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="J46" t="str">
         <f t="shared" si="5"/>
-        <v>raise5_min_dispatch double precision,</v>
+        <v>raise5min_dispatch double precision,</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
@@ -7977,7 +7977,7 @@
       </c>
       <c r="J47" t="str">
         <f t="shared" si="5"/>
-        <v>raise5_min_import double precision,</v>
+        <v>raise5min_import double precision,</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
@@ -8009,7 +8009,7 @@
       </c>
       <c r="J48" t="str">
         <f t="shared" si="5"/>
-        <v>raise5_min_local_dispatch double precision,</v>
+        <v>raise5min_local_dispatch double precision,</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="J49" t="str">
         <f t="shared" si="5"/>
-        <v>raise5_min_local_req double precision,</v>
+        <v>raise5min_local_req double precision,</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -8073,7 +8073,7 @@
       </c>
       <c r="J50" t="str">
         <f t="shared" si="5"/>
-        <v>raise5_min_req double precision,</v>
+        <v>raise5min_req double precision,</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="J51" t="str">
         <f t="shared" si="5"/>
-        <v>raise60_sec_dispatch double precision,</v>
+        <v>raise60sec_dispatch double precision,</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="J52" t="str">
         <f t="shared" si="5"/>
-        <v>raise60_sec_import double precision,</v>
+        <v>raise60sec_import double precision,</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -8169,7 +8169,7 @@
       </c>
       <c r="J53" t="str">
         <f t="shared" si="5"/>
-        <v>raise60_sec_local_dispatch double precision,</v>
+        <v>raise60sec_local_dispatch double precision,</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -8201,7 +8201,7 @@
       </c>
       <c r="J54" t="str">
         <f t="shared" si="5"/>
-        <v>raise60_sec_local_req double precision,</v>
+        <v>raise60sec_local_req double precision,</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="J55" t="str">
         <f t="shared" si="5"/>
-        <v>raise60_sec_req double precision,</v>
+        <v>raise60sec_req double precision,</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -8265,7 +8265,7 @@
       </c>
       <c r="J56" t="str">
         <f t="shared" si="5"/>
-        <v>raise6_sec_dispatch double precision,</v>
+        <v>raise6sec_dispatch double precision,</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -8297,7 +8297,7 @@
       </c>
       <c r="J57" t="str">
         <f t="shared" si="5"/>
-        <v>raise6_sec_import double precision,</v>
+        <v>raise6sec_import double precision,</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="J58" t="str">
         <f t="shared" si="5"/>
-        <v>raise6_sec_local_dispatch double precision,</v>
+        <v>raise6sec_local_dispatch double precision,</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -8361,7 +8361,7 @@
       </c>
       <c r="J59" t="str">
         <f t="shared" si="5"/>
-        <v>raise6_sec_local_req double precision,</v>
+        <v>raise6sec_local_req double precision,</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -8393,7 +8393,7 @@
       </c>
       <c r="J60" t="str">
         <f t="shared" si="5"/>
-        <v>raise6_sec_req double precision,</v>
+        <v>raise6sec_req double precision,</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -8841,7 +8841,7 @@
       </c>
       <c r="J74" t="str">
         <f t="shared" si="11"/>
-        <v>raise5_min_local_violation double precision,</v>
+        <v>raise5min_local_violation double precision,</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="J76" t="str">
         <f t="shared" si="11"/>
-        <v>raise60_sec_local_violation double precision,</v>
+        <v>raise60sec_local_violation double precision,</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -8937,7 +8937,7 @@
       </c>
       <c r="J77" t="str">
         <f t="shared" si="11"/>
-        <v>raise6_sec_local_violation double precision,</v>
+        <v>raise6sec_local_violation double precision,</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -8969,7 +8969,7 @@
       </c>
       <c r="J78" t="str">
         <f t="shared" si="11"/>
-        <v>lower5_min_local_violation double precision,</v>
+        <v>lower5min_local_violation double precision,</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -9033,7 +9033,7 @@
       </c>
       <c r="J80" t="str">
         <f t="shared" si="11"/>
-        <v>lower60_sec_local_violation double precision,</v>
+        <v>lower60sec_local_violation double precision,</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -9065,7 +9065,7 @@
       </c>
       <c r="J81" t="str">
         <f t="shared" si="11"/>
-        <v>lower6_sec_local_violation double precision,</v>
+        <v>lower6sec_local_violation double precision,</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="J82" t="str">
         <f t="shared" si="11"/>
-        <v>raise5_min_violation double precision,</v>
+        <v>raise5min_violation double precision,</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -9161,7 +9161,7 @@
       </c>
       <c r="J84" t="str">
         <f t="shared" si="11"/>
-        <v>raise60_sec_violation double precision,</v>
+        <v>raise60sec_violation double precision,</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="J85" t="str">
         <f t="shared" si="11"/>
-        <v>raise6_sec_violation double precision,</v>
+        <v>raise6sec_violation double precision,</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -9225,7 +9225,7 @@
       </c>
       <c r="J86" t="str">
         <f t="shared" si="11"/>
-        <v>lower5_min_violation double precision,</v>
+        <v>lower5min_violation double precision,</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="J88" t="str">
         <f t="shared" si="11"/>
-        <v>lower60_sec_violation double precision,</v>
+        <v>lower60sec_violation double precision,</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -9321,7 +9321,7 @@
       </c>
       <c r="J89" t="str">
         <f t="shared" si="11"/>
-        <v>lower6_sec_violation double precision,</v>
+        <v>lower6sec_violation double precision,</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">

--- a/Useful/VariableConverted.xlsx
+++ b/Useful/VariableConverted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owenholloway/Code/C#/NemTracker/Useful/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46753653-07AC-A04F-8FEE-15353D9BA1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B924C8DC-DCA5-9842-BAB4-BA4BF56E0A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="2" xr2:uid="{DA1AE469-F5E3-5145-9063-675D6E6FF3EB}"/>
+    <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{DA1AE469-F5E3-5145-9063-675D6E6FF3EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Working" sheetId="1" r:id="rId1"/>
@@ -38,86 +38,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="465">
   <si>
     <t>I</t>
   </si>
   <si>
-    <t>P5MIN</t>
-  </si>
-  <si>
-    <t>REGIONSOLUTION</t>
-  </si>
-  <si>
-    <t>RUN_DATETIME</t>
-  </si>
-  <si>
     <t>INTERVENTION</t>
   </si>
   <si>
-    <t>INTERVAL_DATETIME</t>
-  </si>
-  <si>
     <t>REGIONID</t>
   </si>
   <si>
-    <t>RRP</t>
-  </si>
-  <si>
-    <t>ROP</t>
-  </si>
-  <si>
     <t>EXCESSGENERATION</t>
   </si>
   <si>
-    <t>RAISE6SECRRP</t>
-  </si>
-  <si>
-    <t>RAISE6SECROP</t>
-  </si>
-  <si>
-    <t>RAISE60SECRRP</t>
-  </si>
-  <si>
-    <t>RAISE60SECROP</t>
-  </si>
-  <si>
-    <t>RAISE5MINRRP</t>
-  </si>
-  <si>
-    <t>RAISE5MINROP</t>
-  </si>
-  <si>
-    <t>RAISEREGRRP</t>
-  </si>
-  <si>
-    <t>RAISEREGROP</t>
-  </si>
-  <si>
-    <t>LOWER6SECRRP</t>
-  </si>
-  <si>
-    <t>LOWER6SECROP</t>
-  </si>
-  <si>
-    <t>LOWER60SECRRP</t>
-  </si>
-  <si>
-    <t>LOWER60SECROP</t>
-  </si>
-  <si>
-    <t>LOWER5MINRRP</t>
-  </si>
-  <si>
-    <t>LOWER5MINROP</t>
-  </si>
-  <si>
-    <t>LOWERREGRRP</t>
-  </si>
-  <si>
-    <t>LOWERREGROP</t>
-  </si>
-  <si>
     <t>TOTALDEMAND</t>
   </si>
   <si>
@@ -241,9 +175,6 @@
     <t>LOWERREGIMPORT</t>
   </si>
   <si>
-    <t>LOWERREGDISPATCH</t>
-  </si>
-  <si>
     <t>LOWERREGLOCALDISPATCH</t>
   </si>
   <si>
@@ -256,9 +187,6 @@
     <t>RAISEREGIMPORT</t>
   </si>
   <si>
-    <t>RAISEREGDISPATCH</t>
-  </si>
-  <si>
     <t>RAISEREGLOCALDISPATCH</t>
   </si>
   <si>
@@ -361,84 +289,21 @@
     <t>WDR_DISPATCHED</t>
   </si>
   <si>
-    <t>Rrp</t>
-  </si>
-  <si>
-    <t>Rop</t>
-  </si>
-  <si>
     <t>ExcessGeneration</t>
   </si>
   <si>
-    <t>Raise6SecRrp</t>
-  </si>
-  <si>
-    <t>Raise6SecRop</t>
-  </si>
-  <si>
-    <t>Raise60SecRrp</t>
-  </si>
-  <si>
-    <t>Raise60SecRop</t>
-  </si>
-  <si>
-    <t>Raise5MinRrp</t>
-  </si>
-  <si>
-    <t>Raise5MinRop</t>
-  </si>
-  <si>
-    <t>RaiseRegRrp</t>
-  </si>
-  <si>
-    <t>RaiseRegRop</t>
-  </si>
-  <si>
-    <t>Lower6SecRrp</t>
-  </si>
-  <si>
-    <t>Lower6SecRop</t>
-  </si>
-  <si>
-    <t>Lower60SecRrp</t>
-  </si>
-  <si>
-    <t>Lower60SecRop</t>
-  </si>
-  <si>
-    <t>Lower5MinRrp</t>
-  </si>
-  <si>
-    <t>Lower5MinRop</t>
-  </si>
-  <si>
-    <t>LowerRegRrp</t>
-  </si>
-  <si>
-    <t>LowerRegRop</t>
-  </si>
-  <si>
-    <t>Totaldemand</t>
-  </si>
-  <si>
     <t>AvailableGeneration</t>
   </si>
   <si>
     <t>AvailableLoad</t>
   </si>
   <si>
-    <t>DemandForecast</t>
-  </si>
-  <si>
     <t>DispatchableGeneration</t>
   </si>
   <si>
     <t>DispatchableLoad</t>
   </si>
   <si>
-    <t>NetinterChange</t>
-  </si>
-  <si>
     <t>Lower5MinDispatch</t>
   </si>
   <si>
@@ -529,9 +394,6 @@
     <t>Raise6SecReq</t>
   </si>
   <si>
-    <t>AggregateDispatchError</t>
-  </si>
-  <si>
     <t>InitialSupply</t>
   </si>
   <si>
@@ -541,9 +403,6 @@
     <t>LowerRegImport</t>
   </si>
   <si>
-    <t>LowerRegDispatch</t>
-  </si>
-  <si>
     <t>LowerRegLocalDispatch</t>
   </si>
   <si>
@@ -556,9 +415,6 @@
     <t>RaiseRegImport</t>
   </si>
   <si>
-    <t>RaiseRegDispatch</t>
-  </si>
-  <si>
     <t>RaiseRegLocalDispatch</t>
   </si>
   <si>
@@ -619,21 +475,9 @@
     <t>LastChanged</t>
   </si>
   <si>
-    <t>TotalIntermittentGeneration</t>
-  </si>
-  <si>
-    <t>DemandAndNonSchedgen</t>
-  </si>
-  <si>
     <t>Uigf</t>
   </si>
   <si>
-    <t>SemiScheduleClearedMw</t>
-  </si>
-  <si>
-    <t>SemiScheduleComplianceMw</t>
-  </si>
-  <si>
     <t>SsSolarUigf</t>
   </si>
   <si>
@@ -673,21 +517,12 @@
     <t>CSVDoubleValue(line[</t>
   </si>
   <si>
-    <t>Region</t>
-  </si>
-  <si>
     <t>GetRegion(line[</t>
   </si>
   <si>
     <t>GetDateTime(line[</t>
   </si>
   <si>
-    <t>Interval</t>
-  </si>
-  <si>
-    <t>RunTime</t>
-  </si>
-  <si>
     <t>Variable</t>
   </si>
   <si>
@@ -1373,6 +1208,231 @@
   </si>
   <si>
     <t>lower6sec_violation</t>
+  </si>
+  <si>
+    <t>DISPATCH</t>
+  </si>
+  <si>
+    <t>REGIONSUM</t>
+  </si>
+  <si>
+    <t>SETTLEMENTDATE</t>
+  </si>
+  <si>
+    <t>RUNNO</t>
+  </si>
+  <si>
+    <t>DISPATCHINTERVAL</t>
+  </si>
+  <si>
+    <t>LOWER5MINLOCALPRICE</t>
+  </si>
+  <si>
+    <t>LOWER5MINPRICE</t>
+  </si>
+  <si>
+    <t>LOWER5MINSUPPLYPRICE</t>
+  </si>
+  <si>
+    <t>LOWER60SECLOCALPRICE</t>
+  </si>
+  <si>
+    <t>LOWER60SECPRICE</t>
+  </si>
+  <si>
+    <t>LOWER60SECSUPPLYPRICE</t>
+  </si>
+  <si>
+    <t>LOWER6SECLOCALPRICE</t>
+  </si>
+  <si>
+    <t>LOWER6SECPRICE</t>
+  </si>
+  <si>
+    <t>LOWER6SECSUPPLYPRICE</t>
+  </si>
+  <si>
+    <t>RAISE5MINLOCALPRICE</t>
+  </si>
+  <si>
+    <t>RAISE5MINPRICE</t>
+  </si>
+  <si>
+    <t>RAISE5MINSUPPLYPRICE</t>
+  </si>
+  <si>
+    <t>RAISE60SECLOCALPRICE</t>
+  </si>
+  <si>
+    <t>RAISE60SECPRICE</t>
+  </si>
+  <si>
+    <t>RAISE60SECSUPPLYPRICE</t>
+  </si>
+  <si>
+    <t>RAISE6SECLOCALPRICE</t>
+  </si>
+  <si>
+    <t>RAISE6SECPRICE</t>
+  </si>
+  <si>
+    <t>RAISE6SECSUPPLYPRICE</t>
+  </si>
+  <si>
+    <t>AGGEGATEDISPATCHERROR</t>
+  </si>
+  <si>
+    <t>RAISE6SECACTUALAVAILABILITY</t>
+  </si>
+  <si>
+    <t>RAISE60SECACTUALAVAILABILITY</t>
+  </si>
+  <si>
+    <t>RAISE5MINACTUALAVAILABILITY</t>
+  </si>
+  <si>
+    <t>RAISEREGACTUALAVAILABILITY</t>
+  </si>
+  <si>
+    <t>LOWER6SECACTUALAVAILABILITY</t>
+  </si>
+  <si>
+    <t>LOWER60SECACTUALAVAILABILITY</t>
+  </si>
+  <si>
+    <t>LOWER5MINACTUALAVAILABILITY</t>
+  </si>
+  <si>
+    <t>LOWERREGACTUALAVAILABILITY</t>
+  </si>
+  <si>
+    <t>LORSURPLUS</t>
+  </si>
+  <si>
+    <t>LRCSURPLUS</t>
+  </si>
+  <si>
+    <t>SettlementDate</t>
+  </si>
+  <si>
+    <t>RunNo</t>
+  </si>
+  <si>
+    <t>Regionid</t>
+  </si>
+  <si>
+    <t>DispatchInterval</t>
+  </si>
+  <si>
+    <t>Intervention</t>
+  </si>
+  <si>
+    <t>TotalDemand</t>
+  </si>
+  <si>
+    <t>Demandforecast</t>
+  </si>
+  <si>
+    <t>NetInterchange</t>
+  </si>
+  <si>
+    <t>Lower5MinLocalPrice</t>
+  </si>
+  <si>
+    <t>Lower5MinPrice</t>
+  </si>
+  <si>
+    <t>Lower5MinSupplyPrice</t>
+  </si>
+  <si>
+    <t>Lower60SecLocalPrice</t>
+  </si>
+  <si>
+    <t>Lower60SecPrice</t>
+  </si>
+  <si>
+    <t>Lower60SecSupplyPrice</t>
+  </si>
+  <si>
+    <t>Lower6SecLocalPrice</t>
+  </si>
+  <si>
+    <t>Lower6SecPrice</t>
+  </si>
+  <si>
+    <t>Lower6SecSupplyPrice</t>
+  </si>
+  <si>
+    <t>Raise5MinLocalPrice</t>
+  </si>
+  <si>
+    <t>Raise5MinPrice</t>
+  </si>
+  <si>
+    <t>Raise5MinSupplyPrice</t>
+  </si>
+  <si>
+    <t>Raise60SecLocalPrice</t>
+  </si>
+  <si>
+    <t>Raise60SecPrice</t>
+  </si>
+  <si>
+    <t>Raise60SecSupplyPrice</t>
+  </si>
+  <si>
+    <t>Raise6SecLocalPrice</t>
+  </si>
+  <si>
+    <t>Raise6SecPrice</t>
+  </si>
+  <si>
+    <t>Raise6SecSupplyPrice</t>
+  </si>
+  <si>
+    <t>AggRegateDispatcherror</t>
+  </si>
+  <si>
+    <t>Raise6SecActualAvailability</t>
+  </si>
+  <si>
+    <t>Raise60SecActualAvailability</t>
+  </si>
+  <si>
+    <t>Raise5MinActualAvailability</t>
+  </si>
+  <si>
+    <t>RaiseRegActualAvailability</t>
+  </si>
+  <si>
+    <t>Lower6SecActualAvailability</t>
+  </si>
+  <si>
+    <t>Lower60SecActualAvailability</t>
+  </si>
+  <si>
+    <t>Lower5MinActualAvailability</t>
+  </si>
+  <si>
+    <t>LowerRegActualAvailability</t>
+  </si>
+  <si>
+    <t>lorsurplus</t>
+  </si>
+  <si>
+    <t>lrcsurplus</t>
+  </si>
+  <si>
+    <t>TotalintermittentGeneration</t>
+  </si>
+  <si>
+    <t>DemandandNonschedgen</t>
+  </si>
+  <si>
+    <t>SemischeduleClearedMw</t>
+  </si>
+  <si>
+    <t>SemischeduleComplianceMw</t>
   </si>
 </sst>
 </file>
@@ -1741,341 +1801,491 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56351AD-08A4-A64A-B758-1BD6ADD4E9ED}">
-  <dimension ref="A1:DD2"/>
+  <dimension ref="A1:DN2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView topLeftCell="DD1" workbookViewId="0">
+      <selection activeCell="DO47" sqref="DO47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="20" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="21" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="23" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="26" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="28" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="29" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="26" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="21" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:108" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>394</v>
+      </c>
+      <c r="I1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1">
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="S1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
+        <v>395</v>
+      </c>
+      <c r="V1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
+        <v>396</v>
+      </c>
+      <c r="X1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Y1" t="s">
+        <v>397</v>
+      </c>
+      <c r="Z1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AA1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AB1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AC1" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AE1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AF1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AG1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AH1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AI1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AJ1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AK1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AL1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AM1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AN1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AO1" t="s">
+        <v>403</v>
+      </c>
+      <c r="AP1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AQ1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AR1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AS1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AT1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AU1" t="s">
+        <v>405</v>
+      </c>
+      <c r="AV1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AW1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AX1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AY1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AZ1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="BA1" t="s">
+        <v>407</v>
+      </c>
+      <c r="BB1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="BC1" t="s">
+        <v>408</v>
+      </c>
+      <c r="BD1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="BE1" t="s">
+        <v>409</v>
+      </c>
+      <c r="BF1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="BG1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="BH1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="BI1" t="s">
+        <v>410</v>
+      </c>
+      <c r="BJ1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="BK1" t="s">
+        <v>411</v>
+      </c>
+      <c r="BL1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="BM1" t="s">
+        <v>412</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>413</v>
+      </c>
+      <c r="BO1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="BP1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="BR1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BS1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BT1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BU1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BV1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BW1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BX1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BY1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BZ1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="CA1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="CB1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="CC1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="CD1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="CE1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="CF1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="CG1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="CH1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="CI1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="CJ1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="CK1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="CL1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="CM1" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="CN1" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="CO1" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="CP1" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" t="s">
+      <c r="CQ1" t="s">
+        <v>414</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>415</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>416</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>417</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>418</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>419</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>420</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>421</v>
+      </c>
+      <c r="CY1" t="s">
+        <v>422</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>423</v>
+      </c>
+      <c r="DA1" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="DB1" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="DC1" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="DD1" t="s">
         <v>72</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="DE1" t="s">
         <v>73</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="DF1" t="s">
         <v>74</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="DG1" t="s">
         <v>75</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="DH1" t="s">
         <v>76</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="DI1" t="s">
         <v>77</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="DJ1" t="s">
         <v>78</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="DK1" t="s">
         <v>79</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="DL1" t="s">
         <v>80</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="DM1" t="s">
         <v>81</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="DN1" t="s">
         <v>82</v>
       </c>
-      <c r="CG1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:108" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2506,6 +2716,46 @@
       <c r="DD2">
         <f t="shared" si="1"/>
         <v>107</v>
+      </c>
+      <c r="DE2">
+        <f t="shared" ref="DE2" si="2">DD2+1</f>
+        <v>108</v>
+      </c>
+      <c r="DF2">
+        <f t="shared" ref="DF2" si="3">DE2+1</f>
+        <v>109</v>
+      </c>
+      <c r="DG2">
+        <f t="shared" ref="DG2" si="4">DF2+1</f>
+        <v>110</v>
+      </c>
+      <c r="DH2">
+        <f t="shared" ref="DH2" si="5">DG2+1</f>
+        <v>111</v>
+      </c>
+      <c r="DI2">
+        <f t="shared" ref="DI2" si="6">DH2+1</f>
+        <v>112</v>
+      </c>
+      <c r="DJ2">
+        <f t="shared" ref="DJ2" si="7">DI2+1</f>
+        <v>113</v>
+      </c>
+      <c r="DK2">
+        <f t="shared" ref="DK2" si="8">DJ2+1</f>
+        <v>114</v>
+      </c>
+      <c r="DL2">
+        <f t="shared" ref="DL2" si="9">DK2+1</f>
+        <v>115</v>
+      </c>
+      <c r="DM2">
+        <f t="shared" ref="DM2" si="10">DL2+1</f>
+        <v>116</v>
+      </c>
+      <c r="DN2">
+        <f t="shared" ref="DN2" si="11">DM2+1</f>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2515,14 +2765,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB0BA33-06CC-E248-BE80-0045F320AA22}">
-  <dimension ref="B2:N109"/>
+  <dimension ref="B2:N119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q99" sqref="Q99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
@@ -2545,14 +2796,14 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H9" si="0">E2</f>
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K9" si="1">C2</f>
@@ -2565,21 +2816,21 @@
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3">
+        <f>C2+1</f>
         <v>1</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C34" si="3">C2+1</f>
-        <v>1</v>
-      </c>
       <c r="G3" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="K3">
         <f t="shared" si="1"/>
@@ -2592,21 +2843,21 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4">
+        <f>C3+1</f>
         <v>2</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
       <c r="G4" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
@@ -2619,21 +2870,21 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <f t="shared" si="3"/>
+        <f>C4+1</f>
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
@@ -2646,3743 +2897,4106 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>392</v>
       </c>
       <c r="C6">
-        <f t="shared" si="3"/>
+        <f>C5+1</f>
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>424</v>
       </c>
       <c r="G6" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>RunTime</v>
+        <v>SettlementDate</v>
       </c>
       <c r="I6" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J6" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N6" t="str">
         <f t="shared" si="2"/>
-        <v>dto.RunTime = GetDateTime(line[4]);</v>
+        <v>dto.SettlementDate = GetDateTime(line[4]);</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>393</v>
       </c>
       <c r="C7">
-        <f t="shared" si="3"/>
+        <f>C6+1</f>
         <v>5</v>
       </c>
+      <c r="E7" t="s">
+        <v>425</v>
+      </c>
       <c r="G7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>156</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>RunNo</v>
       </c>
       <c r="I7" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J7" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L7" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N7" t="str">
         <f t="shared" si="2"/>
-        <v>dto.0 = GetDateTime(line[5]);</v>
+        <v>dto.RunNo = GetDateTime(line[5]);</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <f t="shared" si="3"/>
+        <f>C7+1</f>
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>214</v>
+        <v>426</v>
       </c>
       <c r="G8" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>Interval</v>
+        <v>Regionid</v>
       </c>
       <c r="I8" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J8" t="s">
-        <v>213</v>
+        <v>160</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N8" t="str">
         <f t="shared" si="2"/>
-        <v>dto.Interval = GetDateTime(line[6]);</v>
+        <v>dto.Regionid = GetDateTime(line[6]);</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>394</v>
       </c>
       <c r="C9">
-        <f t="shared" si="3"/>
+        <f>C8+1</f>
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>211</v>
+        <v>427</v>
       </c>
       <c r="G9" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>Region</v>
+        <v>DispatchInterval</v>
       </c>
       <c r="I9" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J9" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="L9" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N9" t="str">
         <f t="shared" si="2"/>
-        <v>dto.Region = GetRegion(line[7]);</v>
+        <v>dto.DispatchInterval = GetRegion(line[7]);</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <f t="shared" si="3"/>
+        <f>C9+1</f>
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>428</v>
       </c>
       <c r="G10" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H10" t="str">
         <f>E10</f>
-        <v>Rrp</v>
+        <v>Intervention</v>
       </c>
       <c r="I10" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J10" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K10">
         <f>C10</f>
         <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N10" t="str">
         <f>_xlfn.CONCAT(G10,H10,I10,J10,K10,L10)</f>
-        <v>dto.Rrp = CSVDoubleValue(line[8]);</v>
+        <v>dto.Intervention = CSVDoubleValue(line[8]);</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <f t="shared" si="3"/>
+        <f>C10+1</f>
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>429</v>
       </c>
       <c r="G11" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" ref="H11:H74" si="4">E11</f>
-        <v>Rop</v>
+        <f t="shared" ref="H11:H74" si="3">E11</f>
+        <v>TotalDemand</v>
       </c>
       <c r="I11" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J11" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K11">
-        <f t="shared" ref="K11:K74" si="5">C11</f>
+        <f t="shared" ref="K11:K74" si="4">C11</f>
         <v>9</v>
       </c>
       <c r="L11" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" ref="N11:N74" si="6">_xlfn.CONCAT(G11,H11,I11,J11,K11,L11)</f>
-        <v>dto.Rop = CSVDoubleValue(line[9]);</v>
+        <f t="shared" ref="N11:N74" si="5">_xlfn.CONCAT(G11,H11,I11,J11,K11,L11)</f>
+        <v>dto.TotalDemand = CSVDoubleValue(line[9]);</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <f t="shared" si="3"/>
+        <f>C11+1</f>
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="4"/>
-        <v>ExcessGeneration</v>
+        <f t="shared" si="3"/>
+        <v>AvailableGeneration</v>
       </c>
       <c r="I12" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J12" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.ExcessGeneration = CSVDoubleValue(line[10]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.AvailableGeneration = CSVDoubleValue(line[10]);</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <f t="shared" si="3"/>
+        <f>C12+1</f>
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="4"/>
-        <v>Raise6SecRrp</v>
+        <f t="shared" si="3"/>
+        <v>AvailableLoad</v>
       </c>
       <c r="I13" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J13" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="L13" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Raise6SecRrp = CSVDoubleValue(line[11]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.AvailableLoad = CSVDoubleValue(line[11]);</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <f t="shared" si="3"/>
+        <f>C13+1</f>
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>430</v>
       </c>
       <c r="G14" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="4"/>
-        <v>Raise6SecRop</v>
+        <f t="shared" si="3"/>
+        <v>Demandforecast</v>
       </c>
       <c r="I14" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J14" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="L14" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Raise6SecRop = CSVDoubleValue(line[12]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Demandforecast = CSVDoubleValue(line[12]);</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15">
-        <f t="shared" si="3"/>
+        <f>C14+1</f>
         <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="4"/>
-        <v>Raise60SecRrp</v>
+        <f t="shared" si="3"/>
+        <v>DispatchableGeneration</v>
       </c>
       <c r="I15" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="L15" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Raise60SecRrp = CSVDoubleValue(line[13]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.DispatchableGeneration = CSVDoubleValue(line[13]);</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <f t="shared" si="3"/>
+        <f>C15+1</f>
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="4"/>
-        <v>Raise60SecRop</v>
+        <f t="shared" si="3"/>
+        <v>DispatchableLoad</v>
       </c>
       <c r="I16" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="L16" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Raise60SecRop = CSVDoubleValue(line[14]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.DispatchableLoad = CSVDoubleValue(line[14]);</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <f t="shared" si="3"/>
+        <f>C16+1</f>
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>431</v>
       </c>
       <c r="G17" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="4"/>
-        <v>Raise5MinRrp</v>
+        <f t="shared" si="3"/>
+        <v>NetInterchange</v>
       </c>
       <c r="I17" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J17" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="L17" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Raise5MinRrp = CSVDoubleValue(line[15]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.NetInterchange = CSVDoubleValue(line[15]);</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <f t="shared" si="3"/>
+        <f>C17+1</f>
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="4"/>
-        <v>Raise5MinRop</v>
+        <f t="shared" si="3"/>
+        <v>ExcessGeneration</v>
       </c>
       <c r="I18" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J18" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="L18" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Raise5MinRop = CSVDoubleValue(line[16]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.ExcessGeneration = CSVDoubleValue(line[16]);</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <f t="shared" si="3"/>
+        <f>C18+1</f>
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="4"/>
-        <v>RaiseRegRrp</v>
+        <f t="shared" si="3"/>
+        <v>Lower5MinDispatch</v>
       </c>
       <c r="I19" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J19" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="L19" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.RaiseRegRrp = CSVDoubleValue(line[17]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Lower5MinDispatch = CSVDoubleValue(line[17]);</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <f t="shared" si="3"/>
+        <f>C19+1</f>
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="4"/>
-        <v>RaiseRegRop</v>
+        <f t="shared" si="3"/>
+        <v>Lower5MinImport</v>
       </c>
       <c r="I20" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J20" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="L20" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.RaiseRegRop = CSVDoubleValue(line[18]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Lower5MinImport = CSVDoubleValue(line[18]);</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <f t="shared" si="3"/>
+        <f>C20+1</f>
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="4"/>
-        <v>Lower6SecRrp</v>
+        <f t="shared" si="3"/>
+        <v>Lower5MinLocalDispatch</v>
       </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J21" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="L21" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Lower6SecRrp = CSVDoubleValue(line[19]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Lower5MinLocalDispatch = CSVDoubleValue(line[19]);</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>19</v>
+        <v>395</v>
       </c>
       <c r="C22">
-        <f t="shared" si="3"/>
+        <f>C21+1</f>
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>432</v>
       </c>
       <c r="G22" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="4"/>
-        <v>Lower6SecRop</v>
+        <f t="shared" si="3"/>
+        <v>Lower5MinLocalPrice</v>
       </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J22" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="L22" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Lower6SecRop = CSVDoubleValue(line[20]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Lower5MinLocalPrice = CSVDoubleValue(line[20]);</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C23">
-        <f t="shared" si="3"/>
+        <f>C22+1</f>
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="4"/>
-        <v>Lower60SecRrp</v>
+        <f t="shared" si="3"/>
+        <v>Lower5MinLocalReq</v>
       </c>
       <c r="I23" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J23" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="L23" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Lower60SecRrp = CSVDoubleValue(line[21]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Lower5MinLocalReq = CSVDoubleValue(line[21]);</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>21</v>
+        <v>396</v>
       </c>
       <c r="C24">
-        <f t="shared" si="3"/>
+        <f>C23+1</f>
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>121</v>
+        <v>433</v>
       </c>
       <c r="G24" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="4"/>
-        <v>Lower60SecRop</v>
+        <f t="shared" si="3"/>
+        <v>Lower5MinPrice</v>
       </c>
       <c r="I24" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J24" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="L24" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Lower60SecRop = CSVDoubleValue(line[22]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Lower5MinPrice = CSVDoubleValue(line[22]);</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C25">
-        <f t="shared" si="3"/>
+        <f>C24+1</f>
         <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="G25" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="4"/>
-        <v>Lower5MinRrp</v>
+        <f t="shared" si="3"/>
+        <v>Lower5MinReq</v>
       </c>
       <c r="I25" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J25" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="L25" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Lower5MinRrp = CSVDoubleValue(line[23]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Lower5MinReq = CSVDoubleValue(line[23]);</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>23</v>
+        <v>397</v>
       </c>
       <c r="C26">
-        <f t="shared" si="3"/>
+        <f>C25+1</f>
         <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>123</v>
+        <v>434</v>
       </c>
       <c r="G26" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="4"/>
-        <v>Lower5MinRop</v>
+        <f t="shared" si="3"/>
+        <v>Lower5MinSupplyPrice</v>
       </c>
       <c r="I26" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J26" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="L26" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Lower5MinRop = CSVDoubleValue(line[24]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Lower5MinSupplyPrice = CSVDoubleValue(line[24]);</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C27">
-        <f t="shared" si="3"/>
+        <f>C26+1</f>
         <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="4"/>
-        <v>LowerRegRrp</v>
+        <f t="shared" si="3"/>
+        <v>Lower60SecDispatch</v>
       </c>
       <c r="I27" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J27" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="L27" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.LowerRegRrp = CSVDoubleValue(line[25]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Lower60SecDispatch = CSVDoubleValue(line[25]);</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C28">
-        <f t="shared" si="3"/>
+        <f>C27+1</f>
         <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="G28" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="4"/>
-        <v>LowerRegRop</v>
+        <f t="shared" si="3"/>
+        <v>Lower60SecImport</v>
       </c>
       <c r="I28" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J28" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="L28" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.LowerRegRop = CSVDoubleValue(line[26]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Lower60SecImport = CSVDoubleValue(line[26]);</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C29">
-        <f t="shared" si="3"/>
+        <f>C28+1</f>
         <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="G29" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="4"/>
-        <v>Totaldemand</v>
+        <f t="shared" si="3"/>
+        <v>Lower60SecLocalDispatch</v>
       </c>
       <c r="I29" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J29" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="L29" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Totaldemand = CSVDoubleValue(line[27]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Lower60SecLocalDispatch = CSVDoubleValue(line[27]);</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>27</v>
+        <v>398</v>
       </c>
       <c r="C30">
-        <f t="shared" si="3"/>
+        <f>C29+1</f>
         <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
+        <v>435</v>
       </c>
       <c r="G30" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="4"/>
-        <v>AvailableGeneration</v>
+        <f t="shared" si="3"/>
+        <v>Lower60SecLocalPrice</v>
       </c>
       <c r="I30" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J30" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="L30" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.AvailableGeneration = CSVDoubleValue(line[28]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Lower60SecLocalPrice = CSVDoubleValue(line[28]);</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C31">
-        <f t="shared" si="3"/>
+        <f>C30+1</f>
         <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="G31" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="4"/>
-        <v>AvailableLoad</v>
+        <f t="shared" si="3"/>
+        <v>Lower60SecLocalReq</v>
       </c>
       <c r="I31" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J31" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="L31" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.AvailableLoad = CSVDoubleValue(line[29]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Lower60SecLocalReq = CSVDoubleValue(line[29]);</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>29</v>
+        <v>399</v>
       </c>
       <c r="C32">
-        <f t="shared" si="3"/>
+        <f>C31+1</f>
         <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
+        <v>436</v>
       </c>
       <c r="G32" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="4"/>
-        <v>DemandForecast</v>
+        <f t="shared" si="3"/>
+        <v>Lower60SecPrice</v>
       </c>
       <c r="I32" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J32" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="L32" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.DemandForecast = CSVDoubleValue(line[30]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Lower60SecPrice = CSVDoubleValue(line[30]);</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C33">
-        <f t="shared" si="3"/>
+        <f>C32+1</f>
         <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="G33" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="4"/>
-        <v>DispatchableGeneration</v>
+        <f t="shared" si="3"/>
+        <v>Lower60SecReq</v>
       </c>
       <c r="I33" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J33" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="L33" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.DispatchableGeneration = CSVDoubleValue(line[31]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Lower60SecReq = CSVDoubleValue(line[31]);</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>31</v>
+        <v>400</v>
       </c>
       <c r="C34">
-        <f t="shared" si="3"/>
+        <f>C33+1</f>
         <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>131</v>
+        <v>437</v>
       </c>
       <c r="G34" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="4"/>
-        <v>DispatchableLoad</v>
+        <f t="shared" si="3"/>
+        <v>Lower60SecSupplyPrice</v>
       </c>
       <c r="I34" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J34" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="L34" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.DispatchableLoad = CSVDoubleValue(line[32]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Lower60SecSupplyPrice = CSVDoubleValue(line[32]);</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:C66" si="7">C34+1</f>
+        <f>C34+1</f>
         <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="G35" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="4"/>
-        <v>NetinterChange</v>
+        <f t="shared" si="3"/>
+        <v>Lower6SecDispatch</v>
       </c>
       <c r="I35" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J35" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="L35" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.NetinterChange = CSVDoubleValue(line[33]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Lower6SecDispatch = CSVDoubleValue(line[33]);</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C36">
-        <f t="shared" si="7"/>
+        <f>C35+1</f>
         <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="G36" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="4"/>
-        <v>Lower5MinDispatch</v>
+        <f t="shared" si="3"/>
+        <v>Lower6SecImport</v>
       </c>
       <c r="I36" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J36" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="L36" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Lower5MinDispatch = CSVDoubleValue(line[34]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Lower6SecImport = CSVDoubleValue(line[34]);</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C37">
-        <f t="shared" si="7"/>
+        <f>C36+1</f>
         <v>35</v>
       </c>
       <c r="E37" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="G37" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="4"/>
-        <v>Lower5MinImport</v>
+        <f t="shared" si="3"/>
+        <v>Lower6SecLocalDispatch</v>
       </c>
       <c r="I37" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J37" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="L37" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Lower5MinImport = CSVDoubleValue(line[35]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Lower6SecLocalDispatch = CSVDoubleValue(line[35]);</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>35</v>
+        <v>401</v>
       </c>
       <c r="C38">
-        <f t="shared" si="7"/>
+        <f>C37+1</f>
         <v>36</v>
       </c>
       <c r="E38" t="s">
-        <v>135</v>
+        <v>438</v>
       </c>
       <c r="G38" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="4"/>
-        <v>Lower5MinLocalDispatch</v>
+        <f t="shared" si="3"/>
+        <v>Lower6SecLocalPrice</v>
       </c>
       <c r="I38" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J38" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="L38" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Lower5MinLocalDispatch = CSVDoubleValue(line[36]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Lower6SecLocalPrice = CSVDoubleValue(line[36]);</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C39">
-        <f t="shared" si="7"/>
+        <f>C38+1</f>
         <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="G39" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="4"/>
-        <v>Lower5MinLocalReq</v>
+        <f t="shared" si="3"/>
+        <v>Lower6SecLocalReq</v>
       </c>
       <c r="I39" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J39" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="L39" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Lower5MinLocalReq = CSVDoubleValue(line[37]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Lower6SecLocalReq = CSVDoubleValue(line[37]);</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>37</v>
+        <v>402</v>
       </c>
       <c r="C40">
-        <f t="shared" si="7"/>
+        <f>C39+1</f>
         <v>38</v>
       </c>
       <c r="E40" t="s">
-        <v>137</v>
+        <v>439</v>
       </c>
       <c r="G40" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="4"/>
-        <v>Lower5MinReq</v>
+        <f t="shared" si="3"/>
+        <v>Lower6SecPrice</v>
       </c>
       <c r="I40" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J40" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="L40" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Lower5MinReq = CSVDoubleValue(line[38]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Lower6SecPrice = CSVDoubleValue(line[38]);</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C41">
-        <f t="shared" si="7"/>
+        <f>C40+1</f>
         <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="G41" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="4"/>
-        <v>Lower60SecDispatch</v>
+        <f t="shared" si="3"/>
+        <v>Lower6SecReq</v>
       </c>
       <c r="I41" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J41" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="L41" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Lower60SecDispatch = CSVDoubleValue(line[39]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Lower6SecReq = CSVDoubleValue(line[39]);</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>39</v>
+        <v>403</v>
       </c>
       <c r="C42">
-        <f t="shared" si="7"/>
+        <f>C41+1</f>
         <v>40</v>
       </c>
       <c r="E42" t="s">
-        <v>139</v>
+        <v>440</v>
       </c>
       <c r="G42" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="4"/>
-        <v>Lower60SecImport</v>
+        <f t="shared" si="3"/>
+        <v>Lower6SecSupplyPrice</v>
       </c>
       <c r="I42" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J42" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="L42" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N42" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Lower60SecImport = CSVDoubleValue(line[40]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Lower6SecSupplyPrice = CSVDoubleValue(line[40]);</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C43">
-        <f t="shared" si="7"/>
+        <f>C42+1</f>
         <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="G43" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="4"/>
-        <v>Lower60SecLocalDispatch</v>
+        <f t="shared" si="3"/>
+        <v>Raise5MinDispatch</v>
       </c>
       <c r="I43" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J43" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="L43" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N43" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Lower60SecLocalDispatch = CSVDoubleValue(line[41]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Raise5MinDispatch = CSVDoubleValue(line[41]);</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C44">
-        <f t="shared" si="7"/>
+        <f>C43+1</f>
         <v>42</v>
       </c>
       <c r="E44" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="G44" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="4"/>
-        <v>Lower60SecLocalReq</v>
+        <f t="shared" si="3"/>
+        <v>Raise5MinImport</v>
       </c>
       <c r="I44" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J44" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="L44" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N44" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Lower60SecLocalReq = CSVDoubleValue(line[42]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Raise5MinImport = CSVDoubleValue(line[42]);</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C45">
-        <f t="shared" si="7"/>
+        <f>C44+1</f>
         <v>43</v>
       </c>
       <c r="E45" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="G45" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="4"/>
-        <v>Lower60SecReq</v>
+        <f t="shared" si="3"/>
+        <v>Raise5MinLocalDispatch</v>
       </c>
       <c r="I45" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J45" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="L45" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N45" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Lower60SecReq = CSVDoubleValue(line[43]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Raise5MinLocalDispatch = CSVDoubleValue(line[43]);</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>43</v>
+        <v>404</v>
       </c>
       <c r="C46">
-        <f t="shared" si="7"/>
+        <f>C45+1</f>
         <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>143</v>
+        <v>441</v>
       </c>
       <c r="G46" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="4"/>
-        <v>Lower6SecDispatch</v>
+        <f t="shared" si="3"/>
+        <v>Raise5MinLocalPrice</v>
       </c>
       <c r="I46" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J46" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="L46" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N46" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Lower6SecDispatch = CSVDoubleValue(line[44]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Raise5MinLocalPrice = CSVDoubleValue(line[44]);</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C47">
-        <f t="shared" si="7"/>
+        <f>C46+1</f>
         <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="G47" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="4"/>
-        <v>Lower6SecImport</v>
+        <f t="shared" si="3"/>
+        <v>Raise5MinLocalReq</v>
       </c>
       <c r="I47" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J47" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="L47" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N47" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Lower6SecImport = CSVDoubleValue(line[45]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Raise5MinLocalReq = CSVDoubleValue(line[45]);</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>45</v>
+        <v>405</v>
       </c>
       <c r="C48">
-        <f t="shared" si="7"/>
+        <f>C47+1</f>
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>145</v>
+        <v>442</v>
       </c>
       <c r="G48" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="4"/>
-        <v>Lower6SecLocalDispatch</v>
+        <f t="shared" si="3"/>
+        <v>Raise5MinPrice</v>
       </c>
       <c r="I48" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J48" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="L48" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N48" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Lower6SecLocalDispatch = CSVDoubleValue(line[46]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Raise5MinPrice = CSVDoubleValue(line[46]);</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C49">
-        <f t="shared" si="7"/>
+        <f>C48+1</f>
         <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="G49" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="4"/>
-        <v>Lower6SecLocalReq</v>
+        <f t="shared" si="3"/>
+        <v>Raise5MinReq</v>
       </c>
       <c r="I49" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J49" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="L49" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N49" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Lower6SecLocalReq = CSVDoubleValue(line[47]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Raise5MinReq = CSVDoubleValue(line[47]);</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>47</v>
+        <v>406</v>
       </c>
       <c r="C50">
-        <f t="shared" si="7"/>
+        <f>C49+1</f>
         <v>48</v>
       </c>
       <c r="E50" t="s">
-        <v>147</v>
+        <v>443</v>
       </c>
       <c r="G50" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="4"/>
-        <v>Lower6SecReq</v>
+        <f t="shared" si="3"/>
+        <v>Raise5MinSupplyPrice</v>
       </c>
       <c r="I50" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J50" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="L50" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N50" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Lower6SecReq = CSVDoubleValue(line[48]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Raise5MinSupplyPrice = CSVDoubleValue(line[48]);</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C51">
-        <f t="shared" si="7"/>
+        <f>C50+1</f>
         <v>49</v>
       </c>
       <c r="E51" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="G51" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="4"/>
-        <v>Raise5MinDispatch</v>
+        <f t="shared" si="3"/>
+        <v>Raise60SecDispatch</v>
       </c>
       <c r="I51" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J51" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="L51" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N51" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Raise5MinDispatch = CSVDoubleValue(line[49]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Raise60SecDispatch = CSVDoubleValue(line[49]);</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C52">
-        <f t="shared" si="7"/>
+        <f>C51+1</f>
         <v>50</v>
       </c>
       <c r="E52" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="G52" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="4"/>
-        <v>Raise5MinImport</v>
+        <f t="shared" si="3"/>
+        <v>Raise60SecImport</v>
       </c>
       <c r="I52" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J52" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="L52" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N52" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Raise5MinImport = CSVDoubleValue(line[50]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Raise60SecImport = CSVDoubleValue(line[50]);</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C53">
-        <f t="shared" si="7"/>
+        <f>C52+1</f>
         <v>51</v>
       </c>
       <c r="E53" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="G53" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="4"/>
-        <v>Raise5MinLocalDispatch</v>
+        <f t="shared" si="3"/>
+        <v>Raise60SecLocalDispatch</v>
       </c>
       <c r="I53" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J53" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="L53" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N53" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Raise5MinLocalDispatch = CSVDoubleValue(line[51]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Raise60SecLocalDispatch = CSVDoubleValue(line[51]);</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>51</v>
+        <v>407</v>
       </c>
       <c r="C54">
-        <f t="shared" si="7"/>
+        <f>C53+1</f>
         <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>151</v>
+        <v>444</v>
       </c>
       <c r="G54" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="4"/>
-        <v>Raise5MinLocalReq</v>
+        <f t="shared" si="3"/>
+        <v>Raise60SecLocalPrice</v>
       </c>
       <c r="I54" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J54" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="L54" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N54" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Raise5MinLocalReq = CSVDoubleValue(line[52]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Raise60SecLocalPrice = CSVDoubleValue(line[52]);</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C55">
-        <f t="shared" si="7"/>
+        <f>C54+1</f>
         <v>53</v>
       </c>
       <c r="E55" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="G55" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="4"/>
-        <v>Raise5MinReq</v>
+        <f t="shared" si="3"/>
+        <v>Raise60SecLocalReq</v>
       </c>
       <c r="I55" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J55" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="L55" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N55" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Raise5MinReq = CSVDoubleValue(line[53]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Raise60SecLocalReq = CSVDoubleValue(line[53]);</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>53</v>
+        <v>408</v>
       </c>
       <c r="C56">
-        <f t="shared" si="7"/>
+        <f>C55+1</f>
         <v>54</v>
       </c>
       <c r="E56" t="s">
-        <v>153</v>
+        <v>445</v>
       </c>
       <c r="G56" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="4"/>
-        <v>Raise60SecDispatch</v>
+        <f t="shared" si="3"/>
+        <v>Raise60SecPrice</v>
       </c>
       <c r="I56" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J56" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="L56" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N56" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Raise60SecDispatch = CSVDoubleValue(line[54]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Raise60SecPrice = CSVDoubleValue(line[54]);</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C57">
-        <f t="shared" si="7"/>
+        <f>C56+1</f>
         <v>55</v>
       </c>
       <c r="E57" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="G57" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="4"/>
-        <v>Raise60SecImport</v>
+        <f t="shared" si="3"/>
+        <v>Raise60SecReq</v>
       </c>
       <c r="I57" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J57" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="L57" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N57" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Raise60SecImport = CSVDoubleValue(line[55]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Raise60SecReq = CSVDoubleValue(line[55]);</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>55</v>
+        <v>409</v>
       </c>
       <c r="C58">
-        <f t="shared" si="7"/>
+        <f>C57+1</f>
         <v>56</v>
       </c>
       <c r="E58" t="s">
+        <v>446</v>
+      </c>
+      <c r="G58" t="s">
+        <v>156</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="3"/>
+        <v>Raise60SecSupplyPrice</v>
+      </c>
+      <c r="I58" t="s">
+        <v>157</v>
+      </c>
+      <c r="J58" t="s">
+        <v>158</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="L58" t="s">
         <v>155</v>
       </c>
-      <c r="G58" t="s">
-        <v>208</v>
-      </c>
-      <c r="H58" t="str">
-        <f t="shared" si="4"/>
-        <v>Raise60SecLocalDispatch</v>
-      </c>
-      <c r="I58" t="s">
-        <v>209</v>
-      </c>
-      <c r="J58" t="s">
-        <v>210</v>
-      </c>
-      <c r="K58">
-        <f t="shared" si="5"/>
-        <v>56</v>
-      </c>
-      <c r="L58" t="s">
-        <v>207</v>
-      </c>
       <c r="N58" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Raise60SecLocalDispatch = CSVDoubleValue(line[56]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Raise60SecSupplyPrice = CSVDoubleValue(line[56]);</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C59">
-        <f t="shared" si="7"/>
+        <f>C58+1</f>
         <v>57</v>
       </c>
       <c r="E59" t="s">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="G59" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="4"/>
-        <v>Raise60SecLocalReq</v>
+        <f t="shared" si="3"/>
+        <v>Raise6SecDispatch</v>
       </c>
       <c r="I59" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J59" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="L59" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N59" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Raise60SecLocalReq = CSVDoubleValue(line[57]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Raise6SecDispatch = CSVDoubleValue(line[57]);</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C60">
-        <f t="shared" si="7"/>
+        <f>C59+1</f>
         <v>58</v>
       </c>
       <c r="E60" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="G60" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="4"/>
-        <v>Raise60SecReq</v>
+        <f t="shared" si="3"/>
+        <v>Raise6SecImport</v>
       </c>
       <c r="I60" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J60" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="L60" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Raise60SecReq = CSVDoubleValue(line[58]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Raise6SecImport = CSVDoubleValue(line[58]);</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C61">
-        <f t="shared" si="7"/>
+        <f>C60+1</f>
         <v>59</v>
       </c>
       <c r="E61" t="s">
+        <v>115</v>
+      </c>
+      <c r="G61" t="s">
+        <v>156</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="3"/>
+        <v>Raise6SecLocalDispatch</v>
+      </c>
+      <c r="I61" t="s">
+        <v>157</v>
+      </c>
+      <c r="J61" t="s">
         <v>158</v>
       </c>
-      <c r="G61" t="s">
-        <v>208</v>
-      </c>
-      <c r="H61" t="str">
-        <f t="shared" si="4"/>
-        <v>Raise6SecDispatch</v>
-      </c>
-      <c r="I61" t="s">
-        <v>209</v>
-      </c>
-      <c r="J61" t="s">
-        <v>210</v>
-      </c>
       <c r="K61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="L61" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N61" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Raise6SecDispatch = CSVDoubleValue(line[59]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Raise6SecLocalDispatch = CSVDoubleValue(line[59]);</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>59</v>
+        <v>410</v>
       </c>
       <c r="C62">
-        <f t="shared" si="7"/>
+        <f>C61+1</f>
         <v>60</v>
       </c>
       <c r="E62" t="s">
-        <v>159</v>
+        <v>447</v>
       </c>
       <c r="G62" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="4"/>
-        <v>Raise6SecImport</v>
+        <f t="shared" si="3"/>
+        <v>Raise6SecLocalPrice</v>
       </c>
       <c r="I62" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J62" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="L62" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N62" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Raise6SecImport = CSVDoubleValue(line[60]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Raise6SecLocalPrice = CSVDoubleValue(line[60]);</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C63">
-        <f t="shared" si="7"/>
+        <f>C62+1</f>
         <v>61</v>
       </c>
       <c r="E63" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="G63" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="4"/>
-        <v>Raise6SecLocalDispatch</v>
+        <f t="shared" si="3"/>
+        <v>Raise6SecLocalReq</v>
       </c>
       <c r="I63" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J63" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="L63" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N63" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Raise6SecLocalDispatch = CSVDoubleValue(line[61]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Raise6SecLocalReq = CSVDoubleValue(line[61]);</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>61</v>
+        <v>411</v>
       </c>
       <c r="C64">
-        <f t="shared" si="7"/>
+        <f>C63+1</f>
         <v>62</v>
       </c>
       <c r="E64" t="s">
-        <v>161</v>
+        <v>448</v>
       </c>
       <c r="G64" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="4"/>
-        <v>Raise6SecLocalReq</v>
+        <f t="shared" si="3"/>
+        <v>Raise6SecPrice</v>
       </c>
       <c r="I64" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J64" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="L64" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N64" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.Raise6SecLocalReq = CSVDoubleValue(line[62]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Raise6SecPrice = CSVDoubleValue(line[62]);</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C65">
-        <f t="shared" si="7"/>
+        <f>C64+1</f>
         <v>63</v>
       </c>
       <c r="E65" t="s">
-        <v>162</v>
+        <v>117</v>
       </c>
       <c r="G65" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>Raise6SecReq</v>
       </c>
       <c r="I65" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J65" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="L65" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>dto.Raise6SecReq = CSVDoubleValue(line[63]);</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>63</v>
+        <v>412</v>
       </c>
       <c r="C66">
-        <f t="shared" si="7"/>
+        <f>C65+1</f>
         <v>64</v>
       </c>
       <c r="E66" t="s">
-        <v>163</v>
+        <v>449</v>
       </c>
       <c r="G66" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="4"/>
-        <v>AggregateDispatchError</v>
+        <f t="shared" si="3"/>
+        <v>Raise6SecSupplyPrice</v>
       </c>
       <c r="I66" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J66" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="L66" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N66" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.AggregateDispatchError = CSVDoubleValue(line[64]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.Raise6SecSupplyPrice = CSVDoubleValue(line[64]);</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>64</v>
+        <v>413</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C98" si="8">C66+1</f>
+        <f>C66+1</f>
         <v>65</v>
       </c>
       <c r="E67" t="s">
-        <v>164</v>
+        <v>450</v>
       </c>
       <c r="G67" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" si="4"/>
-        <v>InitialSupply</v>
+        <f t="shared" si="3"/>
+        <v>AggRegateDispatcherror</v>
       </c>
       <c r="I67" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J67" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="L67" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N67" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.InitialSupply = CSVDoubleValue(line[65]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.AggRegateDispatcherror = CSVDoubleValue(line[65]);</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C68">
-        <f t="shared" si="8"/>
+        <f>C67+1</f>
         <v>66</v>
       </c>
       <c r="E68" t="s">
-        <v>165</v>
+        <v>450</v>
       </c>
       <c r="G68" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="4"/>
-        <v>ClearedSupply</v>
+        <f t="shared" si="3"/>
+        <v>AggRegateDispatcherror</v>
       </c>
       <c r="I68" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J68" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="L68" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N68" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.ClearedSupply = CSVDoubleValue(line[66]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.AggRegateDispatcherror = CSVDoubleValue(line[66]);</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C69">
-        <f t="shared" si="8"/>
+        <f>C68+1</f>
         <v>67</v>
       </c>
       <c r="E69" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="G69" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H69" t="str">
-        <f t="shared" si="4"/>
-        <v>LowerRegImport</v>
+        <f t="shared" si="3"/>
+        <v>LastChanged</v>
       </c>
       <c r="I69" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J69" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="L69" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N69" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.LowerRegImport = CSVDoubleValue(line[67]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.LastChanged = CSVDoubleValue(line[67]);</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="C70">
-        <f t="shared" si="8"/>
+        <f>C69+1</f>
         <v>68</v>
       </c>
       <c r="E70" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="G70" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H70" t="str">
-        <f t="shared" si="4"/>
-        <v>LowerRegDispatch</v>
+        <f t="shared" si="3"/>
+        <v>InitialSupply</v>
       </c>
       <c r="I70" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J70" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="L70" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N70" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.LowerRegDispatch = CSVDoubleValue(line[68]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.InitialSupply = CSVDoubleValue(line[68]);</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C71">
-        <f t="shared" si="8"/>
+        <f>C70+1</f>
         <v>69</v>
       </c>
       <c r="E71" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="G71" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H71" t="str">
-        <f t="shared" si="4"/>
-        <v>LowerRegLocalDispatch</v>
+        <f t="shared" si="3"/>
+        <v>ClearedSupply</v>
       </c>
       <c r="I71" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J71" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>69</v>
       </c>
       <c r="L71" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N71" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.LowerRegLocalDispatch = CSVDoubleValue(line[69]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.ClearedSupply = CSVDoubleValue(line[69]);</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C72">
-        <f t="shared" si="8"/>
+        <f>C71+1</f>
         <v>70</v>
       </c>
       <c r="E72" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="G72" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="4"/>
-        <v>LowerRegLocalReq</v>
+        <f t="shared" si="3"/>
+        <v>LowerRegImport</v>
       </c>
       <c r="I72" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J72" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="L72" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N72" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.LowerRegLocalReq = CSVDoubleValue(line[70]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.LowerRegImport = CSVDoubleValue(line[70]);</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C73">
-        <f t="shared" si="8"/>
+        <f>C72+1</f>
         <v>71</v>
       </c>
       <c r="E73" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="G73" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="4"/>
-        <v>LowerRegReq</v>
+        <f t="shared" si="3"/>
+        <v>LowerRegLocalDispatch</v>
       </c>
       <c r="I73" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J73" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="L73" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N73" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.LowerRegReq = CSVDoubleValue(line[71]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.LowerRegLocalDispatch = CSVDoubleValue(line[71]);</v>
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C74">
-        <f t="shared" si="8"/>
+        <f>C73+1</f>
         <v>72</v>
       </c>
       <c r="E74" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="G74" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="4"/>
-        <v>RaiseRegImport</v>
+        <f t="shared" si="3"/>
+        <v>LowerRegLocalReq</v>
       </c>
       <c r="I74" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J74" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>72</v>
       </c>
       <c r="L74" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N74" t="str">
-        <f t="shared" si="6"/>
-        <v>dto.RaiseRegImport = CSVDoubleValue(line[72]);</v>
+        <f t="shared" si="5"/>
+        <v>dto.LowerRegLocalReq = CSVDoubleValue(line[72]);</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C75">
-        <f t="shared" si="8"/>
+        <f>C74+1</f>
         <v>73</v>
       </c>
       <c r="E75" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="G75" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" ref="H75:H109" si="9">E75</f>
-        <v>RaiseRegDispatch</v>
+        <f t="shared" ref="H75:H109" si="6">E75</f>
+        <v>LowerRegReq</v>
       </c>
       <c r="I75" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J75" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K75">
-        <f t="shared" ref="K75:K109" si="10">C75</f>
+        <f t="shared" ref="K75:K109" si="7">C75</f>
         <v>73</v>
       </c>
       <c r="L75" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N75" t="str">
-        <f t="shared" ref="N75:N109" si="11">_xlfn.CONCAT(G75,H75,I75,J75,K75,L75)</f>
-        <v>dto.RaiseRegDispatch = CSVDoubleValue(line[73]);</v>
+        <f t="shared" ref="N75:N119" si="8">_xlfn.CONCAT(G75,H75,I75,J75,K75,L75)</f>
+        <v>dto.LowerRegReq = CSVDoubleValue(line[73]);</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C76">
+        <f>C75+1</f>
+        <v>74</v>
+      </c>
+      <c r="E76" t="s">
+        <v>124</v>
+      </c>
+      <c r="G76" t="s">
+        <v>156</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="6"/>
+        <v>RaiseRegImport</v>
+      </c>
+      <c r="I76" t="s">
+        <v>157</v>
+      </c>
+      <c r="J76" t="s">
+        <v>158</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+      <c r="L76" t="s">
+        <v>155</v>
+      </c>
+      <c r="N76" t="str">
         <f t="shared" si="8"/>
-        <v>74</v>
-      </c>
-      <c r="E76" t="s">
-        <v>173</v>
-      </c>
-      <c r="G76" t="s">
-        <v>208</v>
-      </c>
-      <c r="H76" t="str">
-        <f t="shared" si="9"/>
-        <v>RaiseRegLocalDispatch</v>
-      </c>
-      <c r="I76" t="s">
-        <v>209</v>
-      </c>
-      <c r="J76" t="s">
-        <v>210</v>
-      </c>
-      <c r="K76">
-        <f t="shared" si="10"/>
-        <v>74</v>
-      </c>
-      <c r="L76" t="s">
-        <v>207</v>
-      </c>
-      <c r="N76" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.RaiseRegLocalDispatch = CSVDoubleValue(line[74]);</v>
+        <v>dto.RaiseRegImport = CSVDoubleValue(line[74]);</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="C77">
+        <f>C76+1</f>
+        <v>75</v>
+      </c>
+      <c r="E77" t="s">
+        <v>125</v>
+      </c>
+      <c r="G77" t="s">
+        <v>156</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="6"/>
+        <v>RaiseRegLocalDispatch</v>
+      </c>
+      <c r="I77" t="s">
+        <v>157</v>
+      </c>
+      <c r="J77" t="s">
+        <v>158</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="L77" t="s">
+        <v>155</v>
+      </c>
+      <c r="N77" t="str">
         <f t="shared" si="8"/>
-        <v>75</v>
-      </c>
-      <c r="E77" t="s">
-        <v>174</v>
-      </c>
-      <c r="G77" t="s">
-        <v>208</v>
-      </c>
-      <c r="H77" t="str">
-        <f t="shared" si="9"/>
-        <v>RaiseRegLocalReq</v>
-      </c>
-      <c r="I77" t="s">
-        <v>209</v>
-      </c>
-      <c r="J77" t="s">
-        <v>210</v>
-      </c>
-      <c r="K77">
-        <f t="shared" si="10"/>
-        <v>75</v>
-      </c>
-      <c r="L77" t="s">
-        <v>207</v>
-      </c>
-      <c r="N77" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.RaiseRegLocalReq = CSVDoubleValue(line[75]);</v>
+        <v>dto.RaiseRegLocalDispatch = CSVDoubleValue(line[75]);</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="C78">
+        <f>C77+1</f>
+        <v>76</v>
+      </c>
+      <c r="E78" t="s">
+        <v>126</v>
+      </c>
+      <c r="G78" t="s">
+        <v>156</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="6"/>
+        <v>RaiseRegLocalReq</v>
+      </c>
+      <c r="I78" t="s">
+        <v>157</v>
+      </c>
+      <c r="J78" t="s">
+        <v>158</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="L78" t="s">
+        <v>155</v>
+      </c>
+      <c r="N78" t="str">
         <f t="shared" si="8"/>
-        <v>76</v>
-      </c>
-      <c r="E78" t="s">
-        <v>175</v>
-      </c>
-      <c r="G78" t="s">
-        <v>208</v>
-      </c>
-      <c r="H78" t="str">
-        <f t="shared" si="9"/>
-        <v>RaiseRegReq</v>
-      </c>
-      <c r="I78" t="s">
-        <v>209</v>
-      </c>
-      <c r="J78" t="s">
-        <v>210</v>
-      </c>
-      <c r="K78">
-        <f t="shared" si="10"/>
-        <v>76</v>
-      </c>
-      <c r="L78" t="s">
-        <v>207</v>
-      </c>
-      <c r="N78" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.RaiseRegReq = CSVDoubleValue(line[76]);</v>
+        <v>dto.RaiseRegLocalReq = CSVDoubleValue(line[76]);</v>
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C79">
+        <f>C78+1</f>
+        <v>77</v>
+      </c>
+      <c r="E79" t="s">
+        <v>127</v>
+      </c>
+      <c r="G79" t="s">
+        <v>156</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="6"/>
+        <v>RaiseRegReq</v>
+      </c>
+      <c r="I79" t="s">
+        <v>157</v>
+      </c>
+      <c r="J79" t="s">
+        <v>158</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="7"/>
+        <v>77</v>
+      </c>
+      <c r="L79" t="s">
+        <v>155</v>
+      </c>
+      <c r="N79" t="str">
         <f t="shared" si="8"/>
-        <v>77</v>
-      </c>
-      <c r="E79" t="s">
-        <v>176</v>
-      </c>
-      <c r="G79" t="s">
-        <v>208</v>
-      </c>
-      <c r="H79" t="str">
-        <f t="shared" si="9"/>
-        <v>Raise5MinLocalViolation</v>
-      </c>
-      <c r="I79" t="s">
-        <v>209</v>
-      </c>
-      <c r="J79" t="s">
-        <v>210</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="10"/>
-        <v>77</v>
-      </c>
-      <c r="L79" t="s">
-        <v>207</v>
-      </c>
-      <c r="N79" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.Raise5MinLocalViolation = CSVDoubleValue(line[77]);</v>
+        <v>dto.RaiseRegReq = CSVDoubleValue(line[77]);</v>
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C80">
+        <f>C79+1</f>
+        <v>78</v>
+      </c>
+      <c r="E80" t="s">
+        <v>128</v>
+      </c>
+      <c r="G80" t="s">
+        <v>156</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="6"/>
+        <v>Raise5MinLocalViolation</v>
+      </c>
+      <c r="I80" t="s">
+        <v>157</v>
+      </c>
+      <c r="J80" t="s">
+        <v>158</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="L80" t="s">
+        <v>155</v>
+      </c>
+      <c r="N80" t="str">
         <f t="shared" si="8"/>
-        <v>78</v>
-      </c>
-      <c r="E80" t="s">
-        <v>177</v>
-      </c>
-      <c r="G80" t="s">
-        <v>208</v>
-      </c>
-      <c r="H80" t="str">
-        <f t="shared" si="9"/>
-        <v>RaiseRegLocalViolation</v>
-      </c>
-      <c r="I80" t="s">
-        <v>209</v>
-      </c>
-      <c r="J80" t="s">
-        <v>210</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="10"/>
-        <v>78</v>
-      </c>
-      <c r="L80" t="s">
-        <v>207</v>
-      </c>
-      <c r="N80" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.RaiseRegLocalViolation = CSVDoubleValue(line[78]);</v>
+        <v>dto.Raise5MinLocalViolation = CSVDoubleValue(line[78]);</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C81">
+        <f>C80+1</f>
+        <v>79</v>
+      </c>
+      <c r="E81" t="s">
+        <v>129</v>
+      </c>
+      <c r="G81" t="s">
+        <v>156</v>
+      </c>
+      <c r="H81" t="str">
+        <f t="shared" si="6"/>
+        <v>RaiseRegLocalViolation</v>
+      </c>
+      <c r="I81" t="s">
+        <v>157</v>
+      </c>
+      <c r="J81" t="s">
+        <v>158</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="L81" t="s">
+        <v>155</v>
+      </c>
+      <c r="N81" t="str">
         <f t="shared" si="8"/>
-        <v>79</v>
-      </c>
-      <c r="E81" t="s">
-        <v>178</v>
-      </c>
-      <c r="G81" t="s">
-        <v>208</v>
-      </c>
-      <c r="H81" t="str">
-        <f t="shared" si="9"/>
-        <v>Raise60SecLocalViolation</v>
-      </c>
-      <c r="I81" t="s">
-        <v>209</v>
-      </c>
-      <c r="J81" t="s">
-        <v>210</v>
-      </c>
-      <c r="K81">
-        <f t="shared" si="10"/>
-        <v>79</v>
-      </c>
-      <c r="L81" t="s">
-        <v>207</v>
-      </c>
-      <c r="N81" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.Raise60SecLocalViolation = CSVDoubleValue(line[79]);</v>
+        <v>dto.RaiseRegLocalViolation = CSVDoubleValue(line[79]);</v>
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C82">
+        <f>C81+1</f>
+        <v>80</v>
+      </c>
+      <c r="E82" t="s">
+        <v>130</v>
+      </c>
+      <c r="G82" t="s">
+        <v>156</v>
+      </c>
+      <c r="H82" t="str">
+        <f t="shared" si="6"/>
+        <v>Raise60SecLocalViolation</v>
+      </c>
+      <c r="I82" t="s">
+        <v>157</v>
+      </c>
+      <c r="J82" t="s">
+        <v>158</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="L82" t="s">
+        <v>155</v>
+      </c>
+      <c r="N82" t="str">
         <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="E82" t="s">
-        <v>179</v>
-      </c>
-      <c r="G82" t="s">
-        <v>208</v>
-      </c>
-      <c r="H82" t="str">
-        <f t="shared" si="9"/>
-        <v>Raise6SecLocalViolation</v>
-      </c>
-      <c r="I82" t="s">
-        <v>209</v>
-      </c>
-      <c r="J82" t="s">
-        <v>210</v>
-      </c>
-      <c r="K82">
-        <f t="shared" si="10"/>
-        <v>80</v>
-      </c>
-      <c r="L82" t="s">
-        <v>207</v>
-      </c>
-      <c r="N82" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.Raise6SecLocalViolation = CSVDoubleValue(line[80]);</v>
+        <v>dto.Raise60SecLocalViolation = CSVDoubleValue(line[80]);</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C83">
+        <f>C82+1</f>
+        <v>81</v>
+      </c>
+      <c r="E83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G83" t="s">
+        <v>156</v>
+      </c>
+      <c r="H83" t="str">
+        <f t="shared" si="6"/>
+        <v>Raise6SecLocalViolation</v>
+      </c>
+      <c r="I83" t="s">
+        <v>157</v>
+      </c>
+      <c r="J83" t="s">
+        <v>158</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="L83" t="s">
+        <v>155</v>
+      </c>
+      <c r="N83" t="str">
         <f t="shared" si="8"/>
-        <v>81</v>
-      </c>
-      <c r="E83" t="s">
-        <v>180</v>
-      </c>
-      <c r="G83" t="s">
-        <v>208</v>
-      </c>
-      <c r="H83" t="str">
-        <f t="shared" si="9"/>
-        <v>Lower5MinLocalViolation</v>
-      </c>
-      <c r="I83" t="s">
-        <v>209</v>
-      </c>
-      <c r="J83" t="s">
-        <v>210</v>
-      </c>
-      <c r="K83">
-        <f t="shared" si="10"/>
-        <v>81</v>
-      </c>
-      <c r="L83" t="s">
-        <v>207</v>
-      </c>
-      <c r="N83" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.Lower5MinLocalViolation = CSVDoubleValue(line[81]);</v>
+        <v>dto.Raise6SecLocalViolation = CSVDoubleValue(line[81]);</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C84">
+        <f>C83+1</f>
+        <v>82</v>
+      </c>
+      <c r="E84" t="s">
+        <v>132</v>
+      </c>
+      <c r="G84" t="s">
+        <v>156</v>
+      </c>
+      <c r="H84" t="str">
+        <f t="shared" si="6"/>
+        <v>Lower5MinLocalViolation</v>
+      </c>
+      <c r="I84" t="s">
+        <v>157</v>
+      </c>
+      <c r="J84" t="s">
+        <v>158</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="L84" t="s">
+        <v>155</v>
+      </c>
+      <c r="N84" t="str">
         <f t="shared" si="8"/>
-        <v>82</v>
-      </c>
-      <c r="E84" t="s">
-        <v>181</v>
-      </c>
-      <c r="G84" t="s">
-        <v>208</v>
-      </c>
-      <c r="H84" t="str">
-        <f t="shared" si="9"/>
-        <v>LowerRegLocalViolation</v>
-      </c>
-      <c r="I84" t="s">
-        <v>209</v>
-      </c>
-      <c r="J84" t="s">
-        <v>210</v>
-      </c>
-      <c r="K84">
-        <f t="shared" si="10"/>
-        <v>82</v>
-      </c>
-      <c r="L84" t="s">
-        <v>207</v>
-      </c>
-      <c r="N84" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.LowerRegLocalViolation = CSVDoubleValue(line[82]);</v>
+        <v>dto.Lower5MinLocalViolation = CSVDoubleValue(line[82]);</v>
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C85">
+        <f>C84+1</f>
+        <v>83</v>
+      </c>
+      <c r="E85" t="s">
+        <v>133</v>
+      </c>
+      <c r="G85" t="s">
+        <v>156</v>
+      </c>
+      <c r="H85" t="str">
+        <f t="shared" si="6"/>
+        <v>LowerRegLocalViolation</v>
+      </c>
+      <c r="I85" t="s">
+        <v>157</v>
+      </c>
+      <c r="J85" t="s">
+        <v>158</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="7"/>
+        <v>83</v>
+      </c>
+      <c r="L85" t="s">
+        <v>155</v>
+      </c>
+      <c r="N85" t="str">
         <f t="shared" si="8"/>
-        <v>83</v>
-      </c>
-      <c r="E85" t="s">
-        <v>182</v>
-      </c>
-      <c r="G85" t="s">
-        <v>208</v>
-      </c>
-      <c r="H85" t="str">
-        <f t="shared" si="9"/>
-        <v>Lower60SecLocalViolation</v>
-      </c>
-      <c r="I85" t="s">
-        <v>209</v>
-      </c>
-      <c r="J85" t="s">
-        <v>210</v>
-      </c>
-      <c r="K85">
-        <f t="shared" si="10"/>
-        <v>83</v>
-      </c>
-      <c r="L85" t="s">
-        <v>207</v>
-      </c>
-      <c r="N85" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.Lower60SecLocalViolation = CSVDoubleValue(line[83]);</v>
+        <v>dto.LowerRegLocalViolation = CSVDoubleValue(line[83]);</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="C86">
+        <f>C85+1</f>
+        <v>84</v>
+      </c>
+      <c r="E86" t="s">
+        <v>134</v>
+      </c>
+      <c r="G86" t="s">
+        <v>156</v>
+      </c>
+      <c r="H86" t="str">
+        <f t="shared" si="6"/>
+        <v>Lower60SecLocalViolation</v>
+      </c>
+      <c r="I86" t="s">
+        <v>157</v>
+      </c>
+      <c r="J86" t="s">
+        <v>158</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+      <c r="L86" t="s">
+        <v>155</v>
+      </c>
+      <c r="N86" t="str">
         <f t="shared" si="8"/>
-        <v>84</v>
-      </c>
-      <c r="E86" t="s">
-        <v>183</v>
-      </c>
-      <c r="G86" t="s">
-        <v>208</v>
-      </c>
-      <c r="H86" t="str">
-        <f t="shared" si="9"/>
-        <v>Lower6SecLocalViolation</v>
-      </c>
-      <c r="I86" t="s">
-        <v>209</v>
-      </c>
-      <c r="J86" t="s">
-        <v>210</v>
-      </c>
-      <c r="K86">
-        <f t="shared" si="10"/>
-        <v>84</v>
-      </c>
-      <c r="L86" t="s">
-        <v>207</v>
-      </c>
-      <c r="N86" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.Lower6SecLocalViolation = CSVDoubleValue(line[84]);</v>
+        <v>dto.Lower60SecLocalViolation = CSVDoubleValue(line[84]);</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="C87">
+        <f>C86+1</f>
+        <v>85</v>
+      </c>
+      <c r="E87" t="s">
+        <v>135</v>
+      </c>
+      <c r="G87" t="s">
+        <v>156</v>
+      </c>
+      <c r="H87" t="str">
+        <f t="shared" si="6"/>
+        <v>Lower6SecLocalViolation</v>
+      </c>
+      <c r="I87" t="s">
+        <v>157</v>
+      </c>
+      <c r="J87" t="s">
+        <v>158</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="L87" t="s">
+        <v>155</v>
+      </c>
+      <c r="N87" t="str">
         <f t="shared" si="8"/>
-        <v>85</v>
-      </c>
-      <c r="E87" t="s">
-        <v>184</v>
-      </c>
-      <c r="G87" t="s">
-        <v>208</v>
-      </c>
-      <c r="H87" t="str">
-        <f t="shared" si="9"/>
-        <v>Raise5MinViolation</v>
-      </c>
-      <c r="I87" t="s">
-        <v>209</v>
-      </c>
-      <c r="J87" t="s">
-        <v>210</v>
-      </c>
-      <c r="K87">
-        <f t="shared" si="10"/>
-        <v>85</v>
-      </c>
-      <c r="L87" t="s">
-        <v>207</v>
-      </c>
-      <c r="N87" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.Raise5MinViolation = CSVDoubleValue(line[85]);</v>
+        <v>dto.Lower6SecLocalViolation = CSVDoubleValue(line[85]);</v>
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C88">
+        <f>C87+1</f>
+        <v>86</v>
+      </c>
+      <c r="E88" t="s">
+        <v>136</v>
+      </c>
+      <c r="G88" t="s">
+        <v>156</v>
+      </c>
+      <c r="H88" t="str">
+        <f t="shared" si="6"/>
+        <v>Raise5MinViolation</v>
+      </c>
+      <c r="I88" t="s">
+        <v>157</v>
+      </c>
+      <c r="J88" t="s">
+        <v>158</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="L88" t="s">
+        <v>155</v>
+      </c>
+      <c r="N88" t="str">
         <f t="shared" si="8"/>
-        <v>86</v>
-      </c>
-      <c r="E88" t="s">
-        <v>185</v>
-      </c>
-      <c r="G88" t="s">
-        <v>208</v>
-      </c>
-      <c r="H88" t="str">
-        <f t="shared" si="9"/>
-        <v>RaiseRegViolation</v>
-      </c>
-      <c r="I88" t="s">
-        <v>209</v>
-      </c>
-      <c r="J88" t="s">
-        <v>210</v>
-      </c>
-      <c r="K88">
-        <f t="shared" si="10"/>
-        <v>86</v>
-      </c>
-      <c r="L88" t="s">
-        <v>207</v>
-      </c>
-      <c r="N88" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.RaiseRegViolation = CSVDoubleValue(line[86]);</v>
+        <v>dto.Raise5MinViolation = CSVDoubleValue(line[86]);</v>
       </c>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C89">
+        <f>C88+1</f>
+        <v>87</v>
+      </c>
+      <c r="E89" t="s">
+        <v>137</v>
+      </c>
+      <c r="G89" t="s">
+        <v>156</v>
+      </c>
+      <c r="H89" t="str">
+        <f t="shared" si="6"/>
+        <v>RaiseRegViolation</v>
+      </c>
+      <c r="I89" t="s">
+        <v>157</v>
+      </c>
+      <c r="J89" t="s">
+        <v>158</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+      <c r="L89" t="s">
+        <v>155</v>
+      </c>
+      <c r="N89" t="str">
         <f t="shared" si="8"/>
-        <v>87</v>
-      </c>
-      <c r="E89" t="s">
-        <v>186</v>
-      </c>
-      <c r="G89" t="s">
-        <v>208</v>
-      </c>
-      <c r="H89" t="str">
-        <f t="shared" si="9"/>
-        <v>Raise60SecViolation</v>
-      </c>
-      <c r="I89" t="s">
-        <v>209</v>
-      </c>
-      <c r="J89" t="s">
-        <v>210</v>
-      </c>
-      <c r="K89">
-        <f t="shared" si="10"/>
-        <v>87</v>
-      </c>
-      <c r="L89" t="s">
-        <v>207</v>
-      </c>
-      <c r="N89" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.Raise60SecViolation = CSVDoubleValue(line[87]);</v>
+        <v>dto.RaiseRegViolation = CSVDoubleValue(line[87]);</v>
       </c>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C90">
+        <f>C89+1</f>
+        <v>88</v>
+      </c>
+      <c r="E90" t="s">
+        <v>138</v>
+      </c>
+      <c r="G90" t="s">
+        <v>156</v>
+      </c>
+      <c r="H90" t="str">
+        <f t="shared" si="6"/>
+        <v>Raise60SecViolation</v>
+      </c>
+      <c r="I90" t="s">
+        <v>157</v>
+      </c>
+      <c r="J90" t="s">
+        <v>158</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
+      <c r="L90" t="s">
+        <v>155</v>
+      </c>
+      <c r="N90" t="str">
         <f t="shared" si="8"/>
-        <v>88</v>
-      </c>
-      <c r="E90" t="s">
-        <v>187</v>
-      </c>
-      <c r="G90" t="s">
-        <v>208</v>
-      </c>
-      <c r="H90" t="str">
-        <f t="shared" si="9"/>
-        <v>Raise6SecViolation</v>
-      </c>
-      <c r="I90" t="s">
-        <v>209</v>
-      </c>
-      <c r="J90" t="s">
-        <v>210</v>
-      </c>
-      <c r="K90">
-        <f t="shared" si="10"/>
-        <v>88</v>
-      </c>
-      <c r="L90" t="s">
-        <v>207</v>
-      </c>
-      <c r="N90" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.Raise6SecViolation = CSVDoubleValue(line[88]);</v>
+        <v>dto.Raise60SecViolation = CSVDoubleValue(line[88]);</v>
       </c>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C91">
+        <f>C90+1</f>
+        <v>89</v>
+      </c>
+      <c r="E91" t="s">
+        <v>139</v>
+      </c>
+      <c r="G91" t="s">
+        <v>156</v>
+      </c>
+      <c r="H91" t="str">
+        <f t="shared" si="6"/>
+        <v>Raise6SecViolation</v>
+      </c>
+      <c r="I91" t="s">
+        <v>157</v>
+      </c>
+      <c r="J91" t="s">
+        <v>158</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="7"/>
+        <v>89</v>
+      </c>
+      <c r="L91" t="s">
+        <v>155</v>
+      </c>
+      <c r="N91" t="str">
         <f t="shared" si="8"/>
-        <v>89</v>
-      </c>
-      <c r="E91" t="s">
-        <v>188</v>
-      </c>
-      <c r="G91" t="s">
-        <v>208</v>
-      </c>
-      <c r="H91" t="str">
-        <f t="shared" si="9"/>
-        <v>Lower5MinViolation</v>
-      </c>
-      <c r="I91" t="s">
-        <v>209</v>
-      </c>
-      <c r="J91" t="s">
-        <v>210</v>
-      </c>
-      <c r="K91">
-        <f t="shared" si="10"/>
-        <v>89</v>
-      </c>
-      <c r="L91" t="s">
-        <v>207</v>
-      </c>
-      <c r="N91" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.Lower5MinViolation = CSVDoubleValue(line[89]);</v>
+        <v>dto.Raise6SecViolation = CSVDoubleValue(line[89]);</v>
       </c>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C92">
+        <f>C91+1</f>
+        <v>90</v>
+      </c>
+      <c r="E92" t="s">
+        <v>140</v>
+      </c>
+      <c r="G92" t="s">
+        <v>156</v>
+      </c>
+      <c r="H92" t="str">
+        <f t="shared" si="6"/>
+        <v>Lower5MinViolation</v>
+      </c>
+      <c r="I92" t="s">
+        <v>157</v>
+      </c>
+      <c r="J92" t="s">
+        <v>158</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="L92" t="s">
+        <v>155</v>
+      </c>
+      <c r="N92" t="str">
         <f t="shared" si="8"/>
-        <v>90</v>
-      </c>
-      <c r="E92" t="s">
-        <v>189</v>
-      </c>
-      <c r="G92" t="s">
-        <v>208</v>
-      </c>
-      <c r="H92" t="str">
-        <f t="shared" si="9"/>
-        <v>LowerRegViolation</v>
-      </c>
-      <c r="I92" t="s">
-        <v>209</v>
-      </c>
-      <c r="J92" t="s">
-        <v>210</v>
-      </c>
-      <c r="K92">
-        <f t="shared" si="10"/>
-        <v>90</v>
-      </c>
-      <c r="L92" t="s">
-        <v>207</v>
-      </c>
-      <c r="N92" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.LowerRegViolation = CSVDoubleValue(line[90]);</v>
+        <v>dto.Lower5MinViolation = CSVDoubleValue(line[90]);</v>
       </c>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C93">
+        <f>C92+1</f>
+        <v>91</v>
+      </c>
+      <c r="E93" t="s">
+        <v>141</v>
+      </c>
+      <c r="G93" t="s">
+        <v>156</v>
+      </c>
+      <c r="H93" t="str">
+        <f t="shared" si="6"/>
+        <v>LowerRegViolation</v>
+      </c>
+      <c r="I93" t="s">
+        <v>157</v>
+      </c>
+      <c r="J93" t="s">
+        <v>158</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="7"/>
+        <v>91</v>
+      </c>
+      <c r="L93" t="s">
+        <v>155</v>
+      </c>
+      <c r="N93" t="str">
         <f t="shared" si="8"/>
-        <v>91</v>
-      </c>
-      <c r="E93" t="s">
-        <v>190</v>
-      </c>
-      <c r="G93" t="s">
-        <v>208</v>
-      </c>
-      <c r="H93" t="str">
-        <f t="shared" si="9"/>
-        <v>Lower60SecViolation</v>
-      </c>
-      <c r="I93" t="s">
-        <v>209</v>
-      </c>
-      <c r="J93" t="s">
-        <v>210</v>
-      </c>
-      <c r="K93">
-        <f t="shared" si="10"/>
-        <v>91</v>
-      </c>
-      <c r="L93" t="s">
-        <v>207</v>
-      </c>
-      <c r="N93" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.Lower60SecViolation = CSVDoubleValue(line[91]);</v>
+        <v>dto.LowerRegViolation = CSVDoubleValue(line[91]);</v>
       </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C94">
+        <f>C93+1</f>
+        <v>92</v>
+      </c>
+      <c r="E94" t="s">
+        <v>142</v>
+      </c>
+      <c r="G94" t="s">
+        <v>156</v>
+      </c>
+      <c r="H94" t="str">
+        <f t="shared" si="6"/>
+        <v>Lower60SecViolation</v>
+      </c>
+      <c r="I94" t="s">
+        <v>157</v>
+      </c>
+      <c r="J94" t="s">
+        <v>158</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="7"/>
+        <v>92</v>
+      </c>
+      <c r="L94" t="s">
+        <v>155</v>
+      </c>
+      <c r="N94" t="str">
         <f t="shared" si="8"/>
-        <v>92</v>
-      </c>
-      <c r="E94" t="s">
-        <v>191</v>
-      </c>
-      <c r="G94" t="s">
-        <v>208</v>
-      </c>
-      <c r="H94" t="str">
-        <f t="shared" si="9"/>
-        <v>Lower6SecViolation</v>
-      </c>
-      <c r="I94" t="s">
-        <v>209</v>
-      </c>
-      <c r="J94" t="s">
-        <v>210</v>
-      </c>
-      <c r="K94">
-        <f t="shared" si="10"/>
-        <v>92</v>
-      </c>
-      <c r="L94" t="s">
-        <v>207</v>
-      </c>
-      <c r="N94" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.Lower6SecViolation = CSVDoubleValue(line[92]);</v>
+        <v>dto.Lower60SecViolation = CSVDoubleValue(line[92]);</v>
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="C95">
+        <f>C94+1</f>
+        <v>93</v>
+      </c>
+      <c r="E95" t="s">
+        <v>143</v>
+      </c>
+      <c r="G95" t="s">
+        <v>156</v>
+      </c>
+      <c r="H95" t="str">
+        <f t="shared" si="6"/>
+        <v>Lower6SecViolation</v>
+      </c>
+      <c r="I95" t="s">
+        <v>157</v>
+      </c>
+      <c r="J95" t="s">
+        <v>158</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="7"/>
+        <v>93</v>
+      </c>
+      <c r="L95" t="s">
+        <v>155</v>
+      </c>
+      <c r="N95" t="str">
         <f t="shared" si="8"/>
-        <v>93</v>
-      </c>
-      <c r="E95" t="s">
-        <v>192</v>
-      </c>
-      <c r="G95" t="s">
-        <v>208</v>
-      </c>
-      <c r="H95" t="str">
-        <f t="shared" si="9"/>
-        <v>LastChanged</v>
-      </c>
-      <c r="I95" t="s">
-        <v>209</v>
-      </c>
-      <c r="J95" t="s">
-        <v>213</v>
-      </c>
-      <c r="K95">
-        <f t="shared" si="10"/>
-        <v>93</v>
-      </c>
-      <c r="L95" t="s">
-        <v>207</v>
-      </c>
-      <c r="N95" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.LastChanged = GetDateTime(line[93]);</v>
+        <v>dto.Lower6SecViolation = CSVDoubleValue(line[93]);</v>
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>93</v>
+        <v>414</v>
       </c>
       <c r="C96">
+        <f>C95+1</f>
+        <v>94</v>
+      </c>
+      <c r="E96" t="s">
+        <v>451</v>
+      </c>
+      <c r="G96" t="s">
+        <v>156</v>
+      </c>
+      <c r="H96" t="str">
+        <f t="shared" si="6"/>
+        <v>Raise6SecActualAvailability</v>
+      </c>
+      <c r="I96" t="s">
+        <v>157</v>
+      </c>
+      <c r="J96" t="s">
+        <v>158</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="L96" t="s">
+        <v>155</v>
+      </c>
+      <c r="N96" t="str">
         <f t="shared" si="8"/>
-        <v>94</v>
-      </c>
-      <c r="E96" t="s">
-        <v>193</v>
-      </c>
-      <c r="G96" t="s">
-        <v>208</v>
-      </c>
-      <c r="H96" t="str">
-        <f t="shared" si="9"/>
-        <v>TotalIntermittentGeneration</v>
-      </c>
-      <c r="I96" t="s">
-        <v>209</v>
-      </c>
-      <c r="J96" t="s">
-        <v>210</v>
-      </c>
-      <c r="K96">
-        <f t="shared" si="10"/>
-        <v>94</v>
-      </c>
-      <c r="L96" t="s">
-        <v>207</v>
-      </c>
-      <c r="N96" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.TotalIntermittentGeneration = CSVDoubleValue(line[94]);</v>
+        <v>dto.Raise6SecActualAvailability = CSVDoubleValue(line[94]);</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>94</v>
+        <v>415</v>
       </c>
       <c r="C97">
+        <f>C96+1</f>
+        <v>95</v>
+      </c>
+      <c r="E97" t="s">
+        <v>452</v>
+      </c>
+      <c r="G97" t="s">
+        <v>156</v>
+      </c>
+      <c r="H97" t="str">
+        <f t="shared" si="6"/>
+        <v>Raise60SecActualAvailability</v>
+      </c>
+      <c r="I97" t="s">
+        <v>157</v>
+      </c>
+      <c r="J97" t="s">
+        <v>158</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="7"/>
+        <v>95</v>
+      </c>
+      <c r="L97" t="s">
+        <v>155</v>
+      </c>
+      <c r="N97" t="str">
         <f t="shared" si="8"/>
-        <v>95</v>
-      </c>
-      <c r="E97" t="s">
-        <v>194</v>
-      </c>
-      <c r="G97" t="s">
-        <v>208</v>
-      </c>
-      <c r="H97" t="str">
-        <f t="shared" si="9"/>
-        <v>DemandAndNonSchedgen</v>
-      </c>
-      <c r="I97" t="s">
-        <v>209</v>
-      </c>
-      <c r="J97" t="s">
-        <v>210</v>
-      </c>
-      <c r="K97">
-        <f t="shared" si="10"/>
-        <v>95</v>
-      </c>
-      <c r="L97" t="s">
-        <v>207</v>
-      </c>
-      <c r="N97" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.DemandAndNonSchedgen = CSVDoubleValue(line[95]);</v>
+        <v>dto.Raise60SecActualAvailability = CSVDoubleValue(line[95]);</v>
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>95</v>
+        <v>416</v>
       </c>
       <c r="C98">
+        <f>C97+1</f>
+        <v>96</v>
+      </c>
+      <c r="E98" t="s">
+        <v>453</v>
+      </c>
+      <c r="G98" t="s">
+        <v>156</v>
+      </c>
+      <c r="H98" t="str">
+        <f t="shared" si="6"/>
+        <v>Raise5MinActualAvailability</v>
+      </c>
+      <c r="I98" t="s">
+        <v>157</v>
+      </c>
+      <c r="J98" t="s">
+        <v>158</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="7"/>
+        <v>96</v>
+      </c>
+      <c r="L98" t="s">
+        <v>155</v>
+      </c>
+      <c r="N98" t="str">
         <f t="shared" si="8"/>
-        <v>96</v>
-      </c>
-      <c r="E98" t="s">
-        <v>195</v>
-      </c>
-      <c r="G98" t="s">
-        <v>208</v>
-      </c>
-      <c r="H98" t="str">
-        <f t="shared" si="9"/>
-        <v>Uigf</v>
-      </c>
-      <c r="I98" t="s">
-        <v>209</v>
-      </c>
-      <c r="J98" t="s">
-        <v>210</v>
-      </c>
-      <c r="K98">
-        <f t="shared" si="10"/>
-        <v>96</v>
-      </c>
-      <c r="L98" t="s">
-        <v>207</v>
-      </c>
-      <c r="N98" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.Uigf = CSVDoubleValue(line[96]);</v>
+        <v>dto.Raise5MinActualAvailability = CSVDoubleValue(line[96]);</v>
       </c>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>96</v>
+        <v>417</v>
       </c>
       <c r="C99">
-        <f t="shared" ref="C99:C109" si="12">C98+1</f>
+        <f>C98+1</f>
         <v>97</v>
       </c>
       <c r="E99" t="s">
-        <v>196</v>
+        <v>454</v>
       </c>
       <c r="G99" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H99" t="str">
-        <f t="shared" si="9"/>
-        <v>SemiScheduleClearedMw</v>
+        <f t="shared" si="6"/>
+        <v>RaiseRegActualAvailability</v>
       </c>
       <c r="I99" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J99" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>97</v>
       </c>
       <c r="L99" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N99" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.SemiScheduleClearedMw = CSVDoubleValue(line[97]);</v>
+        <f t="shared" si="8"/>
+        <v>dto.RaiseRegActualAvailability = CSVDoubleValue(line[97]);</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>97</v>
+        <v>418</v>
       </c>
       <c r="C100">
-        <f t="shared" si="12"/>
+        <f>C99+1</f>
         <v>98</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>455</v>
       </c>
       <c r="G100" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" si="9"/>
-        <v>SemiScheduleComplianceMw</v>
+        <f t="shared" si="6"/>
+        <v>Lower6SecActualAvailability</v>
       </c>
       <c r="I100" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="J100" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="K100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="L100" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="N100" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.SemiScheduleComplianceMw = CSVDoubleValue(line[98]);</v>
+        <f t="shared" si="8"/>
+        <v>dto.Lower6SecActualAvailability = CSVDoubleValue(line[98]);</v>
       </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>98</v>
+        <v>419</v>
       </c>
       <c r="C101">
-        <f t="shared" si="12"/>
+        <f>C100+1</f>
         <v>99</v>
       </c>
       <c r="E101" t="s">
-        <v>198</v>
+        <v>456</v>
       </c>
       <c r="G101" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="H101" t="str">
+        <f t="shared" si="6"/>
+        <v>Lower60SecActualAvailability</v>
+      </c>
+      <c r="I101" t="s">
+        <v>157</v>
+      </c>
+      <c r="J101" t="s">
+        <v>158</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
+      <c r="L101" t="s">
+        <v>155</v>
+      </c>
+      <c r="N101" t="str">
+        <f t="shared" si="8"/>
+        <v>dto.Lower60SecActualAvailability = CSVDoubleValue(line[99]);</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>420</v>
+      </c>
+      <c r="C102">
+        <f>C101+1</f>
+        <v>100</v>
+      </c>
+      <c r="E102" t="s">
+        <v>457</v>
+      </c>
+      <c r="G102" t="s">
+        <v>156</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="6"/>
+        <v>Lower5MinActualAvailability</v>
+      </c>
+      <c r="I102" t="s">
+        <v>157</v>
+      </c>
+      <c r="J102" t="s">
+        <v>158</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="L102" t="s">
+        <v>155</v>
+      </c>
+      <c r="N102" t="str">
+        <f t="shared" si="8"/>
+        <v>dto.Lower5MinActualAvailability = CSVDoubleValue(line[100]);</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>421</v>
+      </c>
+      <c r="C103">
+        <f>C102+1</f>
+        <v>101</v>
+      </c>
+      <c r="E103" t="s">
+        <v>458</v>
+      </c>
+      <c r="G103" t="s">
+        <v>156</v>
+      </c>
+      <c r="H103" t="str">
+        <f t="shared" si="6"/>
+        <v>LowerRegActualAvailability</v>
+      </c>
+      <c r="I103" t="s">
+        <v>157</v>
+      </c>
+      <c r="J103" t="s">
+        <v>158</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="7"/>
+        <v>101</v>
+      </c>
+      <c r="L103" t="s">
+        <v>155</v>
+      </c>
+      <c r="N103" t="str">
+        <f t="shared" si="8"/>
+        <v>dto.LowerRegActualAvailability = CSVDoubleValue(line[101]);</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>422</v>
+      </c>
+      <c r="C104">
+        <f>C103+1</f>
+        <v>102</v>
+      </c>
+      <c r="E104" t="s">
+        <v>459</v>
+      </c>
+      <c r="G104" t="s">
+        <v>156</v>
+      </c>
+      <c r="H104" t="str">
+        <f t="shared" si="6"/>
+        <v>lorsurplus</v>
+      </c>
+      <c r="I104" t="s">
+        <v>157</v>
+      </c>
+      <c r="J104" t="s">
+        <v>158</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="7"/>
+        <v>102</v>
+      </c>
+      <c r="L104" t="s">
+        <v>155</v>
+      </c>
+      <c r="N104" t="str">
+        <f t="shared" si="8"/>
+        <v>dto.lorsurplus = CSVDoubleValue(line[102]);</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>423</v>
+      </c>
+      <c r="C105">
+        <f>C104+1</f>
+        <v>103</v>
+      </c>
+      <c r="E105" t="s">
+        <v>460</v>
+      </c>
+      <c r="G105" t="s">
+        <v>156</v>
+      </c>
+      <c r="H105" t="str">
+        <f t="shared" si="6"/>
+        <v>lrcsurplus</v>
+      </c>
+      <c r="I105" t="s">
+        <v>157</v>
+      </c>
+      <c r="J105" t="s">
+        <v>158</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="7"/>
+        <v>103</v>
+      </c>
+      <c r="L105" t="s">
+        <v>155</v>
+      </c>
+      <c r="N105" t="str">
+        <f t="shared" si="8"/>
+        <v>dto.lrcsurplus = CSVDoubleValue(line[103]);</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>69</v>
+      </c>
+      <c r="C106">
+        <f>C105+1</f>
+        <v>104</v>
+      </c>
+      <c r="E106" t="s">
+        <v>461</v>
+      </c>
+      <c r="G106" t="s">
+        <v>156</v>
+      </c>
+      <c r="H106" t="str">
+        <f t="shared" si="6"/>
+        <v>TotalintermittentGeneration</v>
+      </c>
+      <c r="I106" t="s">
+        <v>157</v>
+      </c>
+      <c r="J106" t="s">
+        <v>158</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="7"/>
+        <v>104</v>
+      </c>
+      <c r="L106" t="s">
+        <v>155</v>
+      </c>
+      <c r="N106" t="str">
+        <f t="shared" si="8"/>
+        <v>dto.TotalintermittentGeneration = CSVDoubleValue(line[104]);</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>70</v>
+      </c>
+      <c r="C107">
+        <f>C106+1</f>
+        <v>105</v>
+      </c>
+      <c r="E107" t="s">
+        <v>462</v>
+      </c>
+      <c r="G107" t="s">
+        <v>156</v>
+      </c>
+      <c r="H107" t="str">
+        <f t="shared" si="6"/>
+        <v>DemandandNonschedgen</v>
+      </c>
+      <c r="I107" t="s">
+        <v>157</v>
+      </c>
+      <c r="J107" t="s">
+        <v>158</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="7"/>
+        <v>105</v>
+      </c>
+      <c r="L107" t="s">
+        <v>155</v>
+      </c>
+      <c r="N107" t="str">
+        <f t="shared" si="8"/>
+        <v>dto.DemandandNonschedgen = CSVDoubleValue(line[105]);</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>71</v>
+      </c>
+      <c r="C108">
+        <f>C107+1</f>
+        <v>106</v>
+      </c>
+      <c r="E108" t="s">
+        <v>145</v>
+      </c>
+      <c r="G108" t="s">
+        <v>156</v>
+      </c>
+      <c r="H108" t="str">
+        <f t="shared" si="6"/>
+        <v>Uigf</v>
+      </c>
+      <c r="I108" t="s">
+        <v>157</v>
+      </c>
+      <c r="J108" t="s">
+        <v>158</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="7"/>
+        <v>106</v>
+      </c>
+      <c r="L108" t="s">
+        <v>155</v>
+      </c>
+      <c r="N108" t="str">
+        <f t="shared" si="8"/>
+        <v>dto.Uigf = CSVDoubleValue(line[106]);</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>72</v>
+      </c>
+      <c r="C109">
+        <f>C108+1</f>
+        <v>107</v>
+      </c>
+      <c r="E109" t="s">
+        <v>463</v>
+      </c>
+      <c r="G109" t="s">
+        <v>156</v>
+      </c>
+      <c r="H109" t="str">
+        <f t="shared" si="6"/>
+        <v>SemischeduleClearedMw</v>
+      </c>
+      <c r="I109" t="s">
+        <v>157</v>
+      </c>
+      <c r="J109" t="s">
+        <v>158</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="7"/>
+        <v>107</v>
+      </c>
+      <c r="L109" t="s">
+        <v>155</v>
+      </c>
+      <c r="N109" t="str">
+        <f t="shared" si="8"/>
+        <v>dto.SemischeduleClearedMw = CSVDoubleValue(line[107]);</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>73</v>
+      </c>
+      <c r="C110">
+        <f>C109+1</f>
+        <v>108</v>
+      </c>
+      <c r="E110" t="s">
+        <v>464</v>
+      </c>
+      <c r="G110" t="s">
+        <v>156</v>
+      </c>
+      <c r="H110" t="str">
+        <f t="shared" ref="H110:H119" si="9">E110</f>
+        <v>SemischeduleComplianceMw</v>
+      </c>
+      <c r="I110" t="s">
+        <v>157</v>
+      </c>
+      <c r="J110" t="s">
+        <v>158</v>
+      </c>
+      <c r="K110">
+        <f t="shared" ref="K110:K119" si="10">C110</f>
+        <v>108</v>
+      </c>
+      <c r="L110" t="s">
+        <v>155</v>
+      </c>
+      <c r="N110" t="str">
+        <f t="shared" si="8"/>
+        <v>dto.SemischeduleComplianceMw = CSVDoubleValue(line[108]);</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>74</v>
+      </c>
+      <c r="C111">
+        <f>C110+1</f>
+        <v>109</v>
+      </c>
+      <c r="E111" t="s">
+        <v>146</v>
+      </c>
+      <c r="G111" t="s">
+        <v>156</v>
+      </c>
+      <c r="H111" t="str">
         <f t="shared" si="9"/>
         <v>SsSolarUigf</v>
       </c>
-      <c r="I101" t="s">
-        <v>209</v>
-      </c>
-      <c r="J101" t="s">
-        <v>210</v>
-      </c>
-      <c r="K101">
+      <c r="I111" t="s">
+        <v>157</v>
+      </c>
+      <c r="J111" t="s">
+        <v>158</v>
+      </c>
+      <c r="K111">
         <f t="shared" si="10"/>
-        <v>99</v>
-      </c>
-      <c r="L101" t="s">
-        <v>207</v>
-      </c>
-      <c r="N101" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.SsSolarUigf = CSVDoubleValue(line[99]);</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B102" t="s">
-        <v>99</v>
-      </c>
-      <c r="C102">
-        <f t="shared" si="12"/>
-        <v>100</v>
-      </c>
-      <c r="E102" t="s">
-        <v>199</v>
-      </c>
-      <c r="G102" t="s">
-        <v>208</v>
-      </c>
-      <c r="H102" t="str">
+        <v>109</v>
+      </c>
+      <c r="L111" t="s">
+        <v>155</v>
+      </c>
+      <c r="N111" t="str">
+        <f t="shared" si="8"/>
+        <v>dto.SsSolarUigf = CSVDoubleValue(line[109]);</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>75</v>
+      </c>
+      <c r="C112">
+        <f>C111+1</f>
+        <v>110</v>
+      </c>
+      <c r="E112" t="s">
+        <v>147</v>
+      </c>
+      <c r="G112" t="s">
+        <v>156</v>
+      </c>
+      <c r="H112" t="str">
         <f t="shared" si="9"/>
         <v>SsWindUigf</v>
       </c>
-      <c r="I102" t="s">
-        <v>209</v>
-      </c>
-      <c r="J102" t="s">
-        <v>210</v>
-      </c>
-      <c r="K102">
+      <c r="I112" t="s">
+        <v>157</v>
+      </c>
+      <c r="J112" t="s">
+        <v>158</v>
+      </c>
+      <c r="K112">
         <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="L102" t="s">
-        <v>207</v>
-      </c>
-      <c r="N102" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.SsWindUigf = CSVDoubleValue(line[100]);</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B103" t="s">
-        <v>100</v>
-      </c>
-      <c r="C103">
-        <f t="shared" si="12"/>
-        <v>101</v>
-      </c>
-      <c r="E103" t="s">
-        <v>200</v>
-      </c>
-      <c r="G103" t="s">
-        <v>208</v>
-      </c>
-      <c r="H103" t="str">
+        <v>110</v>
+      </c>
+      <c r="L112" t="s">
+        <v>155</v>
+      </c>
+      <c r="N112" t="str">
+        <f t="shared" si="8"/>
+        <v>dto.SsWindUigf = CSVDoubleValue(line[110]);</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>76</v>
+      </c>
+      <c r="C113">
+        <f>C112+1</f>
+        <v>111</v>
+      </c>
+      <c r="E113" t="s">
+        <v>148</v>
+      </c>
+      <c r="G113" t="s">
+        <v>156</v>
+      </c>
+      <c r="H113" t="str">
         <f t="shared" si="9"/>
         <v>SsSolarClearedMw</v>
       </c>
-      <c r="I103" t="s">
-        <v>209</v>
-      </c>
-      <c r="J103" t="s">
-        <v>210</v>
-      </c>
-      <c r="K103">
+      <c r="I113" t="s">
+        <v>157</v>
+      </c>
+      <c r="J113" t="s">
+        <v>158</v>
+      </c>
+      <c r="K113">
         <f t="shared" si="10"/>
-        <v>101</v>
-      </c>
-      <c r="L103" t="s">
-        <v>207</v>
-      </c>
-      <c r="N103" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.SsSolarClearedMw = CSVDoubleValue(line[101]);</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B104" t="s">
-        <v>101</v>
-      </c>
-      <c r="C104">
-        <f t="shared" si="12"/>
-        <v>102</v>
-      </c>
-      <c r="E104" t="s">
-        <v>201</v>
-      </c>
-      <c r="G104" t="s">
-        <v>208</v>
-      </c>
-      <c r="H104" t="str">
+        <v>111</v>
+      </c>
+      <c r="L113" t="s">
+        <v>155</v>
+      </c>
+      <c r="N113" t="str">
+        <f t="shared" si="8"/>
+        <v>dto.SsSolarClearedMw = CSVDoubleValue(line[111]);</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114">
+        <f>C113+1</f>
+        <v>112</v>
+      </c>
+      <c r="E114" t="s">
+        <v>149</v>
+      </c>
+      <c r="G114" t="s">
+        <v>156</v>
+      </c>
+      <c r="H114" t="str">
         <f t="shared" si="9"/>
         <v>SsWindClearedMw</v>
       </c>
-      <c r="I104" t="s">
-        <v>209</v>
-      </c>
-      <c r="J104" t="s">
-        <v>210</v>
-      </c>
-      <c r="K104">
+      <c r="I114" t="s">
+        <v>157</v>
+      </c>
+      <c r="J114" t="s">
+        <v>158</v>
+      </c>
+      <c r="K114">
         <f t="shared" si="10"/>
-        <v>102</v>
-      </c>
-      <c r="L104" t="s">
-        <v>207</v>
-      </c>
-      <c r="N104" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.SsWindClearedMw = CSVDoubleValue(line[102]);</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B105" t="s">
-        <v>102</v>
-      </c>
-      <c r="C105">
-        <f t="shared" si="12"/>
-        <v>103</v>
-      </c>
-      <c r="E105" t="s">
-        <v>202</v>
-      </c>
-      <c r="G105" t="s">
-        <v>208</v>
-      </c>
-      <c r="H105" t="str">
+        <v>112</v>
+      </c>
+      <c r="L114" t="s">
+        <v>155</v>
+      </c>
+      <c r="N114" t="str">
+        <f t="shared" si="8"/>
+        <v>dto.SsWindClearedMw = CSVDoubleValue(line[112]);</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>78</v>
+      </c>
+      <c r="C115">
+        <f>C114+1</f>
+        <v>113</v>
+      </c>
+      <c r="E115" t="s">
+        <v>150</v>
+      </c>
+      <c r="G115" t="s">
+        <v>156</v>
+      </c>
+      <c r="H115" t="str">
         <f t="shared" si="9"/>
         <v>SsSolarComplianceMw</v>
       </c>
-      <c r="I105" t="s">
-        <v>209</v>
-      </c>
-      <c r="J105" t="s">
-        <v>210</v>
-      </c>
-      <c r="K105">
+      <c r="I115" t="s">
+        <v>157</v>
+      </c>
+      <c r="J115" t="s">
+        <v>158</v>
+      </c>
+      <c r="K115">
         <f t="shared" si="10"/>
-        <v>103</v>
-      </c>
-      <c r="L105" t="s">
-        <v>207</v>
-      </c>
-      <c r="N105" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.SsSolarComplianceMw = CSVDoubleValue(line[103]);</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B106" t="s">
-        <v>103</v>
-      </c>
-      <c r="C106">
-        <f t="shared" si="12"/>
-        <v>104</v>
-      </c>
-      <c r="E106" t="s">
-        <v>203</v>
-      </c>
-      <c r="G106" t="s">
-        <v>208</v>
-      </c>
-      <c r="H106" t="str">
+        <v>113</v>
+      </c>
+      <c r="L115" t="s">
+        <v>155</v>
+      </c>
+      <c r="N115" t="str">
+        <f t="shared" si="8"/>
+        <v>dto.SsSolarComplianceMw = CSVDoubleValue(line[113]);</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>79</v>
+      </c>
+      <c r="C116">
+        <f>C115+1</f>
+        <v>114</v>
+      </c>
+      <c r="E116" t="s">
+        <v>151</v>
+      </c>
+      <c r="G116" t="s">
+        <v>156</v>
+      </c>
+      <c r="H116" t="str">
         <f t="shared" si="9"/>
         <v>SsWindComplianceMw</v>
       </c>
-      <c r="I106" t="s">
-        <v>209</v>
-      </c>
-      <c r="J106" t="s">
-        <v>210</v>
-      </c>
-      <c r="K106">
+      <c r="I116" t="s">
+        <v>157</v>
+      </c>
+      <c r="J116" t="s">
+        <v>158</v>
+      </c>
+      <c r="K116">
         <f t="shared" si="10"/>
-        <v>104</v>
-      </c>
-      <c r="L106" t="s">
-        <v>207</v>
-      </c>
-      <c r="N106" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.SsWindComplianceMw = CSVDoubleValue(line[104]);</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B107" t="s">
-        <v>104</v>
-      </c>
-      <c r="C107">
-        <f t="shared" si="12"/>
-        <v>105</v>
-      </c>
-      <c r="E107" t="s">
-        <v>204</v>
-      </c>
-      <c r="G107" t="s">
-        <v>208</v>
-      </c>
-      <c r="H107" t="str">
+        <v>114</v>
+      </c>
+      <c r="L116" t="s">
+        <v>155</v>
+      </c>
+      <c r="N116" t="str">
+        <f t="shared" si="8"/>
+        <v>dto.SsWindComplianceMw = CSVDoubleValue(line[114]);</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>80</v>
+      </c>
+      <c r="C117">
+        <f>C116+1</f>
+        <v>115</v>
+      </c>
+      <c r="E117" t="s">
+        <v>152</v>
+      </c>
+      <c r="G117" t="s">
+        <v>156</v>
+      </c>
+      <c r="H117" t="str">
         <f t="shared" si="9"/>
         <v>WdrInitialMw</v>
       </c>
-      <c r="I107" t="s">
-        <v>209</v>
-      </c>
-      <c r="J107" t="s">
-        <v>210</v>
-      </c>
-      <c r="K107">
+      <c r="I117" t="s">
+        <v>157</v>
+      </c>
+      <c r="J117" t="s">
+        <v>158</v>
+      </c>
+      <c r="K117">
         <f t="shared" si="10"/>
-        <v>105</v>
-      </c>
-      <c r="L107" t="s">
-        <v>207</v>
-      </c>
-      <c r="N107" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.WdrInitialMw = CSVDoubleValue(line[105]);</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B108" t="s">
-        <v>105</v>
-      </c>
-      <c r="C108">
-        <f t="shared" si="12"/>
-        <v>106</v>
-      </c>
-      <c r="E108" t="s">
-        <v>205</v>
-      </c>
-      <c r="G108" t="s">
-        <v>208</v>
-      </c>
-      <c r="H108" t="str">
+        <v>115</v>
+      </c>
+      <c r="L117" t="s">
+        <v>155</v>
+      </c>
+      <c r="N117" t="str">
+        <f t="shared" si="8"/>
+        <v>dto.WdrInitialMw = CSVDoubleValue(line[115]);</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>81</v>
+      </c>
+      <c r="C118">
+        <f>C117+1</f>
+        <v>116</v>
+      </c>
+      <c r="E118" t="s">
+        <v>153</v>
+      </c>
+      <c r="G118" t="s">
+        <v>156</v>
+      </c>
+      <c r="H118" t="str">
         <f t="shared" si="9"/>
         <v>WdrAvailable</v>
       </c>
-      <c r="I108" t="s">
-        <v>209</v>
-      </c>
-      <c r="J108" t="s">
-        <v>210</v>
-      </c>
-      <c r="K108">
+      <c r="I118" t="s">
+        <v>157</v>
+      </c>
+      <c r="J118" t="s">
+        <v>158</v>
+      </c>
+      <c r="K118">
         <f t="shared" si="10"/>
-        <v>106</v>
-      </c>
-      <c r="L108" t="s">
-        <v>207</v>
-      </c>
-      <c r="N108" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.WdrAvailable = CSVDoubleValue(line[106]);</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B109" t="s">
-        <v>106</v>
-      </c>
-      <c r="C109">
-        <f t="shared" si="12"/>
-        <v>107</v>
-      </c>
-      <c r="E109" t="s">
-        <v>206</v>
-      </c>
-      <c r="G109" t="s">
-        <v>208</v>
-      </c>
-      <c r="H109" t="str">
+        <v>116</v>
+      </c>
+      <c r="L118" t="s">
+        <v>155</v>
+      </c>
+      <c r="N118" t="str">
+        <f t="shared" si="8"/>
+        <v>dto.WdrAvailable = CSVDoubleValue(line[116]);</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>82</v>
+      </c>
+      <c r="C119">
+        <f>C118+1</f>
+        <v>117</v>
+      </c>
+      <c r="E119" t="s">
+        <v>154</v>
+      </c>
+      <c r="G119" t="s">
+        <v>156</v>
+      </c>
+      <c r="H119" t="str">
         <f t="shared" si="9"/>
         <v>WdrDispatched</v>
       </c>
-      <c r="I109" t="s">
-        <v>209</v>
-      </c>
-      <c r="J109" t="s">
-        <v>210</v>
-      </c>
-      <c r="K109">
+      <c r="I119" t="s">
+        <v>157</v>
+      </c>
+      <c r="J119" t="s">
+        <v>158</v>
+      </c>
+      <c r="K119">
         <f t="shared" si="10"/>
-        <v>107</v>
-      </c>
-      <c r="L109" t="s">
-        <v>207</v>
-      </c>
-      <c r="N109" t="str">
-        <f t="shared" si="11"/>
-        <v>dto.WdrDispatched = CSVDoubleValue(line[107]);</v>
+        <v>117</v>
+      </c>
+      <c r="L119" t="s">
+        <v>155</v>
+      </c>
+      <c r="N119" t="str">
+        <f t="shared" si="8"/>
+        <v>dto.WdrDispatched = CSVDoubleValue(line[117]);</v>
       </c>
     </row>
   </sheetData>
@@ -6395,8 +7009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35499564-CCC4-5843-8C43-6AFE99B6DD8F}">
   <dimension ref="A1:T104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6416,7 +7030,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6436,15 +7050,15 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" t="s">
-        <v>365</v>
+        <v>310</v>
       </c>
       <c r="T1" t="s">
-        <v>366</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="B2">
         <f>LEN(A2)</f>
@@ -6463,7 +7077,7 @@
         <v>RunTime</v>
       </c>
       <c r="G2" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H65" si="0">VLOOKUP(D2,$S$2:$T$20,2,FALSE)</f>
@@ -6474,15 +7088,15 @@
         <v>run_time date,</v>
       </c>
       <c r="S2" t="s">
-        <v>373</v>
+        <v>318</v>
       </c>
       <c r="T2" t="s">
-        <v>372</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" si="1">LEN(A3)</f>
@@ -6501,7 +7115,7 @@
         <v>Interval</v>
       </c>
       <c r="G3" t="s">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="0"/>
@@ -6512,15 +7126,15 @@
         <v>interval date,</v>
       </c>
       <c r="S3" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="T3" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="B4">
         <f t="shared" si="1"/>
@@ -6539,7 +7153,7 @@
         <v>Region</v>
       </c>
       <c r="G4" t="s">
-        <v>320</v>
+        <v>265</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -6550,15 +7164,15 @@
         <v>region smallint,</v>
       </c>
       <c r="S4" t="s">
-        <v>377</v>
+        <v>322</v>
       </c>
       <c r="T4" t="s">
-        <v>376</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
@@ -6577,7 +7191,7 @@
         <v>Rrp</v>
       </c>
       <c r="G5" t="s">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -6588,15 +7202,15 @@
         <v>rrp double precision,</v>
       </c>
       <c r="S5" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="T5" t="s">
-        <v>378</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
@@ -6615,7 +7229,7 @@
         <v>Rop</v>
       </c>
       <c r="G6" t="s">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -6626,15 +7240,15 @@
         <v>rop double precision,</v>
       </c>
       <c r="S6" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="T6" t="s">
-        <v>379</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
@@ -6653,7 +7267,7 @@
         <v>ExcessGeneration</v>
       </c>
       <c r="G7" t="s">
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -6664,15 +7278,15 @@
         <v>excess_generation double precision,</v>
       </c>
       <c r="S7" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="T7" t="s">
-        <v>371</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
@@ -6691,7 +7305,7 @@
         <v>Raise6SecRrp</v>
       </c>
       <c r="G8" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -6702,15 +7316,15 @@
         <v>raise6sec_rrp double precision,</v>
       </c>
       <c r="S8" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="T8" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
@@ -6729,7 +7343,7 @@
         <v>Raise6SecRop</v>
       </c>
       <c r="G9" t="s">
-        <v>392</v>
+        <v>337</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -6740,15 +7354,15 @@
         <v>raise6sec_rop double precision,</v>
       </c>
       <c r="S9" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="T9" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
@@ -6767,7 +7381,7 @@
         <v>Raise60SecRrp</v>
       </c>
       <c r="G10" t="s">
-        <v>393</v>
+        <v>338</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -6778,15 +7392,15 @@
         <v>raise60sec_rrp double precision,</v>
       </c>
       <c r="S10" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="T10" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
@@ -6805,7 +7419,7 @@
         <v>Raise60SecRop</v>
       </c>
       <c r="G11" t="s">
-        <v>394</v>
+        <v>339</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -6816,15 +7430,15 @@
         <v>raise60sec_rop double precision,</v>
       </c>
       <c r="S11" t="s">
-        <v>373</v>
+        <v>318</v>
       </c>
       <c r="T11" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="B12">
         <f t="shared" si="1"/>
@@ -6843,7 +7457,7 @@
         <v>Raise5MinRrp</v>
       </c>
       <c r="G12" t="s">
-        <v>395</v>
+        <v>340</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -6854,15 +7468,15 @@
         <v>raise5min_rrp double precision,</v>
       </c>
       <c r="S12" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="T12" t="s">
-        <v>374</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="B13">
         <f t="shared" si="1"/>
@@ -6881,7 +7495,7 @@
         <v>Raise5MinRop</v>
       </c>
       <c r="G13" t="s">
-        <v>396</v>
+        <v>341</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -6894,7 +7508,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="B14">
         <f t="shared" si="1"/>
@@ -6913,7 +7527,7 @@
         <v>RaiseRegRrp</v>
       </c>
       <c r="G14" t="s">
-        <v>324</v>
+        <v>269</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -6926,7 +7540,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="B15">
         <f t="shared" si="1"/>
@@ -6945,7 +7559,7 @@
         <v>RaiseRegRop</v>
       </c>
       <c r="G15" t="s">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
@@ -6958,7 +7572,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="B16">
         <f t="shared" si="1"/>
@@ -6977,7 +7591,7 @@
         <v>Lower6SecRrp</v>
       </c>
       <c r="G16" t="s">
-        <v>397</v>
+        <v>342</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
@@ -6990,7 +7604,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="B17">
         <f t="shared" si="1"/>
@@ -7009,7 +7623,7 @@
         <v>Lower6SecRop</v>
       </c>
       <c r="G17" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
@@ -7022,7 +7636,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="B18">
         <f t="shared" si="1"/>
@@ -7041,7 +7655,7 @@
         <v>Lower60SecRrp</v>
       </c>
       <c r="G18" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
@@ -7054,7 +7668,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="B19">
         <f t="shared" si="1"/>
@@ -7073,7 +7687,7 @@
         <v>Lower60SecRop</v>
       </c>
       <c r="G19" t="s">
-        <v>400</v>
+        <v>345</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="0"/>
@@ -7086,7 +7700,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="B20">
         <f t="shared" si="1"/>
@@ -7105,7 +7719,7 @@
         <v>Lower5MinRrp</v>
       </c>
       <c r="G20" t="s">
-        <v>401</v>
+        <v>346</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="0"/>
@@ -7118,7 +7732,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="B21">
         <f t="shared" si="1"/>
@@ -7137,7 +7751,7 @@
         <v>Lower5MinRop</v>
       </c>
       <c r="G21" t="s">
-        <v>402</v>
+        <v>347</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="0"/>
@@ -7150,7 +7764,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="B22">
         <f t="shared" si="1"/>
@@ -7169,7 +7783,7 @@
         <v>LowerRegRrp</v>
       </c>
       <c r="G22" t="s">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="0"/>
@@ -7182,7 +7796,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="B23">
         <f t="shared" si="1"/>
@@ -7201,7 +7815,7 @@
         <v>LowerRegRop</v>
       </c>
       <c r="G23" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="0"/>
@@ -7214,7 +7828,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>387</v>
+        <v>332</v>
       </c>
       <c r="B24">
         <f t="shared" si="1"/>
@@ -7233,7 +7847,7 @@
         <v>TotalDemand</v>
       </c>
       <c r="G24" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="0"/>
@@ -7246,7 +7860,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="B25">
         <f t="shared" si="1"/>
@@ -7265,7 +7879,7 @@
         <v>AvailableGeneration</v>
       </c>
       <c r="G25" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="0"/>
@@ -7278,7 +7892,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="B26">
         <f t="shared" si="1"/>
@@ -7297,7 +7911,7 @@
         <v>AvailableLoad</v>
       </c>
       <c r="G26" t="s">
-        <v>329</v>
+        <v>274</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="0"/>
@@ -7310,7 +7924,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="B27">
         <f t="shared" si="1"/>
@@ -7329,7 +7943,7 @@
         <v>DemandForecast</v>
       </c>
       <c r="G27" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="0"/>
@@ -7342,7 +7956,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="B28">
         <f t="shared" si="1"/>
@@ -7361,7 +7975,7 @@
         <v>DispatchableGeneration</v>
       </c>
       <c r="G28" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="0"/>
@@ -7374,7 +7988,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="B29">
         <f t="shared" si="1"/>
@@ -7393,7 +8007,7 @@
         <v>DispatchableLoad</v>
       </c>
       <c r="G29" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="0"/>
@@ -7406,7 +8020,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="B30">
         <f t="shared" si="1"/>
@@ -7425,7 +8039,7 @@
         <v>NetInterchange</v>
       </c>
       <c r="G30" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="0"/>
@@ -7438,7 +8052,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="B31">
         <f t="shared" si="1"/>
@@ -7457,7 +8071,7 @@
         <v>Lower5MinDispatch</v>
       </c>
       <c r="G31" t="s">
-        <v>403</v>
+        <v>348</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="0"/>
@@ -7470,7 +8084,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="B32">
         <f t="shared" si="1"/>
@@ -7489,7 +8103,7 @@
         <v>Lower5MinImport</v>
       </c>
       <c r="G32" t="s">
-        <v>404</v>
+        <v>349</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="0"/>
@@ -7502,7 +8116,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="B33">
         <f t="shared" si="1"/>
@@ -7521,7 +8135,7 @@
         <v>Lower5MinLocalDispatch</v>
       </c>
       <c r="G33" t="s">
-        <v>405</v>
+        <v>350</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="0"/>
@@ -7534,7 +8148,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="B34">
         <f t="shared" si="1"/>
@@ -7553,7 +8167,7 @@
         <v>Lower5MinLocalReq</v>
       </c>
       <c r="G34" t="s">
-        <v>406</v>
+        <v>351</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="0"/>
@@ -7566,7 +8180,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="B35">
         <f t="shared" si="1"/>
@@ -7585,7 +8199,7 @@
         <v>Lower5MinReq</v>
       </c>
       <c r="G35" t="s">
-        <v>407</v>
+        <v>352</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="0"/>
@@ -7598,7 +8212,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="B36">
         <f t="shared" si="1"/>
@@ -7617,7 +8231,7 @@
         <v>Lower60SecDispatch</v>
       </c>
       <c r="G36" t="s">
-        <v>408</v>
+        <v>353</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="0"/>
@@ -7630,7 +8244,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="B37">
         <f t="shared" si="1"/>
@@ -7649,7 +8263,7 @@
         <v>Lower60SecImport</v>
       </c>
       <c r="G37" t="s">
-        <v>409</v>
+        <v>354</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="0"/>
@@ -7662,7 +8276,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="B38">
         <f t="shared" si="1"/>
@@ -7681,7 +8295,7 @@
         <v>Lower60SecLocalDispatch</v>
       </c>
       <c r="G38" t="s">
-        <v>410</v>
+        <v>355</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="0"/>
@@ -7694,7 +8308,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="B39">
         <f t="shared" si="1"/>
@@ -7713,7 +8327,7 @@
         <v>Lower60SecLocalReq</v>
       </c>
       <c r="G39" t="s">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="0"/>
@@ -7726,7 +8340,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="B40">
         <f t="shared" si="1"/>
@@ -7745,7 +8359,7 @@
         <v>Lower60SecReq</v>
       </c>
       <c r="G40" t="s">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="0"/>
@@ -7758,7 +8372,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="B41">
         <f t="shared" si="1"/>
@@ -7777,7 +8391,7 @@
         <v>Lower6SecDispatch</v>
       </c>
       <c r="G41" t="s">
-        <v>413</v>
+        <v>358</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="0"/>
@@ -7790,7 +8404,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="B42">
         <f t="shared" si="1"/>
@@ -7809,7 +8423,7 @@
         <v>Lower6SecImport</v>
       </c>
       <c r="G42" t="s">
-        <v>414</v>
+        <v>359</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="0"/>
@@ -7822,7 +8436,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="B43">
         <f t="shared" si="1"/>
@@ -7841,7 +8455,7 @@
         <v>Lower6SecLocalDispatch</v>
       </c>
       <c r="G43" t="s">
-        <v>415</v>
+        <v>360</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="0"/>
@@ -7854,7 +8468,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="B44">
         <f t="shared" si="1"/>
@@ -7873,7 +8487,7 @@
         <v>Lower6SecLocalReq</v>
       </c>
       <c r="G44" t="s">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="0"/>
@@ -7886,7 +8500,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="B45">
         <f t="shared" si="1"/>
@@ -7905,7 +8519,7 @@
         <v>Lower6SecReq</v>
       </c>
       <c r="G45" t="s">
-        <v>417</v>
+        <v>362</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="0"/>
@@ -7918,7 +8532,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="B46">
         <f t="shared" si="1"/>
@@ -7937,7 +8551,7 @@
         <v>Raise5MinDispatch</v>
       </c>
       <c r="G46" t="s">
-        <v>418</v>
+        <v>363</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="0"/>
@@ -7950,7 +8564,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
@@ -7969,7 +8583,7 @@
         <v>Raise5MinImport</v>
       </c>
       <c r="G47" t="s">
-        <v>419</v>
+        <v>364</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="0"/>
@@ -7982,7 +8596,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="B48">
         <f t="shared" si="1"/>
@@ -8001,7 +8615,7 @@
         <v>Raise5MinLocalDispatch</v>
       </c>
       <c r="G48" t="s">
-        <v>420</v>
+        <v>365</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="0"/>
@@ -8014,7 +8628,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="B49">
         <f t="shared" si="1"/>
@@ -8033,7 +8647,7 @@
         <v>Raise5MinLocalReq</v>
       </c>
       <c r="G49" t="s">
-        <v>421</v>
+        <v>366</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="0"/>
@@ -8046,7 +8660,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="B50">
         <f t="shared" si="1"/>
@@ -8065,7 +8679,7 @@
         <v>Raise5MinReq</v>
       </c>
       <c r="G50" t="s">
-        <v>422</v>
+        <v>367</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="0"/>
@@ -8078,7 +8692,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="B51">
         <f t="shared" si="1"/>
@@ -8097,7 +8711,7 @@
         <v>Raise60SecDispatch</v>
       </c>
       <c r="G51" t="s">
-        <v>423</v>
+        <v>368</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="0"/>
@@ -8110,7 +8724,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="B52">
         <f t="shared" si="1"/>
@@ -8129,7 +8743,7 @@
         <v>Raise60SecImport</v>
       </c>
       <c r="G52" t="s">
-        <v>424</v>
+        <v>369</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="0"/>
@@ -8142,7 +8756,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="B53">
         <f t="shared" si="1"/>
@@ -8161,7 +8775,7 @@
         <v>Raise60SecLocalDispatch</v>
       </c>
       <c r="G53" t="s">
-        <v>425</v>
+        <v>370</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="0"/>
@@ -8174,7 +8788,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="B54">
         <f t="shared" si="1"/>
@@ -8193,7 +8807,7 @@
         <v>Raise60SecLocalReq</v>
       </c>
       <c r="G54" t="s">
-        <v>426</v>
+        <v>371</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="0"/>
@@ -8206,7 +8820,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="B55">
         <f t="shared" si="1"/>
@@ -8225,7 +8839,7 @@
         <v>Raise60SecReq</v>
       </c>
       <c r="G55" t="s">
-        <v>427</v>
+        <v>372</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="0"/>
@@ -8238,7 +8852,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="B56">
         <f t="shared" si="1"/>
@@ -8257,7 +8871,7 @@
         <v>Raise6SecDispatch</v>
       </c>
       <c r="G56" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="0"/>
@@ -8270,7 +8884,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="B57">
         <f t="shared" si="1"/>
@@ -8289,7 +8903,7 @@
         <v>Raise6SecImport</v>
       </c>
       <c r="G57" t="s">
-        <v>429</v>
+        <v>374</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="0"/>
@@ -8302,7 +8916,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="B58">
         <f t="shared" si="1"/>
@@ -8321,7 +8935,7 @@
         <v>Raise6SecLocalDispatch</v>
       </c>
       <c r="G58" t="s">
-        <v>430</v>
+        <v>375</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="0"/>
@@ -8334,7 +8948,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="B59">
         <f t="shared" si="1"/>
@@ -8353,7 +8967,7 @@
         <v>Raise6SecLocalReq</v>
       </c>
       <c r="G59" t="s">
-        <v>431</v>
+        <v>376</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="0"/>
@@ -8366,7 +8980,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>273</v>
+        <v>218</v>
       </c>
       <c r="B60">
         <f t="shared" si="1"/>
@@ -8385,7 +8999,7 @@
         <v>Raise6SecReq</v>
       </c>
       <c r="G60" t="s">
-        <v>432</v>
+        <v>377</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="0"/>
@@ -8398,7 +9012,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>274</v>
+        <v>219</v>
       </c>
       <c r="B61">
         <f t="shared" si="1"/>
@@ -8417,7 +9031,7 @@
         <v>AggregateDispatchError</v>
       </c>
       <c r="G61" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="0"/>
@@ -8430,7 +9044,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="B62">
         <f t="shared" si="1"/>
@@ -8449,7 +9063,7 @@
         <v>InitialSupply</v>
       </c>
       <c r="G62" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="0"/>
@@ -8462,7 +9076,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="B63">
         <f t="shared" si="1"/>
@@ -8481,7 +9095,7 @@
         <v>ClearedSupply</v>
       </c>
       <c r="G63" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="0"/>
@@ -8494,7 +9108,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="B64">
         <f t="shared" si="1"/>
@@ -8513,7 +9127,7 @@
         <v>LowerRegImport</v>
       </c>
       <c r="G64" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="0"/>
@@ -8526,7 +9140,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="B65">
         <f t="shared" si="1"/>
@@ -8545,7 +9159,7 @@
         <v>LowerRegDispatch</v>
       </c>
       <c r="G65" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="0"/>
@@ -8558,7 +9172,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="B66">
         <f t="shared" si="1"/>
@@ -8577,7 +9191,7 @@
         <v>LowerRegLocalDispatch</v>
       </c>
       <c r="G66" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" ref="H66:H104" si="6">VLOOKUP(D66,$S$2:$T$20,2,FALSE)</f>
@@ -8590,7 +9204,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B104" si="7">LEN(A67)</f>
@@ -8609,7 +9223,7 @@
         <v>LowerRegLocalReq</v>
       </c>
       <c r="G67" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="6"/>
@@ -8622,7 +9236,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="B68">
         <f t="shared" si="7"/>
@@ -8641,7 +9255,7 @@
         <v>LowerRegReq</v>
       </c>
       <c r="G68" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="6"/>
@@ -8654,7 +9268,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="B69">
         <f t="shared" si="7"/>
@@ -8673,7 +9287,7 @@
         <v>RaiseRegImport</v>
       </c>
       <c r="G69" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="6"/>
@@ -8686,7 +9300,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="B70">
         <f t="shared" si="7"/>
@@ -8705,7 +9319,7 @@
         <v>RaiseRegDispatch</v>
       </c>
       <c r="G70" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="6"/>
@@ -8718,7 +9332,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="B71">
         <f t="shared" si="7"/>
@@ -8737,7 +9351,7 @@
         <v>RaiseRegLocalDispatch</v>
       </c>
       <c r="G71" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="6"/>
@@ -8750,7 +9364,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="B72">
         <f t="shared" si="7"/>
@@ -8769,7 +9383,7 @@
         <v>RaiseRegLocalReq</v>
       </c>
       <c r="G72" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="6"/>
@@ -8782,7 +9396,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
       <c r="B73">
         <f t="shared" si="7"/>
@@ -8801,7 +9415,7 @@
         <v>RaiseRegReq</v>
       </c>
       <c r="G73" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="6"/>
@@ -8814,7 +9428,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="B74">
         <f t="shared" si="7"/>
@@ -8833,7 +9447,7 @@
         <v>Raise5MinLocalViolation</v>
       </c>
       <c r="G74" t="s">
-        <v>433</v>
+        <v>378</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="6"/>
@@ -8846,7 +9460,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>288</v>
+        <v>233</v>
       </c>
       <c r="B75">
         <f t="shared" si="7"/>
@@ -8865,7 +9479,7 @@
         <v>RaiseRegLocalViolation</v>
       </c>
       <c r="G75" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="6"/>
@@ -8878,7 +9492,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>289</v>
+        <v>234</v>
       </c>
       <c r="B76">
         <f t="shared" si="7"/>
@@ -8897,7 +9511,7 @@
         <v>Raise60SecLocalViolation</v>
       </c>
       <c r="G76" t="s">
-        <v>434</v>
+        <v>379</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="6"/>
@@ -8910,7 +9524,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="B77">
         <f t="shared" si="7"/>
@@ -8929,7 +9543,7 @@
         <v>Raise6SecLocalViolation</v>
       </c>
       <c r="G77" t="s">
-        <v>435</v>
+        <v>380</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="6"/>
@@ -8942,7 +9556,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
       <c r="B78">
         <f t="shared" si="7"/>
@@ -8961,7 +9575,7 @@
         <v>Lower5MinLocalViolation</v>
       </c>
       <c r="G78" t="s">
-        <v>436</v>
+        <v>381</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="6"/>
@@ -8974,7 +9588,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="B79">
         <f t="shared" si="7"/>
@@ -8993,7 +9607,7 @@
         <v>LowerRegLocalViolation</v>
       </c>
       <c r="G79" t="s">
-        <v>347</v>
+        <v>292</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="6"/>
@@ -9006,7 +9620,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>293</v>
+        <v>238</v>
       </c>
       <c r="B80">
         <f t="shared" si="7"/>
@@ -9025,7 +9639,7 @@
         <v>Lower60SecLocalViolation</v>
       </c>
       <c r="G80" t="s">
-        <v>437</v>
+        <v>382</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="6"/>
@@ -9038,7 +9652,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>294</v>
+        <v>239</v>
       </c>
       <c r="B81">
         <f t="shared" si="7"/>
@@ -9057,7 +9671,7 @@
         <v>Lower6SecLocalViolation</v>
       </c>
       <c r="G81" t="s">
-        <v>438</v>
+        <v>383</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="6"/>
@@ -9070,7 +9684,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>295</v>
+        <v>240</v>
       </c>
       <c r="B82">
         <f t="shared" si="7"/>
@@ -9089,7 +9703,7 @@
         <v>Raise5MinViolation</v>
       </c>
       <c r="G82" t="s">
-        <v>439</v>
+        <v>384</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="6"/>
@@ -9102,7 +9716,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="B83">
         <f t="shared" si="7"/>
@@ -9121,7 +9735,7 @@
         <v>RaiseRegViolation</v>
       </c>
       <c r="G83" t="s">
-        <v>348</v>
+        <v>293</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="6"/>
@@ -9134,7 +9748,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="B84">
         <f t="shared" si="7"/>
@@ -9153,7 +9767,7 @@
         <v>Raise60SecViolation</v>
       </c>
       <c r="G84" t="s">
-        <v>440</v>
+        <v>385</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="6"/>
@@ -9166,7 +9780,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="B85">
         <f t="shared" si="7"/>
@@ -9185,7 +9799,7 @@
         <v>Raise6SecViolation</v>
       </c>
       <c r="G85" t="s">
-        <v>441</v>
+        <v>386</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="6"/>
@@ -9198,7 +9812,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="B86">
         <f t="shared" si="7"/>
@@ -9217,7 +9831,7 @@
         <v>Lower5MinViolation</v>
       </c>
       <c r="G86" t="s">
-        <v>442</v>
+        <v>387</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="6"/>
@@ -9230,7 +9844,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="B87">
         <f t="shared" si="7"/>
@@ -9249,7 +9863,7 @@
         <v>LowerRegViolation</v>
       </c>
       <c r="G87" t="s">
-        <v>349</v>
+        <v>294</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="6"/>
@@ -9262,7 +9876,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>301</v>
+        <v>246</v>
       </c>
       <c r="B88">
         <f t="shared" si="7"/>
@@ -9281,7 +9895,7 @@
         <v>Lower60SecViolation</v>
       </c>
       <c r="G88" t="s">
-        <v>443</v>
+        <v>388</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="6"/>
@@ -9294,7 +9908,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="B89">
         <f t="shared" si="7"/>
@@ -9313,7 +9927,7 @@
         <v>Lower6SecViolation</v>
       </c>
       <c r="G89" t="s">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="6"/>
@@ -9326,7 +9940,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="B90">
         <f t="shared" si="7"/>
@@ -9345,7 +9959,7 @@
         <v>LastChanged</v>
       </c>
       <c r="G90" t="s">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="6"/>
@@ -9358,7 +9972,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="B91">
         <f t="shared" si="7"/>
@@ -9377,7 +9991,7 @@
         <v>TotalIntermittentGeneration</v>
       </c>
       <c r="G91" t="s">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="6"/>
@@ -9390,7 +10004,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="B92">
         <f t="shared" si="7"/>
@@ -9409,7 +10023,7 @@
         <v>DemandAndNonSchedgen</v>
       </c>
       <c r="G92" t="s">
-        <v>352</v>
+        <v>297</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="6"/>
@@ -9422,7 +10036,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="B93">
         <f t="shared" si="7"/>
@@ -9441,7 +10055,7 @@
         <v>Uigf</v>
       </c>
       <c r="G93" t="s">
-        <v>353</v>
+        <v>298</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="6"/>
@@ -9454,7 +10068,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="B94">
         <f t="shared" si="7"/>
@@ -9473,7 +10087,7 @@
         <v>SemiScheduleClearedMw</v>
       </c>
       <c r="G94" t="s">
-        <v>354</v>
+        <v>299</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="6"/>
@@ -9486,7 +10100,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
       <c r="B95">
         <f t="shared" si="7"/>
@@ -9505,7 +10119,7 @@
         <v>SemiScheduleComplianceMw</v>
       </c>
       <c r="G95" t="s">
-        <v>355</v>
+        <v>300</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="6"/>
@@ -9518,7 +10132,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>309</v>
+        <v>254</v>
       </c>
       <c r="B96">
         <f t="shared" si="7"/>
@@ -9537,7 +10151,7 @@
         <v>SsSolarUigf</v>
       </c>
       <c r="G96" t="s">
-        <v>356</v>
+        <v>301</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="6"/>
@@ -9550,7 +10164,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="B97">
         <f t="shared" si="7"/>
@@ -9569,7 +10183,7 @@
         <v>SsWindUigf</v>
       </c>
       <c r="G97" t="s">
-        <v>357</v>
+        <v>302</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="6"/>
@@ -9582,7 +10196,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="B98">
         <f t="shared" si="7"/>
@@ -9601,7 +10215,7 @@
         <v>SsSolarClearedMw</v>
       </c>
       <c r="G98" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="6"/>
@@ -9614,7 +10228,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>312</v>
+        <v>257</v>
       </c>
       <c r="B99">
         <f t="shared" si="7"/>
@@ -9633,7 +10247,7 @@
         <v>SsWindClearedMw</v>
       </c>
       <c r="G99" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="6"/>
@@ -9646,7 +10260,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>313</v>
+        <v>258</v>
       </c>
       <c r="B100">
         <f t="shared" si="7"/>
@@ -9665,7 +10279,7 @@
         <v>SsSolarComplianceMw</v>
       </c>
       <c r="G100" t="s">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="6"/>
@@ -9678,7 +10292,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="B101">
         <f t="shared" si="7"/>
@@ -9697,7 +10311,7 @@
         <v>SsWindComplianceMw</v>
       </c>
       <c r="G101" t="s">
-        <v>361</v>
+        <v>306</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="6"/>
@@ -9710,7 +10324,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>315</v>
+        <v>260</v>
       </c>
       <c r="B102">
         <f t="shared" si="7"/>
@@ -9729,7 +10343,7 @@
         <v>WdrInitialMw</v>
       </c>
       <c r="G102" t="s">
-        <v>362</v>
+        <v>307</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="6"/>
@@ -9742,7 +10356,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="B103">
         <f t="shared" si="7"/>
@@ -9761,7 +10375,7 @@
         <v>WdrAvailable</v>
       </c>
       <c r="G103" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="6"/>
@@ -9774,7 +10388,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="B104">
         <f t="shared" si="7"/>
@@ -9793,7 +10407,7 @@
         <v>WdrDispatched</v>
       </c>
       <c r="G104" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="6"/>

--- a/Useful/VariableConverted.xlsx
+++ b/Useful/VariableConverted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/owenholloway/Code/C#/NemTracker/Useful/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B924C8DC-DCA5-9842-BAB4-BA4BF56E0A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5F97A7-38FD-3144-8CC2-B13158A433F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-51200" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{DA1AE469-F5E3-5145-9063-675D6E6FF3EB}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="466">
   <si>
     <t>I</t>
   </si>
@@ -1433,6 +1433,9 @@
   </si>
   <si>
     <t>SemischeduleComplianceMw</t>
+  </si>
+  <si>
+    <t>DISPATCHIS</t>
   </si>
 </sst>
 </file>
@@ -2765,10 +2768,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB0BA33-06CC-E248-BE80-0045F320AA22}">
-  <dimension ref="B2:N119"/>
+  <dimension ref="B1:N119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q99" sqref="Q99"/>
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2788,6 +2791,11 @@
     <col min="14" max="14" width="50.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
